--- a/data/trans_orig/Q5406-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q5406-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A15CA554-16E6-4C3A-9387-0C918DBBB5B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0123C3C1-E3B7-4581-AF61-5533C3F41AAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A99DD0E8-3CD0-45F0-A7B2-4F634E64872B}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5E41E21F-F95E-4624-AE71-B8231B69FAC6}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="736">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="743">
   <si>
     <t>Población según si es capaz de tomar medicación en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -92,7 +92,7 @@
     <t>5,13%</t>
   </si>
   <si>
-    <t>15,53%</t>
+    <t>15,55%</t>
   </si>
   <si>
     <t>5,96%</t>
@@ -104,10 +104,10 @@
     <t>5,57%</t>
   </si>
   <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
   </si>
   <si>
     <t>Sin ayuda</t>
@@ -116,7 +116,7 @@
     <t>94,87%</t>
   </si>
   <si>
-    <t>84,47%</t>
+    <t>84,45%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -131,2097 +131,2121 @@
     <t>94,43%</t>
   </si>
   <si>
+    <t>85,69%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>90,04%</t>
+  </si>
+  <si>
+    <t>80,29%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
     <t>87,17%</t>
   </si>
   <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>87,22%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>89,88%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>87,35%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>88,33%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>91,06%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>34,87%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>82,45%</t>
+  </si>
+  <si>
+    <t>65,13%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>75,62%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>86,55%</t>
+  </si>
+  <si>
+    <t>77,53%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>86,33%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>87,06%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>91,61%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>88,25%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
+  </si>
+  <si>
+    <t>84,96%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de tomar medicación en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>83,6%</t>
+  </si>
+  <si>
+    <t>71,38%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>84,67%</t>
+  </si>
+  <si>
+    <t>75,95%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
+  </si>
+  <si>
+    <t>84,2%</t>
+  </si>
+  <si>
+    <t>76,83%</t>
+  </si>
+  <si>
+    <t>89,3%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>87,14%</t>
+  </si>
+  <si>
+    <t>73,16%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>82,48%</t>
+  </si>
+  <si>
+    <t>72,48%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>84,39%</t>
+  </si>
+  <si>
+    <t>76,76%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>84,28%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>88,68%</t>
+  </si>
+  <si>
+    <t>82,08%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
+  </si>
+  <si>
+    <t>85,3%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>74,37%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>89,8%</t>
+  </si>
+  <si>
+    <t>78,07%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>89,72%</t>
+  </si>
+  <si>
+    <t>81,88%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>85,55%</t>
+  </si>
+  <si>
+    <t>73,17%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>81,58%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>81,52%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>86,44%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>84,3%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>86,91%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
   </si>
   <si>
     <t>6,64%</t>
   </si>
   <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>87,42%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>88,77%</t>
+  </si>
+  <si>
+    <t>86,05%</t>
+  </si>
+  <si>
+    <t>91,01%</t>
+  </si>
+  <si>
+    <t>89,45%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de tomar medicación en 2015 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>81,06%</t>
+  </si>
+  <si>
+    <t>68,28%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>81,86%</t>
+  </si>
+  <si>
+    <t>66,47%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>81,51%</t>
+  </si>
+  <si>
+    <t>71,68%</t>
+  </si>
+  <si>
+    <t>89,14%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>84,51%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>86,71%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>84,71%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>87,38%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>81,93%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>87,0%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>90,17%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>80,9%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>88,03%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>87,99%</t>
+  </si>
+  <si>
+    <t>76,2%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>89,61%</t>
+  </si>
+  <si>
+    <t>77,76%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
+  </si>
+  <si>
+    <t>82,0%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>86,76%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de tomar medicación en 2023 (Tasa respuesta: 31,22%)</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>88,19%</t>
+  </si>
+  <si>
+    <t>80,22%</t>
+  </si>
+  <si>
+    <t>86,85%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>85,71%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>82,04%</t>
+  </si>
+  <si>
+    <t>76,35%</t>
+  </si>
+  <si>
+    <t>87,12%</t>
+  </si>
+  <si>
+    <t>85,91%</t>
+  </si>
+  <si>
+    <t>81,63%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>84,97%</t>
+  </si>
+  <si>
+    <t>85,08%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>87,11%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>86,59%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>89,1%</t>
+  </si>
+  <si>
+    <t>84,94%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
   </si>
   <si>
     <t>2,66%</t>
   </si>
   <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>79,88%</t>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>83,64%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>87,6%</t>
+  </si>
+  <si>
+    <t>81,24%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>89,42%</t>
+  </si>
+  <si>
+    <t>84,52%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>87,04%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>84,88%</t>
+  </si>
+  <si>
+    <t>79,06%</t>
+  </si>
+  <si>
+    <t>89,73%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
+  </si>
+  <si>
+    <t>84,62%</t>
+  </si>
+  <si>
+    <t>91,74%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
   </si>
   <si>
     <t>95,81%</t>
   </si>
   <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>87,1%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>85,69%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>90,4%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>86,65%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>88,4%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>31,95%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>82,45%</t>
-  </si>
-  <si>
-    <t>68,05%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>74,42%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>86,55%</t>
-  </si>
-  <si>
-    <t>77,22%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>90,07%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>86,33%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
   </si>
   <si>
     <t>2,4%</t>
   </si>
   <si>
-    <t>10,69%</t>
-  </si>
-  <si>
     <t>5,59%</t>
   </si>
   <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>88,01%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>88,25%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>85,11%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>87,86%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>92,25%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de tomar medicación en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>83,6%</t>
-  </si>
-  <si>
-    <t>71,49%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>84,67%</t>
-  </si>
-  <si>
-    <t>75,28%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>84,2%</t>
-  </si>
-  <si>
-    <t>76,82%</t>
-  </si>
-  <si>
-    <t>89,64%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>87,14%</t>
-  </si>
-  <si>
-    <t>72,91%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>82,48%</t>
-  </si>
-  <si>
-    <t>71,96%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>84,39%</t>
-  </si>
-  <si>
-    <t>76,77%</t>
-  </si>
-  <si>
-    <t>89,69%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>88,68%</t>
-  </si>
-  <si>
-    <t>82,14%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>89,84%</t>
-  </si>
-  <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>74,18%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
-  </si>
-  <si>
-    <t>78,07%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>89,72%</t>
-  </si>
-  <si>
-    <t>80,8%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>85,55%</t>
-  </si>
-  <si>
-    <t>73,01%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>81,58%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>82,36%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>86,8%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>85,08%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>87,42%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>87,87%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>86,68%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>89,49%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
-  </si>
-  <si>
-    <t>87,09%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>88,77%</t>
-  </si>
-  <si>
-    <t>86,2%</t>
-  </si>
-  <si>
-    <t>91,04%</t>
-  </si>
-  <si>
-    <t>89,45%</t>
-  </si>
-  <si>
-    <t>87,8%</t>
-  </si>
-  <si>
-    <t>91,21%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de tomar medicación en 2015 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
     <t>6,81%</t>
   </si>
   <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>81,06%</t>
-  </si>
-  <si>
-    <t>69,19%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
-  </si>
-  <si>
-    <t>81,86%</t>
-  </si>
-  <si>
-    <t>65,04%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>81,51%</t>
-  </si>
-  <si>
-    <t>70,96%</t>
-  </si>
-  <si>
-    <t>88,81%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>84,11%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>85,01%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>87,38%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>83,07%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>86,19%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
-  </si>
-  <si>
-    <t>91,72%</t>
-  </si>
-  <si>
-    <t>81,38%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>77,73%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>89,61%</t>
-  </si>
-  <si>
-    <t>77,32%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>88,93%</t>
-  </si>
-  <si>
-    <t>81,35%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>90,72%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>86,26%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>90,02%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de tomar medicación en 2023 (Tasa respuesta: 31,22%)</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>89,09%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>88,19%</t>
-  </si>
-  <si>
-    <t>81,24%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>86,87%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>84,7%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>82,04%</t>
-  </si>
-  <si>
-    <t>76,23%</t>
-  </si>
-  <si>
-    <t>86,77%</t>
-  </si>
-  <si>
-    <t>85,91%</t>
-  </si>
-  <si>
-    <t>81,71%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>84,9%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>85,73%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>86,81%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>89,1%</t>
-  </si>
-  <si>
-    <t>85,06%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>87,22%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>83,97%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>87,6%</t>
-  </si>
-  <si>
-    <t>81,46%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>89,42%</t>
-  </si>
-  <si>
-    <t>84,43%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>87,55%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>84,88%</t>
-  </si>
-  <si>
-    <t>79,01%</t>
-  </si>
-  <si>
-    <t>89,85%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>91,2%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
     <t>4,71%</t>
   </si>
   <si>
@@ -2231,19 +2255,16 @@
     <t>94,27%</t>
   </si>
   <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
+    <t>89,98%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
   </si>
   <si>
     <t>93,32%</t>
   </si>
   <si>
-    <t>92,19%</t>
+    <t>92,22%</t>
   </si>
   <si>
     <t>94,69%</t>
@@ -2658,7 +2679,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB025F6B-D2C0-4E3A-A25D-C26CA6A9E43C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{720AE7C2-B27D-4254-BD98-623D6555BF0C}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3245,13 +3266,13 @@
         <v>949</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H13" s="7">
         <v>4</v>
@@ -3260,13 +3281,13 @@
         <v>4430</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>61</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M13" s="7">
         <v>5</v>
@@ -3275,10 +3296,10 @@
         <v>5380</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>70</v>
@@ -3314,10 +3335,10 @@
         <v>73</v>
       </c>
       <c r="K14" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M14" s="7">
         <v>129</v>
@@ -3326,13 +3347,13 @@
         <v>127954</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3388,7 +3409,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3406,7 +3427,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -3415,13 +3436,13 @@
         <v>1059</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -3430,13 +3451,13 @@
         <v>1059</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3451,13 +3472,13 @@
         <v>2610</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -3466,13 +3487,13 @@
         <v>2199</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M17" s="7">
         <v>5</v>
@@ -3481,13 +3502,13 @@
         <v>4809</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3502,13 +3523,13 @@
         <v>52512</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="H18" s="7">
         <v>74</v>
@@ -3517,13 +3538,13 @@
         <v>71054</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="M18" s="7">
         <v>131</v>
@@ -3532,13 +3553,13 @@
         <v>123568</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3594,7 +3615,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3612,7 +3633,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -3621,13 +3642,13 @@
         <v>2055</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -3636,13 +3657,13 @@
         <v>2055</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3657,13 +3678,13 @@
         <v>5149</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H21" s="7">
         <v>2</v>
@@ -3672,13 +3693,13 @@
         <v>2291</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="M21" s="7">
         <v>8</v>
@@ -3687,13 +3708,13 @@
         <v>7441</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3708,13 +3729,13 @@
         <v>24198</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H22" s="7">
         <v>35</v>
@@ -3723,13 +3744,13 @@
         <v>36900</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="M22" s="7">
         <v>63</v>
@@ -3738,13 +3759,13 @@
         <v>61097</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3800,7 +3821,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3818,7 +3839,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -3833,7 +3854,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -3848,7 +3869,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3863,13 +3884,13 @@
         <v>849</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H25" s="7">
         <v>3</v>
@@ -3878,13 +3899,13 @@
         <v>3693</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="M25" s="7">
         <v>4</v>
@@ -3893,13 +3914,13 @@
         <v>4542</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3914,10 +3935,10 @@
         <v>46347</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>26</v>
@@ -3929,13 +3950,13 @@
         <v>66616</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="M26" s="7">
         <v>112</v>
@@ -3944,13 +3965,13 @@
         <v>112964</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4006,7 +4027,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -4018,13 +4039,13 @@
         <v>838</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H28" s="7">
         <v>2</v>
@@ -4033,13 +4054,13 @@
         <v>2021</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="M28" s="7">
         <v>3</v>
@@ -4048,13 +4069,13 @@
         <v>2859</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4069,13 +4090,13 @@
         <v>6227</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="H29" s="7">
         <v>2</v>
@@ -4084,13 +4105,13 @@
         <v>2021</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>156</v>
+        <v>37</v>
       </c>
       <c r="M29" s="7">
         <v>9</v>
@@ -4099,13 +4120,13 @@
         <v>8247</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4120,13 +4141,13 @@
         <v>98863</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H30" s="7">
         <v>113</v>
@@ -4135,13 +4156,13 @@
         <v>113080</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="M30" s="7">
         <v>213</v>
@@ -4150,13 +4171,13 @@
         <v>211943</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>168</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4212,7 +4233,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -4230,7 +4251,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H32" s="7">
         <v>7</v>
@@ -4239,13 +4260,13 @@
         <v>8461</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>171</v>
+        <v>38</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="M32" s="7">
         <v>7</v>
@@ -4254,13 +4275,13 @@
         <v>8461</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4275,13 +4296,13 @@
         <v>6690</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="H33" s="7">
         <v>4</v>
@@ -4290,13 +4311,13 @@
         <v>5105</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="M33" s="7">
         <v>11</v>
@@ -4305,13 +4326,13 @@
         <v>11795</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -4326,13 +4347,13 @@
         <v>105203</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="H34" s="7">
         <v>133</v>
@@ -4341,13 +4362,13 @@
         <v>139659</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="M34" s="7">
         <v>242</v>
@@ -4356,13 +4377,13 @@
         <v>244862</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4430,13 +4451,13 @@
         <v>3576</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="H36" s="7">
         <v>15</v>
@@ -4445,13 +4466,13 @@
         <v>15947</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>198</v>
+        <v>168</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="M36" s="7">
         <v>18</v>
@@ -4460,13 +4481,13 @@
         <v>19523</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4481,13 +4502,13 @@
         <v>28190</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="H37" s="7">
         <v>24</v>
@@ -4496,13 +4517,13 @@
         <v>27043</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="M37" s="7">
         <v>55</v>
@@ -4511,13 +4532,13 @@
         <v>55233</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>147</v>
+        <v>200</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4535,10 +4556,10 @@
         <v>53</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="H38" s="7">
         <v>622</v>
@@ -4547,13 +4568,13 @@
         <v>633852</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>213</v>
+        <v>115</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="M38" s="7">
         <v>1111</v>
@@ -4562,13 +4583,13 @@
         <v>1104552</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4624,7 +4645,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -4648,7 +4669,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B22CAF41-00EC-468A-8964-828FBEF9CCCD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDE4DC5E-A4B6-4D5F-B484-40AD2A7BC630}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4665,7 +4686,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4770,39 +4791,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4815,39 +4836,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4860,39 +4881,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4905,39 +4926,39 @@
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
       </c>
       <c r="N7" s="7"/>
       <c r="O7" s="7" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4954,13 +4975,13 @@
         <v>5380</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="H8" s="7">
         <v>6</v>
@@ -4969,13 +4990,13 @@
         <v>7848</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="M8" s="7">
         <v>10</v>
@@ -4984,13 +5005,13 @@
         <v>13228</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5005,13 +5026,13 @@
         <v>7613</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>106</v>
+        <v>223</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="H9" s="7">
         <v>7</v>
@@ -5020,13 +5041,13 @@
         <v>7799</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="M9" s="7">
         <v>12</v>
@@ -5035,13 +5056,13 @@
         <v>15412</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5056,13 +5077,13 @@
         <v>66210</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="H10" s="7">
         <v>80</v>
@@ -5071,13 +5092,13 @@
         <v>86446</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="M10" s="7">
         <v>140</v>
@@ -5086,13 +5107,13 @@
         <v>152656</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5160,13 +5181,13 @@
         <v>4036</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="H12" s="7">
         <v>7</v>
@@ -5175,13 +5196,13 @@
         <v>7624</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>204</v>
+        <v>83</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="M12" s="7">
         <v>11</v>
@@ -5190,13 +5211,13 @@
         <v>11660</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5211,13 +5232,13 @@
         <v>3134</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="H13" s="7">
         <v>6</v>
@@ -5226,13 +5247,13 @@
         <v>6390</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="M13" s="7">
         <v>8</v>
@@ -5241,13 +5262,13 @@
         <v>9524</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5262,13 +5283,13 @@
         <v>48572</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="H14" s="7">
         <v>62</v>
@@ -5277,13 +5298,13 @@
         <v>65954</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="M14" s="7">
         <v>109</v>
@@ -5292,13 +5313,13 @@
         <v>114527</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5354,7 +5375,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5366,13 +5387,13 @@
         <v>2133</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -5381,13 +5402,13 @@
         <v>4265</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>63</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="M16" s="7">
         <v>6</v>
@@ -5396,13 +5417,13 @@
         <v>6398</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5417,13 +5438,13 @@
         <v>7310</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="H17" s="7">
         <v>10</v>
@@ -5432,13 +5453,13 @@
         <v>10964</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>204</v>
+        <v>275</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="M17" s="7">
         <v>17</v>
@@ -5447,13 +5468,13 @@
         <v>18274</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5468,13 +5489,13 @@
         <v>98865</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="H18" s="7">
         <v>115</v>
@@ -5483,13 +5504,13 @@
         <v>119240</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="M18" s="7">
         <v>204</v>
@@ -5498,13 +5519,13 @@
         <v>218105</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5560,7 +5581,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5572,13 +5593,13 @@
         <v>1157</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
@@ -5587,13 +5608,13 @@
         <v>2979</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
@@ -5602,13 +5623,13 @@
         <v>4136</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5623,13 +5644,13 @@
         <v>2135</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="H21" s="7">
         <v>2</v>
@@ -5638,13 +5659,13 @@
         <v>2104</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="M21" s="7">
         <v>4</v>
@@ -5653,13 +5674,13 @@
         <v>4239</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5674,13 +5695,13 @@
         <v>28320</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="H22" s="7">
         <v>43</v>
@@ -5689,13 +5710,13 @@
         <v>44771</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="M22" s="7">
         <v>68</v>
@@ -5704,13 +5725,13 @@
         <v>73092</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5766,7 +5787,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5778,13 +5799,13 @@
         <v>2144</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="H24" s="7">
         <v>3</v>
@@ -5793,13 +5814,13 @@
         <v>3243</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>86</v>
+        <v>314</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="M24" s="7">
         <v>5</v>
@@ -5808,13 +5829,13 @@
         <v>5387</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5829,13 +5850,13 @@
         <v>5333</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="H25" s="7">
         <v>3</v>
@@ -5844,13 +5865,13 @@
         <v>3286</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>147</v>
+        <v>200</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="M25" s="7">
         <v>8</v>
@@ -5859,13 +5880,13 @@
         <v>8619</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5880,13 +5901,13 @@
         <v>44279</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="H26" s="7">
         <v>63</v>
@@ -5895,13 +5916,13 @@
         <v>63682</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="M26" s="7">
         <v>106</v>
@@ -5910,13 +5931,13 @@
         <v>107962</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5972,7 +5993,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5984,13 +6005,13 @@
         <v>1989</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="H28" s="7">
         <v>3</v>
@@ -5999,13 +6020,13 @@
         <v>3123</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="M28" s="7">
         <v>5</v>
@@ -6014,13 +6035,13 @@
         <v>5112</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6035,13 +6056,13 @@
         <v>6071</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="H29" s="7">
         <v>10</v>
@@ -6050,13 +6071,13 @@
         <v>10451</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>353</v>
+        <v>289</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="M29" s="7">
         <v>16</v>
@@ -6065,13 +6086,13 @@
         <v>16521</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6086,13 +6107,13 @@
         <v>104203</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="H30" s="7">
         <v>116</v>
@@ -6101,13 +6122,13 @@
         <v>128388</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>139</v>
+        <v>356</v>
       </c>
       <c r="M30" s="7">
         <v>208</v>
@@ -6116,13 +6137,13 @@
         <v>232592</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>363</v>
+        <v>160</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6178,7 +6199,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -6196,7 +6217,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>248</v>
+        <v>359</v>
       </c>
       <c r="H32" s="7">
         <v>3</v>
@@ -6205,13 +6226,13 @@
         <v>3295</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="M32" s="7">
         <v>3</v>
@@ -6220,13 +6241,13 @@
         <v>3295</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>261</v>
+        <v>365</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6241,13 +6262,13 @@
         <v>5563</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="H33" s="7">
         <v>9</v>
@@ -6256,13 +6277,13 @@
         <v>10093</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>279</v>
+        <v>48</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="M33" s="7">
         <v>13</v>
@@ -6271,13 +6292,13 @@
         <v>15656</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>149</v>
+        <v>371</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6292,13 +6313,13 @@
         <v>115189</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>378</v>
+        <v>206</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="H34" s="7">
         <v>139</v>
@@ -6307,13 +6328,13 @@
         <v>151029</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="M34" s="7">
         <v>241</v>
@@ -6325,10 +6346,10 @@
         <v>73</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6396,13 +6417,13 @@
         <v>16839</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>387</v>
+        <v>145</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="H36" s="7">
         <v>29</v>
@@ -6411,13 +6432,13 @@
         <v>32377</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>236</v>
+        <v>383</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="M36" s="7">
         <v>44</v>
@@ -6426,13 +6447,13 @@
         <v>49216</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>299</v>
+        <v>388</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6447,13 +6468,13 @@
         <v>37159</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>37</v>
+        <v>389</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="H37" s="7">
         <v>47</v>
@@ -6462,13 +6483,13 @@
         <v>51087</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="M37" s="7">
         <v>78</v>
@@ -6477,13 +6498,13 @@
         <v>88246</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>349</v>
+        <v>396</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6498,13 +6519,13 @@
         <v>505640</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="G38" s="7" t="s">
         <v>400</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>402</v>
       </c>
       <c r="H38" s="7">
         <v>618</v>
@@ -6513,13 +6534,13 @@
         <v>659511</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="L38" s="7" t="s">
         <v>403</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>405</v>
       </c>
       <c r="M38" s="7">
         <v>1076</v>
@@ -6528,13 +6549,13 @@
         <v>1165150</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>408</v>
+        <v>203</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6590,7 +6611,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -6614,7 +6635,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A47905D-9F62-4C51-B41B-29FF735326E1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B56A846-B05C-4B4D-A58A-31E726159FB0}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6631,7 +6652,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6738,13 +6759,13 @@
         <v>2432</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -6753,13 +6774,13 @@
         <v>1038</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -6768,13 +6789,13 @@
         <v>3469</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>107</v>
+        <v>414</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6789,13 +6810,13 @@
         <v>4937</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>417</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>419</v>
       </c>
       <c r="H5" s="7">
         <v>6</v>
@@ -6804,13 +6825,13 @@
         <v>7922</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>420</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>422</v>
       </c>
       <c r="M5" s="7">
         <v>12</v>
@@ -6819,13 +6840,13 @@
         <v>12858</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>423</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6840,13 +6861,13 @@
         <v>31528</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>426</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>428</v>
       </c>
       <c r="H6" s="7">
         <v>36</v>
@@ -6855,13 +6876,13 @@
         <v>40432</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>429</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>431</v>
       </c>
       <c r="M6" s="7">
         <v>69</v>
@@ -6870,13 +6891,13 @@
         <v>71960</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>432</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6950,7 +6971,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -6959,13 +6980,13 @@
         <v>1347</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>135</v>
+        <v>434</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -6974,13 +6995,13 @@
         <v>1347</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>344</v>
+        <v>436</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>179</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7001,7 +7022,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="H9" s="7">
         <v>6</v>
@@ -7013,10 +7034,10 @@
         <v>437</v>
       </c>
       <c r="K9" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>438</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>439</v>
       </c>
       <c r="M9" s="7">
         <v>6</v>
@@ -7025,13 +7046,13 @@
         <v>7991</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>440</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>441</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7049,7 +7070,7 @@
         <v>26</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>32</v>
@@ -7061,13 +7082,13 @@
         <v>105890</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>444</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>445</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>446</v>
       </c>
       <c r="M10" s="7">
         <v>178</v>
@@ -7076,13 +7097,13 @@
         <v>193185</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>378</v>
+        <v>206</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>447</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7156,7 +7177,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H12" s="7">
         <v>3</v>
@@ -7165,13 +7186,13 @@
         <v>4477</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>327</v>
+        <v>69</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>451</v>
+        <v>409</v>
       </c>
       <c r="M12" s="7">
         <v>3</v>
@@ -7180,13 +7201,13 @@
         <v>4477</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>376</v>
+        <v>450</v>
       </c>
       <c r="P12" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>452</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7201,13 +7222,13 @@
         <v>1252</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>89</v>
+        <v>453</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -7222,7 +7243,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>454</v>
+        <v>387</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -7231,13 +7252,13 @@
         <v>1252</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>356</v>
+        <v>455</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7273,7 +7294,7 @@
         <v>459</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>101</v>
+        <v>460</v>
       </c>
       <c r="M14" s="7">
         <v>137</v>
@@ -7282,13 +7303,13 @@
         <v>137714</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7344,7 +7365,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7356,13 +7377,13 @@
         <v>813</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -7386,13 +7407,13 @@
         <v>813</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>275</v>
+        <v>466</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7407,13 +7428,13 @@
         <v>2642</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>465</v>
+        <v>83</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>150</v>
+        <v>467</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
@@ -7422,13 +7443,13 @@
         <v>6764</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="M17" s="7">
         <v>7</v>
@@ -7437,13 +7458,13 @@
         <v>9405</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>470</v>
+        <v>146</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7458,13 +7479,13 @@
         <v>61257</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H18" s="7">
         <v>72</v>
@@ -7473,13 +7494,13 @@
         <v>84810</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="M18" s="7">
         <v>139</v>
@@ -7488,13 +7509,13 @@
         <v>146067</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>162</v>
+        <v>482</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7550,7 +7571,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -7562,13 +7583,13 @@
         <v>799</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -7583,7 +7604,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>204</v>
+        <v>484</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -7592,13 +7613,13 @@
         <v>799</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>482</v>
+        <v>451</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7619,7 +7640,7 @@
         <v>12</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="H21" s="7">
         <v>4</v>
@@ -7628,13 +7649,13 @@
         <v>4182</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="M21" s="7">
         <v>4</v>
@@ -7643,13 +7664,13 @@
         <v>4182</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7664,10 +7685,10 @@
         <v>41281</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>26</v>
@@ -7679,13 +7700,13 @@
         <v>46350</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="M22" s="7">
         <v>88</v>
@@ -7694,13 +7715,13 @@
         <v>87631</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>71</v>
+        <v>499</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7756,7 +7777,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -7768,13 +7789,13 @@
         <v>2570</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="H24" s="7">
         <v>3</v>
@@ -7783,13 +7804,13 @@
         <v>4546</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>341</v>
+        <v>502</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="M24" s="7">
         <v>6</v>
@@ -7798,13 +7819,13 @@
         <v>7116</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>500</v>
+        <v>198</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7819,13 +7840,13 @@
         <v>3251</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>502</v>
+        <v>155</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -7834,13 +7855,13 @@
         <v>2453</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>506</v>
+        <v>347</v>
       </c>
       <c r="M25" s="7">
         <v>6</v>
@@ -7849,10 +7870,10 @@
         <v>5704</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>508</v>
+        <v>335</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>509</v>
@@ -7906,7 +7927,7 @@
         <v>517</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>518</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7962,7 +7983,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -7980,7 +8001,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>519</v>
+        <v>413</v>
       </c>
       <c r="H28" s="7">
         <v>2</v>
@@ -7989,13 +8010,13 @@
         <v>2476</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>372</v>
+        <v>518</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="M28" s="7">
         <v>2</v>
@@ -8004,13 +8025,13 @@
         <v>2476</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>274</v>
+        <v>521</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8028,10 +8049,10 @@
         <v>522</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>497</v>
+        <v>523</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H29" s="7">
         <v>7</v>
@@ -8040,13 +8061,13 @@
         <v>8645</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="M29" s="7">
         <v>12</v>
@@ -8055,13 +8076,13 @@
         <v>13389</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>529</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8168,7 +8189,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -8201,7 +8222,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>539</v>
+        <v>440</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -8216,7 +8237,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8231,13 +8252,13 @@
         <v>1377</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>201</v>
+        <v>540</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>67</v>
+        <v>541</v>
       </c>
       <c r="H33" s="7">
         <v>2</v>
@@ -8246,13 +8267,13 @@
         <v>2590</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="K33" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="M33" s="7">
         <v>3</v>
@@ -8261,13 +8282,13 @@
         <v>3967</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>295</v>
+        <v>545</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -8282,10 +8303,10 @@
         <v>132791</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>26</v>
@@ -8297,10 +8318,10 @@
         <v>173707</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="L34" s="7" t="s">
         <v>26</v>
@@ -8312,13 +8333,13 @@
         <v>306498</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8386,13 +8407,13 @@
         <v>6613</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="H36" s="7">
         <v>10</v>
@@ -8401,13 +8422,13 @@
         <v>13884</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>387</v>
+        <v>556</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>276</v>
+        <v>454</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="M36" s="7">
         <v>18</v>
@@ -8416,13 +8437,13 @@
         <v>20498</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>86</v>
+        <v>314</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>556</v>
+        <v>470</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8437,13 +8458,13 @@
         <v>18201</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>559</v>
+        <v>313</v>
       </c>
       <c r="H37" s="7">
         <v>31</v>
@@ -8452,13 +8473,13 @@
         <v>40547</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="M37" s="7">
         <v>51</v>
@@ -8467,13 +8488,13 @@
         <v>58748</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>173</v>
+        <v>565</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>156</v>
+        <v>566</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8488,13 +8509,13 @@
         <v>566514</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>564</v>
+        <v>52</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H38" s="7">
         <v>614</v>
@@ -8503,13 +8524,13 @@
         <v>723500</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="M38" s="7">
         <v>1213</v>
@@ -8518,13 +8539,13 @@
         <v>1290014</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8580,7 +8601,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -8604,7 +8625,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4113557-4938-44DD-B778-B3BF17EEBAE6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50E09728-B5F2-4248-862D-113DADE2D9EF}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8621,7 +8642,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -8728,13 +8749,13 @@
         <v>815</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>574</v>
+        <v>21</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="H4" s="7">
         <v>5</v>
@@ -8743,13 +8764,13 @@
         <v>2742</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>348</v>
+        <v>577</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>86</v>
+        <v>42</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="M4" s="7">
         <v>6</v>
@@ -8758,13 +8779,13 @@
         <v>3557</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>376</v>
+        <v>450</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>578</v>
+        <v>348</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -8779,13 +8800,13 @@
         <v>1442</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="H5" s="7">
         <v>8</v>
@@ -8794,13 +8815,13 @@
         <v>4608</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="M5" s="7">
         <v>10</v>
@@ -8809,10 +8830,10 @@
         <v>6050</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>584</v>
+        <v>268</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>585</v>
@@ -8851,7 +8872,7 @@
         <v>590</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>591</v>
+        <v>207</v>
       </c>
       <c r="M6" s="7">
         <v>199</v>
@@ -8860,13 +8881,13 @@
         <v>104532</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>591</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>592</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>593</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -8934,13 +8955,13 @@
         <v>882</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>44</v>
+        <v>594</v>
       </c>
       <c r="H8" s="7">
         <v>9</v>
@@ -8949,13 +8970,13 @@
         <v>7487</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>595</v>
+        <v>472</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>596</v>
+        <v>509</v>
       </c>
       <c r="M8" s="7">
         <v>10</v>
@@ -8964,13 +8985,13 @@
         <v>8369</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>597</v>
+        <v>349</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>129</v>
+        <v>344</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -8985,13 +9006,13 @@
         <v>5794</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>502</v>
+        <v>155</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>261</v>
+        <v>596</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="H9" s="7">
         <v>28</v>
@@ -9000,13 +9021,13 @@
         <v>17906</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>599</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>600</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>601</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>602</v>
       </c>
       <c r="M9" s="7">
         <v>34</v>
@@ -9015,13 +9036,13 @@
         <v>23700</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>603</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>604</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -9036,13 +9057,13 @@
         <v>79638</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>604</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>606</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>607</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>608</v>
       </c>
       <c r="H10" s="7">
         <v>186</v>
@@ -9051,13 +9072,13 @@
         <v>115964</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>607</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>609</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>610</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>611</v>
       </c>
       <c r="M10" s="7">
         <v>274</v>
@@ -9066,13 +9087,13 @@
         <v>195602</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>611</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>612</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>613</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>614</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -9140,13 +9161,13 @@
         <v>3211</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="H12" s="7">
         <v>4</v>
@@ -9155,13 +9176,13 @@
         <v>2039</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>464</v>
+        <v>616</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>618</v>
+        <v>128</v>
       </c>
       <c r="M12" s="7">
         <v>9</v>
@@ -9170,13 +9191,13 @@
         <v>5250</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>621</v>
+        <v>541</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -9191,13 +9212,13 @@
         <v>3815</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>622</v>
+        <v>555</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>66</v>
+        <v>350</v>
       </c>
       <c r="H13" s="7">
         <v>11</v>
@@ -9206,13 +9227,13 @@
         <v>6595</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>582</v>
+        <v>325</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="M13" s="7">
         <v>18</v>
@@ -9221,13 +9242,13 @@
         <v>10411</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>90</v>
+        <v>622</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -9242,13 +9263,13 @@
         <v>70574</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>629</v>
+        <v>592</v>
       </c>
       <c r="H14" s="7">
         <v>154</v>
@@ -9257,13 +9278,13 @@
         <v>86317</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>143</v>
+        <v>446</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>545</v>
+        <v>627</v>
       </c>
       <c r="M14" s="7">
         <v>264</v>
@@ -9272,13 +9293,13 @@
         <v>156891</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>633</v>
+        <v>567</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -9334,7 +9355,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -9346,13 +9367,13 @@
         <v>581</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>557</v>
+        <v>325</v>
       </c>
       <c r="H16" s="7">
         <v>8</v>
@@ -9361,13 +9382,13 @@
         <v>3460</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>207</v>
+        <v>633</v>
       </c>
       <c r="M16" s="7">
         <v>9</v>
@@ -9376,13 +9397,13 @@
         <v>4041</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>356</v>
+        <v>439</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -9397,13 +9418,13 @@
         <v>5237</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="H17" s="7">
         <v>20</v>
@@ -9412,13 +9433,13 @@
         <v>8577</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>147</v>
+        <v>640</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="M17" s="7">
         <v>27</v>
@@ -9427,13 +9448,13 @@
         <v>13815</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>645</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -9448,13 +9469,13 @@
         <v>72986</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>54</v>
+        <v>644</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="H18" s="7">
         <v>228</v>
@@ -9463,13 +9484,13 @@
         <v>98418</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>646</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>647</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>648</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>649</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>650</v>
       </c>
       <c r="M18" s="7">
         <v>338</v>
@@ -9478,13 +9499,13 @@
         <v>171404</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>652</v>
+        <v>629</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -9540,7 +9561,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -9558,7 +9579,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>48</v>
+        <v>651</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
@@ -9567,13 +9588,13 @@
         <v>1370</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>255</v>
+        <v>653</v>
       </c>
       <c r="M20" s="7">
         <v>3</v>
@@ -9582,13 +9603,13 @@
         <v>1370</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>198</v>
+        <v>168</v>
       </c>
       <c r="P20" s="7" t="s">
+        <v>654</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>655</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9606,10 +9627,10 @@
         <v>656</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>471</v>
+        <v>657</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="H21" s="7">
         <v>15</v>
@@ -9618,10 +9639,10 @@
         <v>6698</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>659</v>
+        <v>525</v>
       </c>
       <c r="L21" s="7" t="s">
         <v>660</v>
@@ -9636,10 +9657,10 @@
         <v>661</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>41</v>
+        <v>662</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -9654,7 +9675,7 @@
         <v>35457</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>663</v>
+        <v>429</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>664</v>
@@ -9690,7 +9711,7 @@
         <v>670</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>124</v>
+        <v>671</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9746,7 +9767,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -9758,13 +9779,13 @@
         <v>1217</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>11</v>
+        <v>673</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>560</v>
+        <v>525</v>
       </c>
       <c r="H24" s="7">
         <v>13</v>
@@ -9773,13 +9794,13 @@
         <v>5059</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="M24" s="7">
         <v>16</v>
@@ -9788,13 +9809,13 @@
         <v>6276</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>676</v>
+        <v>387</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -9809,13 +9830,13 @@
         <v>3495</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>525</v>
+        <v>680</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>645</v>
+        <v>681</v>
       </c>
       <c r="H25" s="7">
         <v>16</v>
@@ -9824,13 +9845,13 @@
         <v>5428</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>182</v>
+        <v>683</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="M25" s="7">
         <v>24</v>
@@ -9839,13 +9860,13 @@
         <v>8923</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9860,13 +9881,13 @@
         <v>58470</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>683</v>
+        <v>687</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>684</v>
+        <v>688</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="H26" s="7">
         <v>147</v>
@@ -9875,13 +9896,13 @@
         <v>58868</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>687</v>
+        <v>691</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="M26" s="7">
         <v>271</v>
@@ -9890,13 +9911,13 @@
         <v>117339</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>691</v>
+        <v>695</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9952,7 +9973,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -9970,7 +9991,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>416</v>
+        <v>696</v>
       </c>
       <c r="H28" s="7">
         <v>7</v>
@@ -9979,13 +10000,13 @@
         <v>5164</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>370</v>
+        <v>544</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>16</v>
+        <v>697</v>
       </c>
       <c r="M28" s="7">
         <v>7</v>
@@ -9994,13 +10015,13 @@
         <v>5164</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>692</v>
+        <v>698</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>151</v>
+        <v>364</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>693</v>
+        <v>699</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -10015,13 +10036,13 @@
         <v>881</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>344</v>
+        <v>436</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>694</v>
+        <v>700</v>
       </c>
       <c r="H29" s="7">
         <v>8</v>
@@ -10030,13 +10051,13 @@
         <v>5660</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>695</v>
+        <v>701</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>696</v>
+        <v>129</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>16</v>
+        <v>702</v>
       </c>
       <c r="M29" s="7">
         <v>9</v>
@@ -10045,13 +10066,13 @@
         <v>6541</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>372</v>
+        <v>518</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>697</v>
+        <v>703</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>561</v>
+        <v>267</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -10066,10 +10087,10 @@
         <v>129959</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>699</v>
+        <v>705</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>26</v>
@@ -10081,13 +10102,13 @@
         <v>247364</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>52</v>
+        <v>706</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>700</v>
+        <v>707</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>701</v>
+        <v>708</v>
       </c>
       <c r="M30" s="7">
         <v>393</v>
@@ -10096,13 +10117,13 @@
         <v>377323</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>702</v>
+        <v>709</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>495</v>
+        <v>512</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>144</v>
+        <v>710</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -10158,7 +10179,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -10176,7 +10197,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -10191,7 +10212,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>703</v>
+        <v>711</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -10206,7 +10227,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>704</v>
+        <v>712</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -10221,13 +10242,13 @@
         <v>159</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>705</v>
+        <v>713</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>706</v>
+        <v>714</v>
       </c>
       <c r="H33" s="7">
         <v>3</v>
@@ -10236,13 +10257,13 @@
         <v>1837</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>707</v>
+        <v>715</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>695</v>
+        <v>596</v>
       </c>
       <c r="M33" s="7">
         <v>4</v>
@@ -10251,13 +10272,13 @@
         <v>1997</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>708</v>
+        <v>714</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>709</v>
+        <v>716</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>710</v>
+        <v>440</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -10272,10 +10293,10 @@
         <v>169063</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>711</v>
+        <v>717</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>712</v>
+        <v>718</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>26</v>
@@ -10287,13 +10308,13 @@
         <v>221206</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>714</v>
+        <v>720</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>715</v>
+        <v>721</v>
       </c>
       <c r="M34" s="7">
         <v>573</v>
@@ -10302,13 +10323,13 @@
         <v>390268</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>717</v>
+        <v>722</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>718</v>
+        <v>723</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -10376,13 +10397,13 @@
         <v>6707</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>719</v>
+        <v>724</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>720</v>
+        <v>725</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>129</v>
+        <v>359</v>
       </c>
       <c r="H36" s="7">
         <v>49</v>
@@ -10391,13 +10412,13 @@
         <v>27321</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>471</v>
+        <v>726</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>248</v>
+        <v>505</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>721</v>
+        <v>727</v>
       </c>
       <c r="M36" s="7">
         <v>60</v>
@@ -10406,13 +10427,13 @@
         <v>34028</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>722</v>
+        <v>728</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>81</v>
+        <v>729</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>723</v>
+        <v>730</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10427,13 +10448,13 @@
         <v>23698</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>724</v>
+        <v>731</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>171</v>
+        <v>732</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="H37" s="7">
         <v>109</v>
@@ -10442,13 +10463,13 @@
         <v>57310</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>156</v>
+        <v>733</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>725</v>
+        <v>349</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>726</v>
+        <v>734</v>
       </c>
       <c r="M37" s="7">
         <v>146</v>
@@ -10457,13 +10478,13 @@
         <v>81008</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>727</v>
+        <v>735</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>157</v>
+        <v>622</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>255</v>
+        <v>195</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10478,13 +10499,13 @@
         <v>665811</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>728</v>
+        <v>736</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>729</v>
+        <v>737</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>730</v>
+        <v>482</v>
       </c>
       <c r="H38" s="7">
         <v>1546</v>
@@ -10493,13 +10514,13 @@
         <v>940032</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>731</v>
+        <v>695</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>537</v>
+        <v>738</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>732</v>
+        <v>739</v>
       </c>
       <c r="M38" s="7">
         <v>2524</v>
@@ -10508,13 +10529,13 @@
         <v>1605843</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>733</v>
+        <v>740</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>734</v>
+        <v>741</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>735</v>
+        <v>742</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -10570,7 +10591,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q5406-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q5406-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0123C3C1-E3B7-4581-AF61-5533C3F41AAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B47C215A-0159-4C92-B7AB-1FE84207DA95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5E41E21F-F95E-4624-AE71-B8231B69FAC6}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6939E63A-F00A-4C6A-8F0A-7477A7BABC7B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="743">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="727">
   <si>
     <t>Población según si es capaz de tomar medicación en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -92,2167 +92,2119 @@
     <t>5,13%</t>
   </si>
   <si>
-    <t>15,55%</t>
+    <t>18,01%</t>
   </si>
   <si>
     <t>5,96%</t>
   </si>
   <si>
-    <t>18,63%</t>
+    <t>19,79%</t>
   </si>
   <si>
     <t>5,57%</t>
   </si>
   <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>Sin ayuda</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>81,99%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>80,21%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>87,08%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>90,04%</t>
+  </si>
+  <si>
+    <t>79,3%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>87,38%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>86,95%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>86,36%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>90,3%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>87,11%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>34,29%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>82,45%</t>
+  </si>
+  <si>
+    <t>65,71%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>74,25%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>86,55%</t>
+  </si>
+  <si>
+    <t>76,6%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>86,03%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>87,68%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>91,76%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>90,86%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>88,39%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
+  </si>
+  <si>
+    <t>84,84%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>88,4%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>91,3%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de tomar medicación en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>83,6%</t>
+  </si>
+  <si>
+    <t>70,31%</t>
+  </si>
+  <si>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>84,67%</t>
+  </si>
+  <si>
+    <t>76,03%</t>
+  </si>
+  <si>
+    <t>84,2%</t>
+  </si>
+  <si>
+    <t>76,65%</t>
+  </si>
+  <si>
+    <t>89,55%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>87,14%</t>
+  </si>
+  <si>
+    <t>74,26%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>82,48%</t>
+  </si>
+  <si>
+    <t>72,47%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>84,39%</t>
+  </si>
+  <si>
+    <t>76,3%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>88,68%</t>
+  </si>
+  <si>
+    <t>82,56%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>85,08%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>74,63%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>89,8%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>89,72%</t>
+  </si>
+  <si>
+    <t>81,91%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>85,55%</t>
+  </si>
+  <si>
+    <t>73,19%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>81,46%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>81,44%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>86,9%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>84,32%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>88,6%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>86,35%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>89,73%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>87,25%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>88,77%</t>
+  </si>
+  <si>
+    <t>86,44%</t>
+  </si>
+  <si>
+    <t>91,11%</t>
+  </si>
+  <si>
+    <t>89,45%</t>
+  </si>
+  <si>
+    <t>87,48%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de tomar medicación en 2016 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>81,06%</t>
+  </si>
+  <si>
+    <t>67,85%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>81,86%</t>
+  </si>
+  <si>
+    <t>67,01%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
+  </si>
+  <si>
+    <t>81,51%</t>
+  </si>
+  <si>
+    <t>70,63%</t>
+  </si>
+  <si>
+    <t>88,35%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>84,74%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>83,83%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>86,56%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>82,66%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>87,84%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>80,67%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>87,99%</t>
+  </si>
+  <si>
+    <t>77,75%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>89,61%</t>
+  </si>
+  <si>
+    <t>77,23%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
+  </si>
+  <si>
+    <t>81,77%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>86,73%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>90,07%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de tomar medicación en 2023 (Tasa respuesta: 31,22%)</t>
+  </si>
+  <si>
     <t>1,57%</t>
   </si>
   <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>Sin ayuda</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>84,45%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>81,37%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>85,69%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>80,29%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>87,17%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>87,22%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>89,88%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>87,35%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>91,06%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>34,87%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>82,45%</t>
-  </si>
-  <si>
-    <t>65,13%</t>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>88,19%</t>
+  </si>
+  <si>
+    <t>80,22%</t>
   </si>
   <si>
     <t>91,58%</t>
   </si>
   <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>75,62%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>86,55%</t>
-  </si>
-  <si>
-    <t>77,53%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
+    <t>86,85%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>85,71%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>82,04%</t>
+  </si>
+  <si>
+    <t>76,35%</t>
+  </si>
+  <si>
+    <t>87,12%</t>
+  </si>
+  <si>
+    <t>85,91%</t>
+  </si>
+  <si>
+    <t>81,63%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>84,97%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>86,59%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>89,1%</t>
+  </si>
+  <si>
+    <t>84,94%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>83,64%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>87,6%</t>
+  </si>
+  <si>
+    <t>81,24%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>89,42%</t>
+  </si>
+  <si>
+    <t>84,52%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>87,04%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>84,88%</t>
+  </si>
+  <si>
+    <t>79,06%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
+  </si>
+  <si>
+    <t>84,62%</t>
+  </si>
+  <si>
+    <t>91,74%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
   </si>
   <si>
     <t>0,4%</t>
   </si>
   <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>90,9%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>86,33%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>87,06%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>88,25%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>84,96%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>88,46%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de tomar medicación en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>83,6%</t>
-  </si>
-  <si>
-    <t>71,38%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>84,67%</t>
-  </si>
-  <si>
-    <t>75,95%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>84,2%</t>
-  </si>
-  <si>
-    <t>76,83%</t>
-  </si>
-  <si>
-    <t>89,3%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>87,14%</t>
-  </si>
-  <si>
-    <t>73,16%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>82,48%</t>
-  </si>
-  <si>
-    <t>72,48%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>84,39%</t>
-  </si>
-  <si>
-    <t>76,76%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>84,28%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>88,68%</t>
-  </si>
-  <si>
-    <t>82,08%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>89,84%</t>
-  </si>
-  <si>
-    <t>85,3%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>74,37%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
-  </si>
-  <si>
-    <t>78,07%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>89,72%</t>
-  </si>
-  <si>
-    <t>81,88%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>85,55%</t>
-  </si>
-  <si>
-    <t>73,17%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>81,58%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>81,52%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>86,44%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>84,3%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>87,52%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>86,91%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
-  </si>
-  <si>
-    <t>87,42%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>88,77%</t>
-  </si>
-  <si>
-    <t>86,05%</t>
-  </si>
-  <si>
-    <t>91,01%</t>
-  </si>
-  <si>
-    <t>89,45%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de tomar medicación en 2015 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>81,06%</t>
-  </si>
-  <si>
-    <t>68,28%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>81,86%</t>
-  </si>
-  <si>
-    <t>66,47%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>81,51%</t>
-  </si>
-  <si>
-    <t>71,68%</t>
-  </si>
-  <si>
-    <t>89,14%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>84,51%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>86,71%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>84,71%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>87,38%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>81,93%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>87,0%</t>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
   </si>
   <si>
     <t>96,82%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>91,72%</t>
-  </si>
-  <si>
-    <t>80,9%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>88,03%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>76,2%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>89,61%</t>
-  </si>
-  <si>
-    <t>77,76%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>88,93%</t>
-  </si>
-  <si>
-    <t>82,0%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>86,76%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de tomar medicación en 2023 (Tasa respuesta: 31,22%)</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>88,19%</t>
-  </si>
-  <si>
-    <t>80,22%</t>
-  </si>
-  <si>
-    <t>86,85%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>85,71%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>82,04%</t>
-  </si>
-  <si>
-    <t>76,35%</t>
-  </si>
-  <si>
-    <t>87,12%</t>
-  </si>
-  <si>
-    <t>85,91%</t>
-  </si>
-  <si>
-    <t>81,63%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>84,97%</t>
-  </si>
-  <si>
-    <t>85,08%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>87,11%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>86,59%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>89,1%</t>
-  </si>
-  <si>
-    <t>84,94%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>83,64%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>87,6%</t>
-  </si>
-  <si>
-    <t>81,24%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
-  </si>
-  <si>
-    <t>89,42%</t>
-  </si>
-  <si>
-    <t>84,52%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>87,04%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>84,88%</t>
-  </si>
-  <si>
-    <t>79,06%</t>
-  </si>
-  <si>
-    <t>89,73%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
-  </si>
-  <si>
-    <t>84,62%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
   </si>
   <si>
     <t>89,98%</t>
@@ -2679,7 +2631,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{720AE7C2-B27D-4254-BD98-623D6555BF0C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3C44CCC-F9C2-43DD-8E17-A56E57AB49B4}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3093,10 +3045,10 @@
         <v>47</v>
       </c>
       <c r="P9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3111,13 +3063,13 @@
         <v>60017</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="H10" s="7">
         <v>90</v>
@@ -3126,13 +3078,13 @@
         <v>91686</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="M10" s="7">
         <v>149</v>
@@ -3141,13 +3093,13 @@
         <v>151702</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3203,7 +3155,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -3221,7 +3173,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H12" s="7">
         <v>2</v>
@@ -3230,13 +3182,13 @@
         <v>1127</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M12" s="7">
         <v>2</v>
@@ -3245,13 +3197,13 @@
         <v>1127</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3266,7 +3218,7 @@
         <v>949</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
@@ -3284,10 +3236,10 @@
         <v>66</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M13" s="7">
         <v>5</v>
@@ -3296,10 +3248,10 @@
         <v>5380</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>70</v>
@@ -3335,10 +3287,10 @@
         <v>73</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M14" s="7">
         <v>129</v>
@@ -3347,13 +3299,13 @@
         <v>127954</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3409,7 +3361,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3427,7 +3379,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -3436,13 +3388,13 @@
         <v>1059</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -3451,13 +3403,13 @@
         <v>1059</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3472,13 +3424,13 @@
         <v>2610</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -3487,13 +3439,13 @@
         <v>2199</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M17" s="7">
         <v>5</v>
@@ -3502,13 +3454,13 @@
         <v>4809</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3523,13 +3475,13 @@
         <v>52512</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H18" s="7">
         <v>74</v>
@@ -3538,13 +3490,13 @@
         <v>71054</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="M18" s="7">
         <v>131</v>
@@ -3553,13 +3505,13 @@
         <v>123568</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3615,7 +3567,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3633,7 +3585,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -3642,13 +3594,13 @@
         <v>2055</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -3657,13 +3609,13 @@
         <v>2055</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3678,13 +3630,13 @@
         <v>5149</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="H21" s="7">
         <v>2</v>
@@ -3693,13 +3645,13 @@
         <v>2291</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="M21" s="7">
         <v>8</v>
@@ -3708,13 +3660,13 @@
         <v>7441</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3729,13 +3681,13 @@
         <v>24198</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H22" s="7">
         <v>35</v>
@@ -3744,13 +3696,13 @@
         <v>36900</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M22" s="7">
         <v>63</v>
@@ -3759,13 +3711,13 @@
         <v>61097</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3821,7 +3773,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3839,7 +3791,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -3854,7 +3806,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -3869,7 +3821,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3884,13 +3836,13 @@
         <v>849</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="H25" s="7">
         <v>3</v>
@@ -3899,13 +3851,13 @@
         <v>3693</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="M25" s="7">
         <v>4</v>
@@ -3914,13 +3866,13 @@
         <v>4542</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3935,10 +3887,10 @@
         <v>46347</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>26</v>
@@ -3950,13 +3902,13 @@
         <v>66616</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="M26" s="7">
         <v>112</v>
@@ -3965,13 +3917,13 @@
         <v>112964</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4027,7 +3979,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -4039,13 +3991,13 @@
         <v>838</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="H28" s="7">
         <v>2</v>
@@ -4054,13 +4006,13 @@
         <v>2021</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M28" s="7">
         <v>3</v>
@@ -4069,13 +4021,13 @@
         <v>2859</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4090,13 +4042,13 @@
         <v>6227</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="H29" s="7">
         <v>2</v>
@@ -4105,13 +4057,13 @@
         <v>2021</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>37</v>
+        <v>156</v>
       </c>
       <c r="M29" s="7">
         <v>9</v>
@@ -4120,13 +4072,13 @@
         <v>8247</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4141,13 +4093,13 @@
         <v>98863</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="H30" s="7">
         <v>113</v>
@@ -4156,13 +4108,13 @@
         <v>113080</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="M30" s="7">
         <v>213</v>
@@ -4171,13 +4123,13 @@
         <v>211943</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>55</v>
+        <v>168</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4233,7 +4185,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -4251,7 +4203,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="H32" s="7">
         <v>7</v>
@@ -4260,13 +4212,13 @@
         <v>8461</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>38</v>
+        <v>170</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="M32" s="7">
         <v>7</v>
@@ -4275,13 +4227,13 @@
         <v>8461</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4296,13 +4248,13 @@
         <v>6690</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="H33" s="7">
         <v>4</v>
@@ -4311,13 +4263,13 @@
         <v>5105</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="M33" s="7">
         <v>11</v>
@@ -4326,13 +4278,13 @@
         <v>11795</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -4347,13 +4299,13 @@
         <v>105203</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="H34" s="7">
         <v>133</v>
@@ -4362,13 +4314,13 @@
         <v>139659</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="M34" s="7">
         <v>242</v>
@@ -4377,13 +4329,13 @@
         <v>244862</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4451,13 +4403,13 @@
         <v>3576</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="H36" s="7">
         <v>15</v>
@@ -4466,13 +4418,13 @@
         <v>15947</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>168</v>
+        <v>197</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>191</v>
+        <v>134</v>
       </c>
       <c r="M36" s="7">
         <v>18</v>
@@ -4481,13 +4433,13 @@
         <v>19523</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4502,13 +4454,13 @@
         <v>28190</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>196</v>
+        <v>134</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="H37" s="7">
         <v>24</v>
@@ -4517,13 +4469,13 @@
         <v>27043</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="M37" s="7">
         <v>55</v>
@@ -4532,13 +4484,13 @@
         <v>55233</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>201</v>
+        <v>59</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>202</v>
+        <v>175</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4553,13 +4505,13 @@
         <v>470700</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="H38" s="7">
         <v>622</v>
@@ -4568,13 +4520,13 @@
         <v>633852</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>115</v>
+        <v>209</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="M38" s="7">
         <v>1111</v>
@@ -4583,13 +4535,13 @@
         <v>1104552</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4645,7 +4597,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -4669,7 +4621,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDE4DC5E-A4B6-4D5F-B484-40AD2A7BC630}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{108F4A57-4047-4011-8EC8-151485BABBD5}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4686,7 +4638,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4791,39 +4743,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4836,39 +4788,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4881,39 +4833,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4926,39 +4878,39 @@
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
       </c>
       <c r="N7" s="7"/>
       <c r="O7" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4975,13 +4927,13 @@
         <v>5380</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="H8" s="7">
         <v>6</v>
@@ -4990,13 +4942,13 @@
         <v>7848</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="M8" s="7">
         <v>10</v>
@@ -5005,13 +4957,13 @@
         <v>13228</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>220</v>
+        <v>157</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5026,13 +4978,13 @@
         <v>7613</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="H9" s="7">
         <v>7</v>
@@ -5041,13 +4993,13 @@
         <v>7799</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="M9" s="7">
         <v>12</v>
@@ -5056,13 +5008,13 @@
         <v>15412</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>229</v>
+        <v>114</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5077,13 +5029,13 @@
         <v>66210</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="H10" s="7">
         <v>80</v>
@@ -5092,13 +5044,13 @@
         <v>86446</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>236</v>
+        <v>209</v>
       </c>
       <c r="M10" s="7">
         <v>140</v>
@@ -5107,13 +5059,13 @@
         <v>152656</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5169,7 +5121,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -5181,13 +5133,13 @@
         <v>4036</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H12" s="7">
         <v>7</v>
@@ -5196,13 +5148,13 @@
         <v>7624</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>83</v>
+        <v>245</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="M12" s="7">
         <v>11</v>
@@ -5211,13 +5163,13 @@
         <v>11660</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>246</v>
+        <v>84</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>247</v>
+        <v>222</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5262,13 +5214,13 @@
         <v>9524</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5283,13 +5235,13 @@
         <v>48572</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="H14" s="7">
         <v>62</v>
@@ -5298,13 +5250,13 @@
         <v>65954</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>261</v>
       </c>
       <c r="M14" s="7">
         <v>109</v>
@@ -5313,13 +5265,13 @@
         <v>114527</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5375,7 +5327,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5387,13 +5339,13 @@
         <v>2133</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -5402,13 +5354,13 @@
         <v>4265</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="K16" s="7" t="s">
-        <v>63</v>
-      </c>
       <c r="L16" s="7" t="s">
-        <v>197</v>
+        <v>268</v>
       </c>
       <c r="M16" s="7">
         <v>6</v>
@@ -5417,13 +5369,13 @@
         <v>6398</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>268</v>
+        <v>200</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5438,13 +5390,13 @@
         <v>7310</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>273</v>
       </c>
       <c r="H17" s="7">
         <v>10</v>
@@ -5453,13 +5405,13 @@
         <v>10964</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="M17" s="7">
         <v>17</v>
@@ -5468,13 +5420,13 @@
         <v>18274</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5489,13 +5441,13 @@
         <v>98865</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>282</v>
       </c>
       <c r="H18" s="7">
         <v>115</v>
@@ -5504,13 +5456,13 @@
         <v>119240</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>285</v>
       </c>
       <c r="M18" s="7">
         <v>204</v>
@@ -5519,13 +5471,13 @@
         <v>218105</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>286</v>
+        <v>263</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5581,7 +5533,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5593,13 +5545,13 @@
         <v>1157</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
@@ -5608,13 +5560,13 @@
         <v>2979</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>292</v>
+        <v>252</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
@@ -5623,13 +5575,13 @@
         <v>4136</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5644,13 +5596,13 @@
         <v>2135</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="H21" s="7">
         <v>2</v>
@@ -5659,13 +5611,13 @@
         <v>2104</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="M21" s="7">
         <v>4</v>
@@ -5674,13 +5626,13 @@
         <v>4239</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>300</v>
+        <v>21</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5695,13 +5647,13 @@
         <v>28320</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="H22" s="7">
         <v>43</v>
@@ -5710,13 +5662,13 @@
         <v>44771</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>306</v>
+        <v>50</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="M22" s="7">
         <v>68</v>
@@ -5725,13 +5677,13 @@
         <v>73092</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5787,7 +5739,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5799,13 +5751,13 @@
         <v>2144</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="H24" s="7">
         <v>3</v>
@@ -5814,13 +5766,13 @@
         <v>3243</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>314</v>
+        <v>86</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="M24" s="7">
         <v>5</v>
@@ -5829,13 +5781,13 @@
         <v>5387</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>317</v>
+        <v>148</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5850,13 +5802,13 @@
         <v>5333</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="H25" s="7">
         <v>3</v>
@@ -5865,13 +5817,13 @@
         <v>3286</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="M25" s="7">
         <v>8</v>
@@ -5880,13 +5832,13 @@
         <v>8619</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5901,13 +5853,13 @@
         <v>44279</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="H26" s="7">
         <v>63</v>
@@ -5916,13 +5868,13 @@
         <v>63682</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>330</v>
+        <v>100</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="M26" s="7">
         <v>106</v>
@@ -5931,13 +5883,13 @@
         <v>107962</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5993,7 +5945,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -6005,13 +5957,13 @@
         <v>1989</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>336</v>
+        <v>156</v>
       </c>
       <c r="H28" s="7">
         <v>3</v>
@@ -6020,13 +5972,13 @@
         <v>3123</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="M28" s="7">
         <v>5</v>
@@ -6035,13 +5987,13 @@
         <v>5112</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6056,13 +6008,13 @@
         <v>6071</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="H29" s="7">
         <v>10</v>
@@ -6071,13 +6023,13 @@
         <v>10451</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>289</v>
+        <v>338</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="M29" s="7">
         <v>16</v>
@@ -6086,13 +6038,13 @@
         <v>16521</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6107,13 +6059,13 @@
         <v>104203</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="H30" s="7">
         <v>116</v>
@@ -6122,13 +6074,13 @@
         <v>128388</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="M30" s="7">
         <v>208</v>
@@ -6137,13 +6089,13 @@
         <v>232592</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>160</v>
+        <v>349</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>358</v>
+        <v>257</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6199,7 +6151,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -6217,7 +6169,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>359</v>
+        <v>242</v>
       </c>
       <c r="H32" s="7">
         <v>3</v>
@@ -6226,13 +6178,13 @@
         <v>3295</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>361</v>
+        <v>39</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="M32" s="7">
         <v>3</v>
@@ -6241,13 +6193,13 @@
         <v>3295</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6262,13 +6214,13 @@
         <v>5563</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>366</v>
+        <v>84</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="H33" s="7">
         <v>9</v>
@@ -6277,13 +6229,13 @@
         <v>10093</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>369</v>
+        <v>149</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>48</v>
+        <v>358</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="M33" s="7">
         <v>13</v>
@@ -6292,13 +6244,13 @@
         <v>15656</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>372</v>
+        <v>355</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6313,13 +6265,13 @@
         <v>115189</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>206</v>
+        <v>362</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="H34" s="7">
         <v>139</v>
@@ -6328,13 +6280,13 @@
         <v>151029</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="M34" s="7">
         <v>241</v>
@@ -6346,10 +6298,10 @@
         <v>73</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6417,13 +6369,13 @@
         <v>16839</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>145</v>
+        <v>371</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>382</v>
+        <v>13</v>
       </c>
       <c r="H36" s="7">
         <v>29</v>
@@ -6432,13 +6384,13 @@
         <v>32377</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="M36" s="7">
         <v>44</v>
@@ -6447,13 +6399,13 @@
         <v>49216</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>388</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6468,13 +6420,13 @@
         <v>37159</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
       <c r="H37" s="7">
         <v>47</v>
@@ -6483,13 +6435,13 @@
         <v>51087</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="M37" s="7">
         <v>78</v>
@@ -6498,13 +6450,13 @@
         <v>88246</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>395</v>
+        <v>382</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>397</v>
+        <v>384</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6519,13 +6471,13 @@
         <v>505640</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="H38" s="7">
         <v>618</v>
@@ -6534,13 +6486,13 @@
         <v>659511</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>401</v>
+        <v>388</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>402</v>
+        <v>389</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="M38" s="7">
         <v>1076</v>
@@ -6549,13 +6501,13 @@
         <v>1165150</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>404</v>
+        <v>391</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>405</v>
+        <v>392</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6611,7 +6563,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -6635,7 +6587,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B56A846-B05C-4B4D-A58A-31E726159FB0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3975A2E-FD34-40BB-B5B7-B646D0333184}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6652,7 +6604,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>406</v>
+        <v>393</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6759,13 +6711,13 @@
         <v>2432</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>407</v>
+        <v>330</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>408</v>
+        <v>331</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>409</v>
+        <v>394</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -6774,13 +6726,13 @@
         <v>1038</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>410</v>
+        <v>395</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>411</v>
+        <v>396</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -6789,13 +6741,13 @@
         <v>3469</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>413</v>
+        <v>199</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>414</v>
+        <v>398</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6810,13 +6762,13 @@
         <v>4937</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>415</v>
+        <v>399</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>416</v>
+        <v>400</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>417</v>
+        <v>401</v>
       </c>
       <c r="H5" s="7">
         <v>6</v>
@@ -6825,13 +6777,13 @@
         <v>7922</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>418</v>
+        <v>402</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>419</v>
+        <v>403</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>420</v>
+        <v>404</v>
       </c>
       <c r="M5" s="7">
         <v>12</v>
@@ -6840,13 +6792,13 @@
         <v>12858</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>421</v>
+        <v>275</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>422</v>
+        <v>405</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>423</v>
+        <v>406</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6861,13 +6813,13 @@
         <v>31528</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>424</v>
+        <v>407</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>425</v>
+        <v>408</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>426</v>
+        <v>409</v>
       </c>
       <c r="H6" s="7">
         <v>36</v>
@@ -6876,28 +6828,28 @@
         <v>40432</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>427</v>
+        <v>410</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>428</v>
+        <v>411</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>429</v>
+        <v>412</v>
       </c>
       <c r="M6" s="7">
         <v>69</v>
       </c>
       <c r="N6" s="7">
-        <v>71960</v>
+        <v>71959</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>430</v>
+        <v>413</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>431</v>
+        <v>414</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>432</v>
+        <v>415</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6939,7 +6891,7 @@
         <v>85</v>
       </c>
       <c r="N7" s="7">
-        <v>88287</v>
+        <v>88286</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>32</v>
@@ -6971,7 +6923,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>433</v>
+        <v>416</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -6980,13 +6932,13 @@
         <v>1347</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>435</v>
+        <v>418</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -6995,13 +6947,13 @@
         <v>1347</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>436</v>
+        <v>329</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>68</v>
+        <v>419</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7022,7 +6974,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>433</v>
+        <v>416</v>
       </c>
       <c r="H9" s="7">
         <v>6</v>
@@ -7031,13 +6983,13 @@
         <v>7991</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>437</v>
+        <v>420</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>217</v>
+        <v>421</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>438</v>
+        <v>422</v>
       </c>
       <c r="M9" s="7">
         <v>6</v>
@@ -7046,13 +6998,13 @@
         <v>7991</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>439</v>
+        <v>423</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>440</v>
+        <v>424</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>441</v>
+        <v>425</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7070,7 +7022,7 @@
         <v>26</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>442</v>
+        <v>426</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>32</v>
@@ -7082,13 +7034,13 @@
         <v>105890</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>443</v>
+        <v>427</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>445</v>
+        <v>345</v>
       </c>
       <c r="M10" s="7">
         <v>178</v>
@@ -7097,13 +7049,13 @@
         <v>193185</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>206</v>
+        <v>362</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>446</v>
+        <v>429</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>447</v>
+        <v>430</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7159,7 +7111,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -7177,7 +7129,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>448</v>
+        <v>431</v>
       </c>
       <c r="H12" s="7">
         <v>3</v>
@@ -7186,13 +7138,13 @@
         <v>4477</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>449</v>
+        <v>432</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>69</v>
+        <v>433</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>409</v>
+        <v>434</v>
       </c>
       <c r="M12" s="7">
         <v>3</v>
@@ -7201,13 +7153,13 @@
         <v>4477</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>451</v>
+        <v>267</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>452</v>
+        <v>436</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7222,13 +7174,13 @@
         <v>1252</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>453</v>
+        <v>437</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -7243,7 +7195,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>387</v>
+        <v>438</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -7252,13 +7204,13 @@
         <v>1252</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>454</v>
+        <v>439</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>455</v>
+        <v>440</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7273,10 +7225,10 @@
         <v>62294</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>456</v>
+        <v>441</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>457</v>
+        <v>442</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>26</v>
@@ -7288,13 +7240,13 @@
         <v>75420</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>458</v>
+        <v>443</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>459</v>
+        <v>444</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>460</v>
+        <v>445</v>
       </c>
       <c r="M14" s="7">
         <v>137</v>
@@ -7303,13 +7255,13 @@
         <v>137714</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>307</v>
+        <v>446</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>461</v>
+        <v>447</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>462</v>
+        <v>448</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7365,7 +7317,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7377,13 +7329,13 @@
         <v>813</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>463</v>
+        <v>449</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>464</v>
+        <v>450</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -7407,13 +7359,13 @@
         <v>813</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>465</v>
+        <v>451</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>466</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7428,13 +7380,13 @@
         <v>2642</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>83</v>
+        <v>452</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>467</v>
+        <v>21</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>468</v>
+        <v>453</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
@@ -7443,13 +7395,13 @@
         <v>6764</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>469</v>
+        <v>454</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>470</v>
+        <v>196</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>471</v>
+        <v>455</v>
       </c>
       <c r="M17" s="7">
         <v>7</v>
@@ -7458,13 +7410,13 @@
         <v>9405</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>146</v>
+        <v>456</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>473</v>
+        <v>458</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7479,13 +7431,13 @@
         <v>61257</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>474</v>
+        <v>459</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>475</v>
+        <v>460</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>476</v>
+        <v>461</v>
       </c>
       <c r="H18" s="7">
         <v>72</v>
@@ -7494,13 +7446,13 @@
         <v>84810</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>478</v>
+        <v>463</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>479</v>
+        <v>464</v>
       </c>
       <c r="M18" s="7">
         <v>139</v>
@@ -7509,13 +7461,13 @@
         <v>146067</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>480</v>
+        <v>465</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>481</v>
+        <v>466</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>482</v>
+        <v>467</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7571,7 +7523,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -7583,13 +7535,13 @@
         <v>799</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>291</v>
+        <v>468</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>483</v>
+        <v>469</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -7604,7 +7556,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>484</v>
+        <v>274</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -7613,13 +7565,13 @@
         <v>799</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>451</v>
+        <v>470</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>485</v>
+        <v>471</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7640,7 +7592,7 @@
         <v>12</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>486</v>
+        <v>472</v>
       </c>
       <c r="H21" s="7">
         <v>4</v>
@@ -7649,13 +7601,13 @@
         <v>4182</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>487</v>
+        <v>473</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>488</v>
+        <v>182</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="M21" s="7">
         <v>4</v>
@@ -7664,13 +7616,13 @@
         <v>4182</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>294</v>
+        <v>476</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>491</v>
+        <v>477</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7685,10 +7637,10 @@
         <v>41281</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>492</v>
+        <v>478</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>493</v>
+        <v>385</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>26</v>
@@ -7700,13 +7652,13 @@
         <v>46350</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>494</v>
+        <v>479</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>496</v>
+        <v>481</v>
       </c>
       <c r="M22" s="7">
         <v>88</v>
@@ -7715,13 +7667,13 @@
         <v>87631</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>497</v>
+        <v>482</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>498</v>
+        <v>483</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>499</v>
+        <v>478</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7777,7 +7729,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -7792,10 +7744,10 @@
         <v>66</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>500</v>
+        <v>128</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>501</v>
+        <v>484</v>
       </c>
       <c r="H24" s="7">
         <v>3</v>
@@ -7804,13 +7756,13 @@
         <v>4546</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>502</v>
+        <v>242</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>503</v>
+        <v>485</v>
       </c>
       <c r="M24" s="7">
         <v>6</v>
@@ -7819,13 +7771,13 @@
         <v>7116</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>369</v>
+        <v>149</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>198</v>
+        <v>14</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>504</v>
+        <v>486</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7840,13 +7792,13 @@
         <v>3251</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>155</v>
+        <v>487</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>505</v>
+        <v>488</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>506</v>
+        <v>489</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -7855,13 +7807,13 @@
         <v>2453</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>507</v>
+        <v>490</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>347</v>
+        <v>491</v>
       </c>
       <c r="M25" s="7">
         <v>6</v>
@@ -7870,13 +7822,13 @@
         <v>5704</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>508</v>
+        <v>492</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>335</v>
+        <v>129</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>509</v>
+        <v>493</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7891,13 +7843,13 @@
         <v>42626</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>510</v>
+        <v>494</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>511</v>
+        <v>495</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>512</v>
+        <v>496</v>
       </c>
       <c r="H26" s="7">
         <v>54</v>
@@ -7906,13 +7858,13 @@
         <v>60388</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>515</v>
+        <v>499</v>
       </c>
       <c r="M26" s="7">
         <v>102</v>
@@ -7921,13 +7873,13 @@
         <v>103014</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>516</v>
+        <v>500</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>517</v>
+        <v>501</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>53</v>
+        <v>502</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7983,7 +7935,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -8001,7 +7953,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>413</v>
+        <v>158</v>
       </c>
       <c r="H28" s="7">
         <v>2</v>
@@ -8010,13 +7962,13 @@
         <v>2476</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>518</v>
+        <v>503</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>519</v>
+        <v>504</v>
       </c>
       <c r="M28" s="7">
         <v>2</v>
@@ -8025,13 +7977,13 @@
         <v>2476</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>520</v>
+        <v>356</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>521</v>
+        <v>505</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8046,13 +7998,13 @@
         <v>4743</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>522</v>
+        <v>506</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>523</v>
+        <v>507</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>524</v>
+        <v>508</v>
       </c>
       <c r="H29" s="7">
         <v>7</v>
@@ -8061,13 +8013,13 @@
         <v>8645</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>525</v>
+        <v>509</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>526</v>
+        <v>510</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>527</v>
+        <v>511</v>
       </c>
       <c r="M29" s="7">
         <v>12</v>
@@ -8076,13 +8028,13 @@
         <v>13389</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>528</v>
+        <v>512</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>529</v>
+        <v>513</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>70</v>
+        <v>514</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8097,13 +8049,13 @@
         <v>107442</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>530</v>
+        <v>515</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>531</v>
+        <v>516</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>532</v>
+        <v>517</v>
       </c>
       <c r="H30" s="7">
         <v>116</v>
@@ -8112,13 +8064,13 @@
         <v>136504</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>533</v>
+        <v>518</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>534</v>
+        <v>519</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>535</v>
+        <v>520</v>
       </c>
       <c r="M30" s="7">
         <v>220</v>
@@ -8127,13 +8079,13 @@
         <v>243945</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>536</v>
+        <v>521</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>537</v>
+        <v>522</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>538</v>
+        <v>523</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8189,7 +8141,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -8207,7 +8159,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -8222,7 +8174,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>440</v>
+        <v>424</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -8237,7 +8189,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>539</v>
+        <v>524</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8252,13 +8204,13 @@
         <v>1377</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>540</v>
+        <v>525</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>541</v>
+        <v>352</v>
       </c>
       <c r="H33" s="7">
         <v>2</v>
@@ -8267,13 +8219,13 @@
         <v>2590</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>542</v>
+        <v>526</v>
       </c>
       <c r="K33" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>543</v>
+        <v>527</v>
       </c>
       <c r="M33" s="7">
         <v>3</v>
@@ -8282,13 +8234,13 @@
         <v>3967</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>544</v>
+        <v>528</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>545</v>
+        <v>529</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -8303,10 +8255,10 @@
         <v>132791</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>546</v>
+        <v>530</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>547</v>
+        <v>531</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>26</v>
@@ -8318,10 +8270,10 @@
         <v>173707</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>548</v>
+        <v>532</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>549</v>
+        <v>533</v>
       </c>
       <c r="L34" s="7" t="s">
         <v>26</v>
@@ -8333,13 +8285,13 @@
         <v>306498</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>550</v>
+        <v>534</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>551</v>
+        <v>535</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>552</v>
+        <v>536</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8407,13 +8359,13 @@
         <v>6613</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>553</v>
+        <v>537</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>554</v>
+        <v>538</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>555</v>
+        <v>539</v>
       </c>
       <c r="H36" s="7">
         <v>10</v>
@@ -8422,13 +8374,13 @@
         <v>13884</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>556</v>
+        <v>540</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>454</v>
+        <v>541</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>557</v>
+        <v>505</v>
       </c>
       <c r="M36" s="7">
         <v>18</v>
@@ -8437,13 +8389,13 @@
         <v>20498</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>314</v>
+        <v>542</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>558</v>
+        <v>543</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>470</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8458,13 +8410,13 @@
         <v>18201</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>559</v>
+        <v>355</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>560</v>
+        <v>288</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>313</v>
+        <v>544</v>
       </c>
       <c r="H37" s="7">
         <v>31</v>
@@ -8473,13 +8425,13 @@
         <v>40547</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>561</v>
+        <v>545</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>562</v>
+        <v>546</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>563</v>
+        <v>547</v>
       </c>
       <c r="M37" s="7">
         <v>51</v>
@@ -8488,13 +8440,13 @@
         <v>58748</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>564</v>
+        <v>548</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>565</v>
+        <v>549</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>566</v>
+        <v>550</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8509,13 +8461,13 @@
         <v>566514</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>52</v>
+        <v>551</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>567</v>
+        <v>552</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>568</v>
+        <v>553</v>
       </c>
       <c r="H38" s="7">
         <v>614</v>
@@ -8524,13 +8476,13 @@
         <v>723500</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>569</v>
+        <v>554</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>570</v>
+        <v>555</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>571</v>
+        <v>556</v>
       </c>
       <c r="M38" s="7">
         <v>1213</v>
@@ -8539,13 +8491,13 @@
         <v>1290014</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>572</v>
+        <v>557</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>573</v>
+        <v>558</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>574</v>
+        <v>559</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8601,7 +8553,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -8625,7 +8577,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50E09728-B5F2-4248-862D-113DADE2D9EF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D8D2227-07B2-4BD8-842E-D3B41594B7B4}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8642,7 +8594,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>575</v>
+        <v>560</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -8749,13 +8701,13 @@
         <v>815</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>21</v>
+        <v>561</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>576</v>
+        <v>562</v>
       </c>
       <c r="H4" s="7">
         <v>5</v>
@@ -8764,13 +8716,13 @@
         <v>2742</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>577</v>
+        <v>563</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>578</v>
+        <v>564</v>
       </c>
       <c r="M4" s="7">
         <v>6</v>
@@ -8779,13 +8731,13 @@
         <v>3557</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>579</v>
+        <v>565</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -8800,13 +8752,13 @@
         <v>1442</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>580</v>
+        <v>566</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>581</v>
+        <v>567</v>
       </c>
       <c r="H5" s="7">
         <v>8</v>
@@ -8815,13 +8767,13 @@
         <v>4608</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>582</v>
+        <v>568</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>583</v>
+        <v>569</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>584</v>
+        <v>570</v>
       </c>
       <c r="M5" s="7">
         <v>10</v>
@@ -8833,10 +8785,10 @@
         <v>66</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>268</v>
+        <v>200</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>585</v>
+        <v>571</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8851,13 +8803,13 @@
         <v>49663</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>586</v>
+        <v>207</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>587</v>
+        <v>572</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>588</v>
+        <v>573</v>
       </c>
       <c r="H6" s="7">
         <v>119</v>
@@ -8866,13 +8818,13 @@
         <v>54869</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>589</v>
+        <v>574</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>590</v>
+        <v>575</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="M6" s="7">
         <v>199</v>
@@ -8881,13 +8833,13 @@
         <v>104532</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>115</v>
+        <v>576</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>591</v>
+        <v>577</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>592</v>
+        <v>578</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -8955,13 +8907,13 @@
         <v>882</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>593</v>
+        <v>579</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>594</v>
+        <v>580</v>
       </c>
       <c r="H8" s="7">
         <v>9</v>
@@ -8973,10 +8925,10 @@
         <v>66</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>472</v>
+        <v>581</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>509</v>
+        <v>582</v>
       </c>
       <c r="M8" s="7">
         <v>10</v>
@@ -8985,13 +8937,13 @@
         <v>8369</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>349</v>
+        <v>583</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>344</v>
+        <v>584</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>595</v>
+        <v>585</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -9006,13 +8958,13 @@
         <v>5794</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>155</v>
+        <v>487</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>596</v>
+        <v>195</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>597</v>
+        <v>586</v>
       </c>
       <c r="H9" s="7">
         <v>28</v>
@@ -9021,13 +8973,13 @@
         <v>17906</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>598</v>
+        <v>587</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>599</v>
+        <v>384</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>600</v>
+        <v>588</v>
       </c>
       <c r="M9" s="7">
         <v>34</v>
@@ -9036,13 +8988,13 @@
         <v>23700</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>601</v>
+        <v>589</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>602</v>
+        <v>547</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>603</v>
+        <v>590</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -9057,13 +9009,13 @@
         <v>79638</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>604</v>
+        <v>591</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>605</v>
+        <v>592</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="H10" s="7">
         <v>186</v>
@@ -9072,13 +9024,13 @@
         <v>115964</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>607</v>
+        <v>594</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>608</v>
+        <v>595</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="M10" s="7">
         <v>274</v>
@@ -9087,13 +9039,13 @@
         <v>195602</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>610</v>
+        <v>597</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>611</v>
+        <v>598</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>612</v>
+        <v>599</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -9149,7 +9101,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -9161,13 +9113,13 @@
         <v>3211</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>613</v>
+        <v>600</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>614</v>
+        <v>378</v>
       </c>
       <c r="H12" s="7">
         <v>4</v>
@@ -9176,13 +9128,13 @@
         <v>2039</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>615</v>
+        <v>601</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>616</v>
+        <v>602</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="M12" s="7">
         <v>9</v>
@@ -9191,13 +9143,13 @@
         <v>5250</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>617</v>
+        <v>603</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>618</v>
+        <v>604</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>541</v>
+        <v>605</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -9212,13 +9164,13 @@
         <v>3815</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>508</v>
+        <v>492</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>555</v>
+        <v>606</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>350</v>
+        <v>607</v>
       </c>
       <c r="H13" s="7">
         <v>11</v>
@@ -9227,13 +9179,13 @@
         <v>6595</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>619</v>
+        <v>608</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>325</v>
+        <v>609</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>620</v>
+        <v>610</v>
       </c>
       <c r="M13" s="7">
         <v>18</v>
@@ -9242,13 +9194,13 @@
         <v>10411</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>621</v>
+        <v>611</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>622</v>
+        <v>612</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>623</v>
+        <v>437</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -9263,13 +9215,13 @@
         <v>70574</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>624</v>
+        <v>429</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>625</v>
+        <v>613</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>592</v>
+        <v>578</v>
       </c>
       <c r="H14" s="7">
         <v>154</v>
@@ -9278,13 +9230,13 @@
         <v>86317</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>446</v>
+        <v>614</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>626</v>
+        <v>284</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>627</v>
+        <v>615</v>
       </c>
       <c r="M14" s="7">
         <v>264</v>
@@ -9293,13 +9245,13 @@
         <v>156891</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>628</v>
+        <v>616</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>629</v>
+        <v>94</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>567</v>
+        <v>617</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -9355,7 +9307,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -9367,13 +9319,13 @@
         <v>581</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>630</v>
+        <v>618</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>325</v>
+        <v>609</v>
       </c>
       <c r="H16" s="7">
         <v>8</v>
@@ -9382,13 +9334,13 @@
         <v>3460</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>631</v>
+        <v>619</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>632</v>
+        <v>42</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>633</v>
+        <v>620</v>
       </c>
       <c r="M16" s="7">
         <v>9</v>
@@ -9397,13 +9349,13 @@
         <v>4041</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>634</v>
+        <v>621</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>635</v>
+        <v>622</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>439</v>
+        <v>423</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -9418,13 +9370,13 @@
         <v>5237</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>636</v>
+        <v>623</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>637</v>
+        <v>513</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>638</v>
+        <v>624</v>
       </c>
       <c r="H17" s="7">
         <v>20</v>
@@ -9433,13 +9385,13 @@
         <v>8577</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>639</v>
+        <v>625</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>640</v>
+        <v>626</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>641</v>
+        <v>627</v>
       </c>
       <c r="M17" s="7">
         <v>27</v>
@@ -9448,13 +9400,13 @@
         <v>13815</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>642</v>
+        <v>628</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -9469,13 +9421,13 @@
         <v>72986</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>643</v>
+        <v>629</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>644</v>
+        <v>630</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>645</v>
+        <v>631</v>
       </c>
       <c r="H18" s="7">
         <v>228</v>
@@ -9484,13 +9436,13 @@
         <v>98418</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>646</v>
+        <v>632</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>647</v>
+        <v>633</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>648</v>
+        <v>634</v>
       </c>
       <c r="M18" s="7">
         <v>338</v>
@@ -9499,13 +9451,13 @@
         <v>171404</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>649</v>
+        <v>635</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>629</v>
+        <v>94</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>650</v>
+        <v>636</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -9561,7 +9513,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -9579,7 +9531,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>651</v>
+        <v>637</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
@@ -9588,13 +9540,13 @@
         <v>1370</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>433</v>
+        <v>416</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>652</v>
+        <v>638</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>653</v>
+        <v>204</v>
       </c>
       <c r="M20" s="7">
         <v>3</v>
@@ -9603,13 +9555,13 @@
         <v>1370</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>168</v>
+        <v>91</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>654</v>
+        <v>639</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>655</v>
+        <v>640</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9624,13 +9576,13 @@
         <v>2874</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>656</v>
+        <v>641</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>657</v>
+        <v>358</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>658</v>
+        <v>642</v>
       </c>
       <c r="H21" s="7">
         <v>15</v>
@@ -9639,13 +9591,13 @@
         <v>6698</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>659</v>
+        <v>643</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>525</v>
+        <v>509</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>660</v>
+        <v>644</v>
       </c>
       <c r="M21" s="7">
         <v>20</v>
@@ -9654,13 +9606,13 @@
         <v>9572</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>661</v>
+        <v>645</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>662</v>
+        <v>646</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>663</v>
+        <v>647</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -9675,13 +9627,13 @@
         <v>35457</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>429</v>
+        <v>648</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>664</v>
+        <v>649</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>665</v>
+        <v>650</v>
       </c>
       <c r="H22" s="7">
         <v>146</v>
@@ -9690,13 +9642,13 @@
         <v>57026</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>666</v>
+        <v>651</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>667</v>
+        <v>652</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>668</v>
+        <v>653</v>
       </c>
       <c r="M22" s="7">
         <v>212</v>
@@ -9705,13 +9657,13 @@
         <v>92483</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>669</v>
+        <v>654</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>670</v>
+        <v>655</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>671</v>
+        <v>656</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9767,7 +9719,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -9779,13 +9731,13 @@
         <v>1217</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>672</v>
+        <v>657</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>673</v>
+        <v>658</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>525</v>
+        <v>509</v>
       </c>
       <c r="H24" s="7">
         <v>13</v>
@@ -9794,13 +9746,13 @@
         <v>5059</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>674</v>
+        <v>659</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>675</v>
+        <v>660</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>676</v>
+        <v>661</v>
       </c>
       <c r="M24" s="7">
         <v>16</v>
@@ -9809,13 +9761,13 @@
         <v>6276</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>677</v>
+        <v>662</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>387</v>
+        <v>438</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>678</v>
+        <v>663</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -9830,13 +9782,13 @@
         <v>3495</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>679</v>
+        <v>550</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>680</v>
+        <v>664</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>681</v>
+        <v>342</v>
       </c>
       <c r="H25" s="7">
         <v>16</v>
@@ -9845,13 +9797,13 @@
         <v>5428</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>682</v>
+        <v>665</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>683</v>
+        <v>666</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>684</v>
+        <v>667</v>
       </c>
       <c r="M25" s="7">
         <v>24</v>
@@ -9860,13 +9812,13 @@
         <v>8923</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>685</v>
+        <v>668</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>686</v>
+        <v>669</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9881,13 +9833,13 @@
         <v>58470</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>688</v>
+        <v>671</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>689</v>
+        <v>672</v>
       </c>
       <c r="H26" s="7">
         <v>147</v>
@@ -9896,13 +9848,13 @@
         <v>58868</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>690</v>
+        <v>673</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>691</v>
+        <v>674</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>692</v>
+        <v>368</v>
       </c>
       <c r="M26" s="7">
         <v>271</v>
@@ -9911,13 +9863,13 @@
         <v>117339</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>693</v>
+        <v>675</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>694</v>
+        <v>676</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>695</v>
+        <v>677</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9973,7 +9925,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -9991,7 +9943,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>696</v>
+        <v>678</v>
       </c>
       <c r="H28" s="7">
         <v>7</v>
@@ -10000,13 +9952,13 @@
         <v>5164</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>544</v>
+        <v>528</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>697</v>
+        <v>679</v>
       </c>
       <c r="M28" s="7">
         <v>7</v>
@@ -10015,13 +9967,13 @@
         <v>5164</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>698</v>
+        <v>197</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>699</v>
+        <v>680</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -10036,13 +9988,13 @@
         <v>881</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>436</v>
+        <v>329</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>700</v>
+        <v>681</v>
       </c>
       <c r="H29" s="7">
         <v>8</v>
@@ -10051,13 +10003,13 @@
         <v>5660</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>701</v>
+        <v>682</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>129</v>
+        <v>683</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>702</v>
+        <v>684</v>
       </c>
       <c r="M29" s="7">
         <v>9</v>
@@ -10066,13 +10018,13 @@
         <v>6541</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>518</v>
+        <v>503</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>703</v>
+        <v>685</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -10087,10 +10039,10 @@
         <v>129959</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>704</v>
+        <v>686</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>705</v>
+        <v>687</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>26</v>
@@ -10102,13 +10054,13 @@
         <v>247364</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>706</v>
+        <v>688</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>707</v>
+        <v>689</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>708</v>
+        <v>690</v>
       </c>
       <c r="M30" s="7">
         <v>393</v>
@@ -10117,13 +10069,13 @@
         <v>377323</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>709</v>
+        <v>691</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>512</v>
+        <v>213</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>710</v>
+        <v>692</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -10179,7 +10131,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -10197,7 +10149,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -10212,7 +10164,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>711</v>
+        <v>693</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -10227,7 +10179,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>712</v>
+        <v>694</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -10242,13 +10194,13 @@
         <v>159</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>713</v>
+        <v>695</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>714</v>
+        <v>696</v>
       </c>
       <c r="H33" s="7">
         <v>3</v>
@@ -10257,13 +10209,13 @@
         <v>1837</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>715</v>
+        <v>697</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>596</v>
+        <v>195</v>
       </c>
       <c r="M33" s="7">
         <v>4</v>
@@ -10272,13 +10224,13 @@
         <v>1997</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>714</v>
+        <v>696</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>716</v>
+        <v>698</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>440</v>
+        <v>424</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -10293,10 +10245,10 @@
         <v>169063</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>717</v>
+        <v>699</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>718</v>
+        <v>700</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>26</v>
@@ -10308,13 +10260,13 @@
         <v>221206</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>719</v>
+        <v>701</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>720</v>
+        <v>702</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>721</v>
+        <v>703</v>
       </c>
       <c r="M34" s="7">
         <v>573</v>
@@ -10323,13 +10275,13 @@
         <v>390268</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>718</v>
+        <v>700</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>722</v>
+        <v>704</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>723</v>
+        <v>705</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -10397,13 +10349,13 @@
         <v>6707</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>724</v>
+        <v>706</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>725</v>
+        <v>707</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>359</v>
+        <v>242</v>
       </c>
       <c r="H36" s="7">
         <v>49</v>
@@ -10412,13 +10364,13 @@
         <v>27321</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>726</v>
+        <v>708</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>505</v>
+        <v>709</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>727</v>
+        <v>710</v>
       </c>
       <c r="M36" s="7">
         <v>60</v>
@@ -10427,13 +10379,13 @@
         <v>34028</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>728</v>
+        <v>711</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>729</v>
+        <v>712</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>730</v>
+        <v>713</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10448,13 +10400,13 @@
         <v>23698</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>731</v>
+        <v>714</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>732</v>
+        <v>715</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>366</v>
+        <v>84</v>
       </c>
       <c r="H37" s="7">
         <v>109</v>
@@ -10463,13 +10415,13 @@
         <v>57310</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>733</v>
+        <v>716</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>349</v>
+        <v>583</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>734</v>
+        <v>717</v>
       </c>
       <c r="M37" s="7">
         <v>146</v>
@@ -10478,13 +10430,13 @@
         <v>81008</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>735</v>
+        <v>718</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>622</v>
+        <v>612</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10499,13 +10451,13 @@
         <v>665811</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>736</v>
+        <v>719</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>737</v>
+        <v>720</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>482</v>
+        <v>721</v>
       </c>
       <c r="H38" s="7">
         <v>1546</v>
@@ -10514,13 +10466,13 @@
         <v>940032</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>695</v>
+        <v>677</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>738</v>
+        <v>722</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>739</v>
+        <v>723</v>
       </c>
       <c r="M38" s="7">
         <v>2524</v>
@@ -10529,13 +10481,13 @@
         <v>1605843</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>740</v>
+        <v>724</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>741</v>
+        <v>725</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>742</v>
+        <v>726</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -10591,7 +10543,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q5406-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q5406-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B47C215A-0159-4C92-B7AB-1FE84207DA95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{66D5A4CF-CBED-44EB-94D7-B268B737B320}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6939E63A-F00A-4C6A-8F0A-7477A7BABC7B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F424A97D-7A5D-4D26-8690-451C2D189E56}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="727">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="736">
   <si>
     <t>Población según si es capaz de tomar medicación en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -92,22 +92,22 @@
     <t>5,13%</t>
   </si>
   <si>
-    <t>18,01%</t>
+    <t>15,53%</t>
   </si>
   <si>
     <t>5,96%</t>
   </si>
   <si>
-    <t>19,79%</t>
+    <t>18,63%</t>
   </si>
   <si>
     <t>5,57%</t>
   </si>
   <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
   </si>
   <si>
     <t>Sin ayuda</t>
@@ -116,7 +116,7 @@
     <t>94,87%</t>
   </si>
   <si>
-    <t>81,99%</t>
+    <t>84,47%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -125,16 +125,16 @@
     <t>94,04%</t>
   </si>
   <si>
-    <t>80,21%</t>
+    <t>81,37%</t>
   </si>
   <si>
     <t>94,43%</t>
   </si>
   <si>
-    <t>87,08%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
+    <t>87,17%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
   </si>
   <si>
     <t>100%</t>
@@ -146,13 +146,13 @@
     <t>4,11%</t>
   </si>
   <si>
-    <t>17,1%</t>
+    <t>15,62%</t>
   </si>
   <si>
     <t>1,25%</t>
   </si>
   <si>
-    <t>6,41%</t>
+    <t>6,64%</t>
   </si>
   <si>
     <t>2,41%</t>
@@ -161,2062 +161,2089 @@
     <t>0,6%</t>
   </si>
   <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>90,04%</t>
+  </si>
+  <si>
+    <t>79,88%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>87,1%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>85,69%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>90,4%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
     <t>7,01%</t>
   </si>
   <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>79,3%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>88,4%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>31,95%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>82,45%</t>
+  </si>
+  <si>
+    <t>68,05%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>74,42%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>86,55%</t>
+  </si>
+  <si>
+    <t>77,22%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>90,07%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>86,33%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>88,01%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>88,25%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
+  </si>
+  <si>
+    <t>85,11%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>87,86%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de tomar medicación en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>83,6%</t>
+  </si>
+  <si>
+    <t>71,49%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>84,67%</t>
+  </si>
+  <si>
+    <t>75,28%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>84,2%</t>
+  </si>
+  <si>
+    <t>76,82%</t>
+  </si>
+  <si>
+    <t>89,64%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>87,14%</t>
+  </si>
+  <si>
+    <t>72,91%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>82,48%</t>
+  </si>
+  <si>
+    <t>71,96%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>84,39%</t>
+  </si>
+  <si>
+    <t>76,77%</t>
+  </si>
+  <si>
+    <t>89,69%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>84,32%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>88,68%</t>
+  </si>
+  <si>
+    <t>82,14%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
+  </si>
+  <si>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>74,18%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>89,8%</t>
+  </si>
+  <si>
+    <t>78,07%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>89,72%</t>
+  </si>
+  <si>
+    <t>80,8%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>85,55%</t>
+  </si>
+  <si>
+    <t>73,01%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>81,58%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>82,36%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>85,08%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>87,42%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>87,87%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>86,68%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>89,49%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>87,09%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>88,77%</t>
+  </si>
+  <si>
+    <t>86,2%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
+  </si>
+  <si>
+    <t>89,45%</t>
+  </si>
+  <si>
+    <t>87,8%</t>
+  </si>
+  <si>
+    <t>91,21%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de tomar medicación en 2016 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>81,06%</t>
+  </si>
+  <si>
+    <t>69,19%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
+  </si>
+  <si>
+    <t>81,86%</t>
+  </si>
+  <si>
+    <t>65,04%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>81,51%</t>
+  </si>
+  <si>
+    <t>70,96%</t>
+  </si>
+  <si>
+    <t>88,81%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>84,11%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>85,01%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
   </si>
   <si>
     <t>87,38%</t>
   </si>
   <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>86,95%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>86,36%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>90,3%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>87,11%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>34,29%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>82,45%</t>
-  </si>
-  <si>
-    <t>65,71%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>74,25%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>86,55%</t>
-  </si>
-  <si>
-    <t>76,6%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>86,03%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>83,07%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>86,19%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>81,38%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>87,99%</t>
+  </si>
+  <si>
+    <t>77,73%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>89,61%</t>
+  </si>
+  <si>
+    <t>77,32%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
+  </si>
+  <si>
+    <t>81,35%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
   </si>
   <si>
     <t>1,74%</t>
   </si>
   <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>87,68%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>91,76%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>88,39%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>84,84%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>88,4%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>90,72%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>86,26%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>90,02%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de tomar medicación en 2023 (Tasa respuesta: 31,22%)</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>89,09%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>88,19%</t>
+  </si>
+  <si>
+    <t>81,24%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>86,87%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>84,7%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>82,04%</t>
+  </si>
+  <si>
+    <t>76,23%</t>
+  </si>
+  <si>
+    <t>86,77%</t>
+  </si>
+  <si>
+    <t>85,91%</t>
+  </si>
+  <si>
+    <t>81,71%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>84,9%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>85,73%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>86,81%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>89,1%</t>
+  </si>
+  <si>
+    <t>85,06%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>87,22%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>83,97%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>87,6%</t>
+  </si>
+  <si>
+    <t>81,46%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>89,42%</t>
+  </si>
+  <si>
+    <t>84,43%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>87,55%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>84,88%</t>
+  </si>
+  <si>
+    <t>79,01%</t>
+  </si>
+  <si>
+    <t>89,85%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
+  </si>
+  <si>
+    <t>84,6%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
   </si>
   <si>
     <t>1,33%</t>
   </si>
   <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>91,3%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de tomar medicación en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>83,6%</t>
-  </si>
-  <si>
-    <t>70,31%</t>
-  </si>
-  <si>
-    <t>91,89%</t>
-  </si>
-  <si>
-    <t>84,67%</t>
-  </si>
-  <si>
-    <t>76,03%</t>
-  </si>
-  <si>
-    <t>84,2%</t>
-  </si>
-  <si>
-    <t>76,65%</t>
-  </si>
-  <si>
-    <t>89,55%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>87,14%</t>
-  </si>
-  <si>
-    <t>74,26%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>82,48%</t>
-  </si>
-  <si>
-    <t>72,47%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
-  </si>
-  <si>
-    <t>84,39%</t>
-  </si>
-  <si>
-    <t>76,3%</t>
-  </si>
-  <si>
-    <t>89,84%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>88,68%</t>
-  </si>
-  <si>
-    <t>82,56%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>85,08%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>74,63%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>89,72%</t>
-  </si>
-  <si>
-    <t>81,91%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>85,55%</t>
-  </si>
-  <si>
-    <t>73,19%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>81,46%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>81,44%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>91,2%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
   </si>
   <si>
     <t>2,58%</t>
   </si>
   <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>86,9%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>86,35%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>89,73%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
-  </si>
-  <si>
-    <t>87,25%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>88,77%</t>
-  </si>
-  <si>
-    <t>86,44%</t>
-  </si>
-  <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>89,45%</t>
-  </si>
-  <si>
-    <t>87,48%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de tomar medicación en 2016 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>30,93%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>81,06%</t>
-  </si>
-  <si>
-    <t>67,85%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>81,86%</t>
-  </si>
-  <si>
-    <t>67,01%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>81,51%</t>
-  </si>
-  <si>
-    <t>70,63%</t>
-  </si>
-  <si>
-    <t>88,35%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>84,74%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>83,83%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>86,56%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>82,66%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>87,84%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>91,72%</t>
-  </si>
-  <si>
-    <t>80,67%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>77,75%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>89,61%</t>
-  </si>
-  <si>
-    <t>77,23%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>88,93%</t>
-  </si>
-  <si>
-    <t>81,77%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>86,73%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>90,07%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>90,53%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de tomar medicación en 2023 (Tasa respuesta: 31,22%)</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>88,19%</t>
-  </si>
-  <si>
-    <t>80,22%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>86,85%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>85,71%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>82,04%</t>
-  </si>
-  <si>
-    <t>76,35%</t>
-  </si>
-  <si>
-    <t>87,12%</t>
-  </si>
-  <si>
-    <t>85,91%</t>
-  </si>
-  <si>
-    <t>81,63%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>84,97%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>86,59%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>89,1%</t>
-  </si>
-  <si>
-    <t>84,94%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>83,64%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>87,6%</t>
-  </si>
-  <si>
-    <t>81,24%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
-  </si>
-  <si>
-    <t>89,42%</t>
-  </si>
-  <si>
-    <t>84,52%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>87,04%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>84,88%</t>
-  </si>
-  <si>
-    <t>79,06%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
-  </si>
-  <si>
-    <t>84,62%</t>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
   </si>
   <si>
     <t>91,74%</t>
   </si>
   <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
+    <t>94,3%</t>
   </si>
   <si>
     <t>93,32%</t>
   </si>
   <si>
-    <t>92,22%</t>
+    <t>92,19%</t>
   </si>
   <si>
     <t>94,69%</t>
@@ -2631,7 +2658,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3C44CCC-F9C2-43DD-8E17-A56E57AB49B4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F691F456-EEB7-4E9F-AB53-B3D14CBCB623}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3045,10 +3072,10 @@
         <v>47</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3063,13 +3090,13 @@
         <v>60017</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H10" s="7">
         <v>90</v>
@@ -3078,13 +3105,13 @@
         <v>91686</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M10" s="7">
         <v>149</v>
@@ -3093,13 +3120,13 @@
         <v>151702</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3155,7 +3182,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -3173,7 +3200,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H12" s="7">
         <v>2</v>
@@ -3182,13 +3209,13 @@
         <v>1127</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M12" s="7">
         <v>2</v>
@@ -3197,13 +3224,13 @@
         <v>1127</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3218,13 +3245,13 @@
         <v>949</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H13" s="7">
         <v>4</v>
@@ -3233,10 +3260,10 @@
         <v>4430</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>68</v>
@@ -3251,7 +3278,7 @@
         <v>69</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>70</v>
@@ -4212,13 +4239,13 @@
         <v>8461</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M32" s="7">
         <v>7</v>
@@ -4227,13 +4254,13 @@
         <v>8461</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4248,13 +4275,13 @@
         <v>6690</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H33" s="7">
         <v>4</v>
@@ -4263,13 +4290,13 @@
         <v>5105</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M33" s="7">
         <v>11</v>
@@ -4278,13 +4305,13 @@
         <v>11795</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -4299,13 +4326,13 @@
         <v>105203</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H34" s="7">
         <v>133</v>
@@ -4314,13 +4341,13 @@
         <v>139659</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M34" s="7">
         <v>242</v>
@@ -4329,13 +4356,13 @@
         <v>244862</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4403,13 +4430,13 @@
         <v>3576</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H36" s="7">
         <v>15</v>
@@ -4418,13 +4445,13 @@
         <v>15947</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>134</v>
+        <v>199</v>
       </c>
       <c r="M36" s="7">
         <v>18</v>
@@ -4433,13 +4460,13 @@
         <v>19523</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4454,13 +4481,13 @@
         <v>28190</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>134</v>
+        <v>204</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="H37" s="7">
         <v>24</v>
@@ -4472,10 +4499,10 @@
         <v>69</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="M37" s="7">
         <v>55</v>
@@ -4484,13 +4511,13 @@
         <v>55233</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>205</v>
+        <v>147</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>59</v>
+        <v>208</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>175</v>
+        <v>209</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4505,13 +4532,13 @@
         <v>470700</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="H38" s="7">
         <v>622</v>
@@ -4520,13 +4547,13 @@
         <v>633852</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="M38" s="7">
         <v>1111</v>
@@ -4535,13 +4562,13 @@
         <v>1104552</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4597,7 +4624,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -4621,7 +4648,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{108F4A57-4047-4011-8EC8-151485BABBD5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{858663FD-B918-47B3-8792-B4581EACA242}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4638,7 +4665,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4743,39 +4770,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4788,39 +4815,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4833,39 +4860,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4878,39 +4905,39 @@
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
       </c>
       <c r="N7" s="7"/>
       <c r="O7" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4927,13 +4954,13 @@
         <v>5380</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="H8" s="7">
         <v>6</v>
@@ -4942,13 +4969,13 @@
         <v>7848</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="M8" s="7">
         <v>10</v>
@@ -4957,13 +4984,13 @@
         <v>13228</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>157</v>
+        <v>228</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4978,13 +5005,13 @@
         <v>7613</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>226</v>
+        <v>106</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="H9" s="7">
         <v>7</v>
@@ -4993,13 +5020,13 @@
         <v>7799</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="M9" s="7">
         <v>12</v>
@@ -5008,13 +5035,13 @@
         <v>15412</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>114</v>
+        <v>236</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5029,13 +5056,13 @@
         <v>66210</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="H10" s="7">
         <v>80</v>
@@ -5044,13 +5071,13 @@
         <v>86446</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>209</v>
+        <v>243</v>
       </c>
       <c r="M10" s="7">
         <v>140</v>
@@ -5059,13 +5086,13 @@
         <v>152656</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5121,7 +5148,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -5133,13 +5160,13 @@
         <v>4036</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="H12" s="7">
         <v>7</v>
@@ -5148,13 +5175,13 @@
         <v>7624</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>245</v>
+        <v>204</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="M12" s="7">
         <v>11</v>
@@ -5163,13 +5190,13 @@
         <v>11660</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>84</v>
+        <v>253</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>222</v>
+        <v>254</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5184,13 +5211,13 @@
         <v>3134</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="H13" s="7">
         <v>6</v>
@@ -5199,13 +5226,13 @@
         <v>6390</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="M13" s="7">
         <v>8</v>
@@ -5214,13 +5241,13 @@
         <v>9524</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>82</v>
+        <v>260</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5235,13 +5262,13 @@
         <v>48572</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="H14" s="7">
         <v>62</v>
@@ -5250,13 +5277,13 @@
         <v>65954</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="M14" s="7">
         <v>109</v>
@@ -5265,13 +5292,13 @@
         <v>114527</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5339,13 +5366,13 @@
         <v>2133</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -5354,13 +5381,13 @@
         <v>4265</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>267</v>
+        <v>63</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>268</v>
+        <v>205</v>
       </c>
       <c r="M16" s="7">
         <v>6</v>
@@ -5369,13 +5396,13 @@
         <v>6398</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>200</v>
+        <v>275</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>179</v>
+        <v>276</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5390,13 +5417,13 @@
         <v>7310</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="H17" s="7">
         <v>10</v>
@@ -5405,13 +5432,13 @@
         <v>10964</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>274</v>
+        <v>204</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="M17" s="7">
         <v>17</v>
@@ -5420,13 +5447,13 @@
         <v>18274</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5441,13 +5468,13 @@
         <v>98865</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>238</v>
+        <v>287</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="H18" s="7">
         <v>115</v>
@@ -5456,13 +5483,13 @@
         <v>119240</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="M18" s="7">
         <v>204</v>
@@ -5471,13 +5498,13 @@
         <v>218105</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>263</v>
+        <v>292</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5545,13 +5572,13 @@
         <v>1157</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
@@ -5560,13 +5587,13 @@
         <v>2979</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>252</v>
+        <v>298</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
@@ -5575,13 +5602,13 @@
         <v>4136</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5596,13 +5623,13 @@
         <v>2135</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="H21" s="7">
         <v>2</v>
@@ -5611,13 +5638,13 @@
         <v>2104</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="M21" s="7">
         <v>4</v>
@@ -5626,13 +5653,13 @@
         <v>4239</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>21</v>
+        <v>306</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5647,13 +5674,13 @@
         <v>28320</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>297</v>
+        <v>308</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>298</v>
+        <v>309</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="H22" s="7">
         <v>43</v>
@@ -5662,13 +5689,13 @@
         <v>44771</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>300</v>
+        <v>311</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>50</v>
+        <v>312</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="M22" s="7">
         <v>68</v>
@@ -5677,13 +5704,13 @@
         <v>73092</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5751,13 +5778,13 @@
         <v>2144</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="H24" s="7">
         <v>3</v>
@@ -5766,13 +5793,13 @@
         <v>3243</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>86</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
       <c r="M24" s="7">
         <v>5</v>
@@ -5781,13 +5808,13 @@
         <v>5387</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>148</v>
+        <v>322</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>310</v>
+        <v>323</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5802,13 +5829,13 @@
         <v>5333</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>311</v>
+        <v>324</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>313</v>
+        <v>326</v>
       </c>
       <c r="H25" s="7">
         <v>3</v>
@@ -5817,13 +5844,13 @@
         <v>3286</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>205</v>
+        <v>147</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>314</v>
+        <v>327</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="M25" s="7">
         <v>8</v>
@@ -5832,13 +5859,13 @@
         <v>8619</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>316</v>
+        <v>329</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5853,13 +5880,13 @@
         <v>44279</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>321</v>
+        <v>334</v>
       </c>
       <c r="H26" s="7">
         <v>63</v>
@@ -5868,13 +5895,13 @@
         <v>63682</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>100</v>
+        <v>335</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>322</v>
+        <v>336</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>323</v>
+        <v>337</v>
       </c>
       <c r="M26" s="7">
         <v>106</v>
@@ -5883,13 +5910,13 @@
         <v>107962</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>324</v>
+        <v>338</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>325</v>
+        <v>339</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>326</v>
+        <v>340</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5957,13 +5984,13 @@
         <v>1989</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>327</v>
+        <v>341</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>156</v>
+        <v>342</v>
       </c>
       <c r="H28" s="7">
         <v>3</v>
@@ -5972,13 +5999,13 @@
         <v>3123</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>328</v>
+        <v>343</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>329</v>
+        <v>344</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>330</v>
+        <v>345</v>
       </c>
       <c r="M28" s="7">
         <v>5</v>
@@ -5987,13 +6014,13 @@
         <v>5112</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>331</v>
+        <v>346</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>332</v>
+        <v>347</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>333</v>
+        <v>348</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6008,13 +6035,13 @@
         <v>6071</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>334</v>
+        <v>349</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>335</v>
+        <v>350</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>336</v>
+        <v>351</v>
       </c>
       <c r="H29" s="7">
         <v>10</v>
@@ -6023,13 +6050,13 @@
         <v>10451</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>337</v>
+        <v>352</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>338</v>
+        <v>353</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>339</v>
+        <v>354</v>
       </c>
       <c r="M29" s="7">
         <v>16</v>
@@ -6038,13 +6065,13 @@
         <v>16521</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>342</v>
+        <v>357</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6059,13 +6086,13 @@
         <v>104203</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>343</v>
+        <v>358</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>344</v>
+        <v>359</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="H30" s="7">
         <v>116</v>
@@ -6074,13 +6101,13 @@
         <v>128388</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>347</v>
+        <v>362</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>348</v>
+        <v>139</v>
       </c>
       <c r="M30" s="7">
         <v>208</v>
@@ -6089,13 +6116,13 @@
         <v>232592</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>349</v>
+        <v>363</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>350</v>
+        <v>364</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>257</v>
+        <v>365</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6169,7 +6196,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="H32" s="7">
         <v>3</v>
@@ -6178,13 +6205,13 @@
         <v>3295</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>351</v>
+        <v>366</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>39</v>
+        <v>367</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>352</v>
+        <v>368</v>
       </c>
       <c r="M32" s="7">
         <v>3</v>
@@ -6193,13 +6220,13 @@
         <v>3295</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>353</v>
+        <v>369</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>354</v>
+        <v>370</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>355</v>
+        <v>261</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6214,13 +6241,13 @@
         <v>5563</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>84</v>
+        <v>371</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>356</v>
+        <v>372</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>357</v>
+        <v>373</v>
       </c>
       <c r="H33" s="7">
         <v>9</v>
@@ -6229,13 +6256,13 @@
         <v>10093</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>149</v>
+        <v>374</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>358</v>
+        <v>279</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>359</v>
+        <v>375</v>
       </c>
       <c r="M33" s="7">
         <v>13</v>
@@ -6244,13 +6271,13 @@
         <v>15656</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>360</v>
+        <v>149</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>355</v>
+        <v>376</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>361</v>
+        <v>377</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6265,13 +6292,13 @@
         <v>115189</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>362</v>
+        <v>378</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>363</v>
+        <v>379</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>364</v>
+        <v>380</v>
       </c>
       <c r="H34" s="7">
         <v>139</v>
@@ -6280,13 +6307,13 @@
         <v>151029</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>365</v>
+        <v>381</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>366</v>
+        <v>382</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>367</v>
+        <v>383</v>
       </c>
       <c r="M34" s="7">
         <v>241</v>
@@ -6298,10 +6325,10 @@
         <v>73</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>368</v>
+        <v>384</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>369</v>
+        <v>385</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6369,13 +6396,13 @@
         <v>16839</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>370</v>
+        <v>386</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>371</v>
+        <v>387</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>13</v>
+        <v>388</v>
       </c>
       <c r="H36" s="7">
         <v>29</v>
@@ -6384,13 +6411,13 @@
         <v>32377</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>372</v>
+        <v>236</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="M36" s="7">
         <v>44</v>
@@ -6399,13 +6426,13 @@
         <v>49216</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>374</v>
+        <v>391</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>375</v>
+        <v>392</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>44</v>
+        <v>299</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6420,13 +6447,13 @@
         <v>37159</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>376</v>
+        <v>37</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>377</v>
+        <v>393</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>378</v>
+        <v>394</v>
       </c>
       <c r="H37" s="7">
         <v>47</v>
@@ -6435,13 +6462,13 @@
         <v>51087</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>379</v>
+        <v>395</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>380</v>
+        <v>396</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>381</v>
+        <v>397</v>
       </c>
       <c r="M37" s="7">
         <v>78</v>
@@ -6450,13 +6477,13 @@
         <v>88246</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>382</v>
+        <v>398</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>383</v>
+        <v>349</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>384</v>
+        <v>399</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6471,13 +6498,13 @@
         <v>505640</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>385</v>
+        <v>400</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>386</v>
+        <v>401</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>387</v>
+        <v>402</v>
       </c>
       <c r="H38" s="7">
         <v>618</v>
@@ -6486,13 +6513,13 @@
         <v>659511</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>388</v>
+        <v>403</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>389</v>
+        <v>404</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>390</v>
+        <v>405</v>
       </c>
       <c r="M38" s="7">
         <v>1076</v>
@@ -6501,13 +6528,13 @@
         <v>1165150</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>391</v>
+        <v>406</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>392</v>
+        <v>407</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>206</v>
+        <v>408</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6563,7 +6590,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -6587,7 +6614,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3975A2E-FD34-40BB-B5B7-B646D0333184}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98638566-9579-473B-8995-1D523900A9A8}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6604,7 +6631,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>393</v>
+        <v>409</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6711,13 +6738,13 @@
         <v>2432</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>330</v>
+        <v>410</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>331</v>
+        <v>411</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>394</v>
+        <v>412</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -6726,13 +6753,13 @@
         <v>1038</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>395</v>
+        <v>413</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>396</v>
+        <v>414</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -6741,13 +6768,13 @@
         <v>3469</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>397</v>
+        <v>415</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>199</v>
+        <v>416</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>398</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6762,13 +6789,13 @@
         <v>4937</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>399</v>
+        <v>417</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>400</v>
+        <v>418</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>401</v>
+        <v>419</v>
       </c>
       <c r="H5" s="7">
         <v>6</v>
@@ -6777,13 +6804,13 @@
         <v>7922</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>402</v>
+        <v>420</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>403</v>
+        <v>421</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>404</v>
+        <v>422</v>
       </c>
       <c r="M5" s="7">
         <v>12</v>
@@ -6792,13 +6819,13 @@
         <v>12858</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>275</v>
+        <v>423</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>405</v>
+        <v>424</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>406</v>
+        <v>425</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6813,13 +6840,13 @@
         <v>31528</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>407</v>
+        <v>426</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>408</v>
+        <v>427</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>409</v>
+        <v>428</v>
       </c>
       <c r="H6" s="7">
         <v>36</v>
@@ -6828,28 +6855,28 @@
         <v>40432</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>410</v>
+        <v>429</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>411</v>
+        <v>430</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>412</v>
+        <v>431</v>
       </c>
       <c r="M6" s="7">
         <v>69</v>
       </c>
       <c r="N6" s="7">
-        <v>71959</v>
+        <v>71960</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>413</v>
+        <v>432</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>414</v>
+        <v>433</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>415</v>
+        <v>434</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6891,7 +6918,7 @@
         <v>85</v>
       </c>
       <c r="N7" s="7">
-        <v>88286</v>
+        <v>88287</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>32</v>
@@ -6923,7 +6950,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>416</v>
+        <v>435</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -6932,13 +6959,13 @@
         <v>1347</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>417</v>
+        <v>135</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>418</v>
+        <v>436</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -6947,13 +6974,13 @@
         <v>1347</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>329</v>
+        <v>344</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>419</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6974,7 +7001,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>416</v>
+        <v>435</v>
       </c>
       <c r="H9" s="7">
         <v>6</v>
@@ -6983,13 +7010,13 @@
         <v>7991</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>420</v>
+        <v>437</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>421</v>
+        <v>438</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>422</v>
+        <v>439</v>
       </c>
       <c r="M9" s="7">
         <v>6</v>
@@ -6998,13 +7025,13 @@
         <v>7991</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>423</v>
+        <v>440</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>424</v>
+        <v>441</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>425</v>
+        <v>442</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7022,7 +7049,7 @@
         <v>26</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>426</v>
+        <v>443</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>32</v>
@@ -7034,13 +7061,13 @@
         <v>105890</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>427</v>
+        <v>444</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>428</v>
+        <v>445</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>345</v>
+        <v>446</v>
       </c>
       <c r="M10" s="7">
         <v>178</v>
@@ -7049,13 +7076,13 @@
         <v>193185</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>362</v>
+        <v>378</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>430</v>
+        <v>448</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7111,7 +7138,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -7129,7 +7156,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>431</v>
+        <v>449</v>
       </c>
       <c r="H12" s="7">
         <v>3</v>
@@ -7138,13 +7165,13 @@
         <v>4477</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>432</v>
+        <v>450</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>433</v>
+        <v>327</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>434</v>
+        <v>451</v>
       </c>
       <c r="M12" s="7">
         <v>3</v>
@@ -7153,13 +7180,13 @@
         <v>4477</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>435</v>
+        <v>376</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>267</v>
+        <v>452</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>436</v>
+        <v>453</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7174,13 +7201,13 @@
         <v>1252</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>437</v>
+        <v>89</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -7195,7 +7222,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>438</v>
+        <v>454</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -7204,13 +7231,13 @@
         <v>1252</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>439</v>
+        <v>455</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>440</v>
+        <v>356</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7225,10 +7252,10 @@
         <v>62294</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>441</v>
+        <v>456</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>442</v>
+        <v>457</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>26</v>
@@ -7240,13 +7267,13 @@
         <v>75420</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>443</v>
+        <v>458</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>444</v>
+        <v>459</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>445</v>
+        <v>101</v>
       </c>
       <c r="M14" s="7">
         <v>137</v>
@@ -7255,13 +7282,13 @@
         <v>137714</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>446</v>
+        <v>313</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>447</v>
+        <v>460</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>448</v>
+        <v>461</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7329,13 +7356,13 @@
         <v>813</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>449</v>
+        <v>462</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>450</v>
+        <v>463</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -7359,13 +7386,13 @@
         <v>813</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>451</v>
+        <v>464</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>127</v>
+        <v>275</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7380,13 +7407,13 @@
         <v>2642</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>452</v>
+        <v>465</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>21</v>
+        <v>150</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>453</v>
+        <v>466</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
@@ -7395,13 +7422,13 @@
         <v>6764</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>454</v>
+        <v>467</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>196</v>
+        <v>468</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>455</v>
+        <v>469</v>
       </c>
       <c r="M17" s="7">
         <v>7</v>
@@ -7410,13 +7437,13 @@
         <v>9405</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>456</v>
+        <v>470</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>457</v>
+        <v>471</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7431,13 +7458,13 @@
         <v>61257</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>460</v>
+        <v>474</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>461</v>
+        <v>475</v>
       </c>
       <c r="H18" s="7">
         <v>72</v>
@@ -7446,13 +7473,13 @@
         <v>84810</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>463</v>
+        <v>477</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>464</v>
+        <v>478</v>
       </c>
       <c r="M18" s="7">
         <v>139</v>
@@ -7461,13 +7488,13 @@
         <v>146067</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>465</v>
+        <v>479</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>466</v>
+        <v>480</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>467</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7535,13 +7562,13 @@
         <v>799</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>468</v>
+        <v>297</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -7556,7 +7583,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>274</v>
+        <v>204</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -7565,13 +7592,13 @@
         <v>799</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>470</v>
+        <v>482</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7592,7 +7619,7 @@
         <v>12</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="H21" s="7">
         <v>4</v>
@@ -7601,13 +7628,13 @@
         <v>4182</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>182</v>
+        <v>486</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>474</v>
+        <v>487</v>
       </c>
       <c r="M21" s="7">
         <v>4</v>
@@ -7616,13 +7643,13 @@
         <v>4182</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>475</v>
+        <v>488</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>476</v>
+        <v>300</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>477</v>
+        <v>489</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7637,10 +7664,10 @@
         <v>41281</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>478</v>
+        <v>490</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>385</v>
+        <v>491</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>26</v>
@@ -7652,13 +7679,13 @@
         <v>46350</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>479</v>
+        <v>492</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>480</v>
+        <v>493</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>481</v>
+        <v>494</v>
       </c>
       <c r="M22" s="7">
         <v>88</v>
@@ -7667,13 +7694,13 @@
         <v>87631</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>482</v>
+        <v>495</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>483</v>
+        <v>496</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>478</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7741,13 +7768,13 @@
         <v>2570</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>128</v>
+        <v>497</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>484</v>
+        <v>498</v>
       </c>
       <c r="H24" s="7">
         <v>3</v>
@@ -7756,13 +7783,13 @@
         <v>4546</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>242</v>
+        <v>341</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>485</v>
+        <v>499</v>
       </c>
       <c r="M24" s="7">
         <v>6</v>
@@ -7771,13 +7798,13 @@
         <v>7116</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>149</v>
+        <v>374</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>14</v>
+        <v>500</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>486</v>
+        <v>501</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7792,13 +7819,13 @@
         <v>3251</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>487</v>
+        <v>502</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>488</v>
+        <v>503</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>489</v>
+        <v>504</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -7807,13 +7834,13 @@
         <v>2453</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>490</v>
+        <v>505</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>491</v>
+        <v>506</v>
       </c>
       <c r="M25" s="7">
         <v>6</v>
@@ -7822,13 +7849,13 @@
         <v>5704</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>492</v>
+        <v>507</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>129</v>
+        <v>508</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>493</v>
+        <v>509</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7843,13 +7870,13 @@
         <v>42626</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>494</v>
+        <v>510</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>495</v>
+        <v>511</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>496</v>
+        <v>512</v>
       </c>
       <c r="H26" s="7">
         <v>54</v>
@@ -7858,13 +7885,13 @@
         <v>60388</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>497</v>
+        <v>513</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>498</v>
+        <v>514</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>499</v>
+        <v>515</v>
       </c>
       <c r="M26" s="7">
         <v>102</v>
@@ -7873,13 +7900,13 @@
         <v>103014</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>500</v>
+        <v>516</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>501</v>
+        <v>517</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>502</v>
+        <v>518</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7953,7 +7980,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>158</v>
+        <v>519</v>
       </c>
       <c r="H28" s="7">
         <v>2</v>
@@ -7962,13 +7989,13 @@
         <v>2476</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>503</v>
+        <v>372</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>504</v>
+        <v>520</v>
       </c>
       <c r="M28" s="7">
         <v>2</v>
@@ -7977,13 +8004,13 @@
         <v>2476</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>356</v>
+        <v>521</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>505</v>
+        <v>274</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7998,13 +8025,13 @@
         <v>4743</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>506</v>
+        <v>522</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>508</v>
+        <v>523</v>
       </c>
       <c r="H29" s="7">
         <v>7</v>
@@ -8013,13 +8040,13 @@
         <v>8645</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>509</v>
+        <v>524</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>510</v>
+        <v>525</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>511</v>
+        <v>526</v>
       </c>
       <c r="M29" s="7">
         <v>12</v>
@@ -8028,13 +8055,13 @@
         <v>13389</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>512</v>
+        <v>527</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>513</v>
+        <v>528</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>514</v>
+        <v>529</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8049,13 +8076,13 @@
         <v>107442</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>515</v>
+        <v>530</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>516</v>
+        <v>531</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>517</v>
+        <v>532</v>
       </c>
       <c r="H30" s="7">
         <v>116</v>
@@ -8064,13 +8091,13 @@
         <v>136504</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>518</v>
+        <v>533</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>519</v>
+        <v>534</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>520</v>
+        <v>535</v>
       </c>
       <c r="M30" s="7">
         <v>220</v>
@@ -8079,13 +8106,13 @@
         <v>243945</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>521</v>
+        <v>536</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>522</v>
+        <v>537</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>523</v>
+        <v>538</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8159,7 +8186,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -8174,7 +8201,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>424</v>
+        <v>539</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -8189,7 +8216,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>524</v>
+        <v>540</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8204,13 +8231,13 @@
         <v>1377</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>525</v>
+        <v>201</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>352</v>
+        <v>67</v>
       </c>
       <c r="H33" s="7">
         <v>2</v>
@@ -8219,13 +8246,13 @@
         <v>2590</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>526</v>
+        <v>541</v>
       </c>
       <c r="K33" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>527</v>
+        <v>542</v>
       </c>
       <c r="M33" s="7">
         <v>3</v>
@@ -8237,10 +8264,10 @@
         <v>150</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>528</v>
+        <v>543</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>529</v>
+        <v>295</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -8255,10 +8282,10 @@
         <v>132791</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>530</v>
+        <v>544</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>531</v>
+        <v>545</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>26</v>
@@ -8270,10 +8297,10 @@
         <v>173707</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>532</v>
+        <v>546</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>533</v>
+        <v>547</v>
       </c>
       <c r="L34" s="7" t="s">
         <v>26</v>
@@ -8285,13 +8312,13 @@
         <v>306498</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>534</v>
+        <v>548</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>535</v>
+        <v>549</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>536</v>
+        <v>550</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8359,13 +8386,13 @@
         <v>6613</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>537</v>
+        <v>551</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>538</v>
+        <v>552</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>539</v>
+        <v>553</v>
       </c>
       <c r="H36" s="7">
         <v>10</v>
@@ -8374,13 +8401,13 @@
         <v>13884</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>540</v>
+        <v>387</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>541</v>
+        <v>276</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>505</v>
+        <v>554</v>
       </c>
       <c r="M36" s="7">
         <v>18</v>
@@ -8389,13 +8416,13 @@
         <v>20498</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>542</v>
+        <v>86</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>543</v>
+        <v>555</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>38</v>
+        <v>556</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8410,13 +8437,13 @@
         <v>18201</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>355</v>
+        <v>557</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>288</v>
+        <v>558</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>544</v>
+        <v>559</v>
       </c>
       <c r="H37" s="7">
         <v>31</v>
@@ -8425,13 +8452,13 @@
         <v>40547</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>545</v>
+        <v>560</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>546</v>
+        <v>561</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>547</v>
+        <v>562</v>
       </c>
       <c r="M37" s="7">
         <v>51</v>
@@ -8440,13 +8467,13 @@
         <v>58748</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>548</v>
+        <v>563</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>549</v>
+        <v>173</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>550</v>
+        <v>156</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8461,13 +8488,13 @@
         <v>566514</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>551</v>
+        <v>564</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>552</v>
+        <v>565</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>553</v>
+        <v>566</v>
       </c>
       <c r="H38" s="7">
         <v>614</v>
@@ -8476,13 +8503,13 @@
         <v>723500</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>554</v>
+        <v>567</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>555</v>
+        <v>568</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>556</v>
+        <v>569</v>
       </c>
       <c r="M38" s="7">
         <v>1213</v>
@@ -8491,13 +8518,13 @@
         <v>1290014</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>557</v>
+        <v>570</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>558</v>
+        <v>571</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>559</v>
+        <v>572</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8553,7 +8580,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -8577,7 +8604,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D8D2227-07B2-4BD8-842E-D3B41594B7B4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2B03718-12DA-4723-AA37-975A0C782A10}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8594,7 +8621,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>560</v>
+        <v>573</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -8701,13 +8728,13 @@
         <v>815</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>561</v>
+        <v>574</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
       <c r="H4" s="7">
         <v>5</v>
@@ -8716,13 +8743,13 @@
         <v>2742</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>563</v>
+        <v>348</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>86</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="M4" s="7">
         <v>6</v>
@@ -8731,13 +8758,13 @@
         <v>3557</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>435</v>
+        <v>376</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>565</v>
+        <v>577</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>340</v>
+        <v>578</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -8752,13 +8779,13 @@
         <v>1442</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>566</v>
+        <v>579</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>567</v>
+        <v>580</v>
       </c>
       <c r="H5" s="7">
         <v>8</v>
@@ -8767,13 +8794,13 @@
         <v>4608</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>568</v>
+        <v>581</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>569</v>
+        <v>582</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>570</v>
+        <v>583</v>
       </c>
       <c r="M5" s="7">
         <v>10</v>
@@ -8782,13 +8809,13 @@
         <v>6050</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>200</v>
+        <v>584</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>571</v>
+        <v>585</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8803,13 +8830,13 @@
         <v>49663</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>207</v>
+        <v>586</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>572</v>
+        <v>587</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>573</v>
+        <v>588</v>
       </c>
       <c r="H6" s="7">
         <v>119</v>
@@ -8818,13 +8845,13 @@
         <v>54869</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>574</v>
+        <v>589</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>575</v>
+        <v>590</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>211</v>
+        <v>591</v>
       </c>
       <c r="M6" s="7">
         <v>199</v>
@@ -8833,13 +8860,13 @@
         <v>104532</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>576</v>
+        <v>592</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>577</v>
+        <v>593</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>578</v>
+        <v>316</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -8907,13 +8934,13 @@
         <v>882</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>579</v>
+        <v>594</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>580</v>
+        <v>44</v>
       </c>
       <c r="H8" s="7">
         <v>9</v>
@@ -8922,13 +8949,13 @@
         <v>7487</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>581</v>
+        <v>595</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>582</v>
+        <v>596</v>
       </c>
       <c r="M8" s="7">
         <v>10</v>
@@ -8937,13 +8964,13 @@
         <v>8369</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>583</v>
+        <v>597</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>584</v>
+        <v>129</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>585</v>
+        <v>598</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -8958,13 +8985,13 @@
         <v>5794</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>487</v>
+        <v>502</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>195</v>
+        <v>261</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>586</v>
+        <v>599</v>
       </c>
       <c r="H9" s="7">
         <v>28</v>
@@ -8973,13 +9000,13 @@
         <v>17906</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>587</v>
+        <v>600</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>384</v>
+        <v>601</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>588</v>
+        <v>602</v>
       </c>
       <c r="M9" s="7">
         <v>34</v>
@@ -8988,13 +9015,13 @@
         <v>23700</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>547</v>
+        <v>604</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>590</v>
+        <v>605</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -9009,13 +9036,13 @@
         <v>79638</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>591</v>
+        <v>606</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>592</v>
+        <v>607</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>593</v>
+        <v>608</v>
       </c>
       <c r="H10" s="7">
         <v>186</v>
@@ -9024,13 +9051,13 @@
         <v>115964</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>594</v>
+        <v>609</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>595</v>
+        <v>610</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>596</v>
+        <v>611</v>
       </c>
       <c r="M10" s="7">
         <v>274</v>
@@ -9039,13 +9066,13 @@
         <v>195602</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>597</v>
+        <v>612</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>598</v>
+        <v>613</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>599</v>
+        <v>614</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -9101,7 +9128,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -9113,13 +9140,13 @@
         <v>3211</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>600</v>
+        <v>615</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>378</v>
+        <v>616</v>
       </c>
       <c r="H12" s="7">
         <v>4</v>
@@ -9128,13 +9155,13 @@
         <v>2039</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>601</v>
+        <v>617</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>602</v>
+        <v>464</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>131</v>
+        <v>618</v>
       </c>
       <c r="M12" s="7">
         <v>9</v>
@@ -9143,13 +9170,13 @@
         <v>5250</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>603</v>
+        <v>619</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>604</v>
+        <v>620</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>605</v>
+        <v>621</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -9164,13 +9191,13 @@
         <v>3815</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>492</v>
+        <v>507</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>606</v>
+        <v>622</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>607</v>
+        <v>66</v>
       </c>
       <c r="H13" s="7">
         <v>11</v>
@@ -9179,13 +9206,13 @@
         <v>6595</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>608</v>
+        <v>623</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>609</v>
+        <v>582</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>610</v>
+        <v>624</v>
       </c>
       <c r="M13" s="7">
         <v>18</v>
@@ -9194,13 +9221,13 @@
         <v>10411</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>611</v>
+        <v>625</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>612</v>
+        <v>90</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>437</v>
+        <v>626</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -9215,13 +9242,13 @@
         <v>70574</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>429</v>
+        <v>627</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>613</v>
+        <v>628</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>578</v>
+        <v>629</v>
       </c>
       <c r="H14" s="7">
         <v>154</v>
@@ -9230,13 +9257,13 @@
         <v>86317</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>614</v>
+        <v>143</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>284</v>
+        <v>630</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>615</v>
+        <v>545</v>
       </c>
       <c r="M14" s="7">
         <v>264</v>
@@ -9245,13 +9272,13 @@
         <v>156891</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>616</v>
+        <v>631</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>94</v>
+        <v>632</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>617</v>
+        <v>633</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -9319,13 +9346,13 @@
         <v>581</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>618</v>
+        <v>634</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>609</v>
+        <v>557</v>
       </c>
       <c r="H16" s="7">
         <v>8</v>
@@ -9334,13 +9361,13 @@
         <v>3460</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>619</v>
+        <v>635</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>42</v>
+        <v>636</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>620</v>
+        <v>207</v>
       </c>
       <c r="M16" s="7">
         <v>9</v>
@@ -9349,13 +9376,13 @@
         <v>4041</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>621</v>
+        <v>637</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>622</v>
+        <v>638</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>423</v>
+        <v>356</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -9370,13 +9397,13 @@
         <v>5237</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>623</v>
+        <v>639</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>513</v>
+        <v>640</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>624</v>
+        <v>641</v>
       </c>
       <c r="H17" s="7">
         <v>20</v>
@@ -9385,13 +9412,13 @@
         <v>8577</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>625</v>
+        <v>642</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>626</v>
+        <v>147</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>627</v>
+        <v>643</v>
       </c>
       <c r="M17" s="7">
         <v>27</v>
@@ -9400,13 +9427,13 @@
         <v>13815</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>628</v>
+        <v>644</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>113</v>
+        <v>645</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -9421,13 +9448,13 @@
         <v>72986</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>629</v>
+        <v>646</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>630</v>
+        <v>54</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>631</v>
+        <v>647</v>
       </c>
       <c r="H18" s="7">
         <v>228</v>
@@ -9436,13 +9463,13 @@
         <v>98418</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>632</v>
+        <v>648</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>633</v>
+        <v>649</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>634</v>
+        <v>650</v>
       </c>
       <c r="M18" s="7">
         <v>338</v>
@@ -9451,13 +9478,13 @@
         <v>171404</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>635</v>
+        <v>651</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>94</v>
+        <v>652</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>636</v>
+        <v>653</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -9531,7 +9558,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>637</v>
+        <v>48</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
@@ -9540,13 +9567,13 @@
         <v>1370</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>416</v>
+        <v>435</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>638</v>
+        <v>654</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>204</v>
+        <v>255</v>
       </c>
       <c r="M20" s="7">
         <v>3</v>
@@ -9555,13 +9582,13 @@
         <v>1370</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>91</v>
+        <v>198</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>639</v>
+        <v>655</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>640</v>
+        <v>356</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9576,13 +9603,13 @@
         <v>2874</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>641</v>
+        <v>656</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>358</v>
+        <v>471</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>642</v>
+        <v>657</v>
       </c>
       <c r="H21" s="7">
         <v>15</v>
@@ -9591,13 +9618,13 @@
         <v>6698</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>643</v>
+        <v>658</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>509</v>
+        <v>659</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>644</v>
+        <v>660</v>
       </c>
       <c r="M21" s="7">
         <v>20</v>
@@ -9606,13 +9633,13 @@
         <v>9572</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>645</v>
+        <v>661</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>646</v>
+        <v>41</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>647</v>
+        <v>662</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -9627,13 +9654,13 @@
         <v>35457</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>648</v>
+        <v>663</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>649</v>
+        <v>664</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>650</v>
+        <v>665</v>
       </c>
       <c r="H22" s="7">
         <v>146</v>
@@ -9642,13 +9669,13 @@
         <v>57026</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>651</v>
+        <v>666</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>652</v>
+        <v>667</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>653</v>
+        <v>668</v>
       </c>
       <c r="M22" s="7">
         <v>212</v>
@@ -9657,13 +9684,13 @@
         <v>92483</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>654</v>
+        <v>669</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>655</v>
+        <v>670</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>656</v>
+        <v>124</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9731,13 +9758,13 @@
         <v>1217</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>657</v>
+        <v>671</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>658</v>
+        <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>509</v>
+        <v>560</v>
       </c>
       <c r="H24" s="7">
         <v>13</v>
@@ -9746,13 +9773,13 @@
         <v>5059</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>659</v>
+        <v>672</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>660</v>
+        <v>673</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>661</v>
+        <v>674</v>
       </c>
       <c r="M24" s="7">
         <v>16</v>
@@ -9761,13 +9788,13 @@
         <v>6276</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>662</v>
+        <v>675</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>438</v>
+        <v>676</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>663</v>
+        <v>677</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -9782,13 +9809,13 @@
         <v>3495</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>550</v>
+        <v>678</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>664</v>
+        <v>525</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>342</v>
+        <v>645</v>
       </c>
       <c r="H25" s="7">
         <v>16</v>
@@ -9797,13 +9824,13 @@
         <v>5428</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>665</v>
+        <v>679</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>666</v>
+        <v>182</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>667</v>
+        <v>680</v>
       </c>
       <c r="M25" s="7">
         <v>24</v>
@@ -9812,13 +9839,13 @@
         <v>8923</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>668</v>
+        <v>681</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>669</v>
+        <v>682</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9833,13 +9860,13 @@
         <v>58470</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>670</v>
+        <v>683</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>671</v>
+        <v>684</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>672</v>
+        <v>685</v>
       </c>
       <c r="H26" s="7">
         <v>147</v>
@@ -9848,13 +9875,13 @@
         <v>58868</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>673</v>
+        <v>686</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>674</v>
+        <v>687</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>368</v>
+        <v>688</v>
       </c>
       <c r="M26" s="7">
         <v>271</v>
@@ -9863,13 +9890,13 @@
         <v>117339</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>675</v>
+        <v>689</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>676</v>
+        <v>690</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>677</v>
+        <v>691</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9943,7 +9970,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>678</v>
+        <v>416</v>
       </c>
       <c r="H28" s="7">
         <v>7</v>
@@ -9952,13 +9979,13 @@
         <v>5164</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>351</v>
+        <v>366</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>528</v>
+        <v>370</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>679</v>
+        <v>16</v>
       </c>
       <c r="M28" s="7">
         <v>7</v>
@@ -9967,13 +9994,13 @@
         <v>5164</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>197</v>
+        <v>692</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>354</v>
+        <v>151</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>680</v>
+        <v>693</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -9988,13 +10015,13 @@
         <v>881</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>329</v>
+        <v>344</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>681</v>
+        <v>694</v>
       </c>
       <c r="H29" s="7">
         <v>8</v>
@@ -10003,13 +10030,13 @@
         <v>5660</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>682</v>
+        <v>695</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>683</v>
+        <v>696</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>684</v>
+        <v>16</v>
       </c>
       <c r="M29" s="7">
         <v>9</v>
@@ -10018,13 +10045,13 @@
         <v>6541</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>503</v>
+        <v>372</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>685</v>
+        <v>697</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>266</v>
+        <v>561</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -10039,10 +10066,10 @@
         <v>129959</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>686</v>
+        <v>698</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>687</v>
+        <v>699</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>26</v>
@@ -10054,13 +10081,13 @@
         <v>247364</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>688</v>
+        <v>52</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>689</v>
+        <v>700</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>690</v>
+        <v>701</v>
       </c>
       <c r="M30" s="7">
         <v>393</v>
@@ -10069,13 +10096,13 @@
         <v>377323</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>691</v>
+        <v>702</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>213</v>
+        <v>495</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>692</v>
+        <v>144</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -10164,7 +10191,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -10179,7 +10206,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>694</v>
+        <v>704</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -10194,13 +10221,13 @@
         <v>159</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>695</v>
+        <v>705</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>696</v>
+        <v>706</v>
       </c>
       <c r="H33" s="7">
         <v>3</v>
@@ -10212,10 +10239,10 @@
         <v>83</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>697</v>
+        <v>707</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>195</v>
+        <v>695</v>
       </c>
       <c r="M33" s="7">
         <v>4</v>
@@ -10224,13 +10251,13 @@
         <v>1997</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>696</v>
+        <v>708</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>698</v>
+        <v>709</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>424</v>
+        <v>710</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -10245,10 +10272,10 @@
         <v>169063</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>699</v>
+        <v>711</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>700</v>
+        <v>712</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>26</v>
@@ -10260,13 +10287,13 @@
         <v>221206</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>701</v>
+        <v>713</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>702</v>
+        <v>714</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>703</v>
+        <v>715</v>
       </c>
       <c r="M34" s="7">
         <v>573</v>
@@ -10275,13 +10302,13 @@
         <v>390268</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>700</v>
+        <v>716</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>704</v>
+        <v>717</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>705</v>
+        <v>718</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -10349,13 +10376,13 @@
         <v>6707</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>706</v>
+        <v>719</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>707</v>
+        <v>720</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>242</v>
+        <v>129</v>
       </c>
       <c r="H36" s="7">
         <v>49</v>
@@ -10364,13 +10391,13 @@
         <v>27321</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>708</v>
+        <v>471</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>709</v>
+        <v>248</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>710</v>
+        <v>721</v>
       </c>
       <c r="M36" s="7">
         <v>60</v>
@@ -10379,13 +10406,13 @@
         <v>34028</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>711</v>
+        <v>722</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>712</v>
+        <v>81</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>713</v>
+        <v>723</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10400,13 +10427,13 @@
         <v>23698</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>714</v>
+        <v>724</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>715</v>
+        <v>171</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>84</v>
+        <v>371</v>
       </c>
       <c r="H37" s="7">
         <v>109</v>
@@ -10415,13 +10442,13 @@
         <v>57310</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>716</v>
+        <v>156</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>583</v>
+        <v>725</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>717</v>
+        <v>726</v>
       </c>
       <c r="M37" s="7">
         <v>146</v>
@@ -10430,13 +10457,13 @@
         <v>81008</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>718</v>
+        <v>727</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>612</v>
+        <v>157</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>201</v>
+        <v>255</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10451,13 +10478,13 @@
         <v>665811</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>719</v>
+        <v>728</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>720</v>
+        <v>729</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>721</v>
+        <v>730</v>
       </c>
       <c r="H38" s="7">
         <v>1546</v>
@@ -10466,13 +10493,13 @@
         <v>940032</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>677</v>
+        <v>731</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>722</v>
+        <v>537</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>723</v>
+        <v>732</v>
       </c>
       <c r="M38" s="7">
         <v>2524</v>
@@ -10481,13 +10508,13 @@
         <v>1605843</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>724</v>
+        <v>733</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>725</v>
+        <v>734</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>726</v>
+        <v>735</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -10543,7 +10570,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q5406-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q5406-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{66D5A4CF-CBED-44EB-94D7-B268B737B320}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F15629A-9098-4D84-9791-DDAC540C387A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F424A97D-7A5D-4D26-8690-451C2D189E56}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{0A4E5766-D6E5-4423-94E6-8FDDE9717869}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="736">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="769">
   <si>
     <t>Población según si es capaz de tomar medicación en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -701,7 +701,76 @@
     <t>Población según si es capaz de tomar medicación en 2012 (Tasa respuesta: 18,41%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>79,99%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>82,41%</t>
+  </si>
+  <si>
+    <t>69,15%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>77,36%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
   </si>
   <si>
     <t>6,79%</t>
@@ -857,1396 +926,1426 @@
     <t>89,69%</t>
   </si>
   <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>84,71%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>86,83%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>74,18%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>89,8%</t>
+  </si>
+  <si>
+    <t>78,07%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>89,72%</t>
+  </si>
+  <si>
+    <t>80,8%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>85,55%</t>
+  </si>
+  <si>
+    <t>73,01%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>81,58%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>82,36%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>85,08%</t>
+  </si>
+  <si>
+    <t>87,42%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>87,87%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>86,68%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>89,49%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>87,09%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>88,77%</t>
+  </si>
+  <si>
+    <t>86,2%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
+  </si>
+  <si>
+    <t>89,45%</t>
+  </si>
+  <si>
+    <t>87,8%</t>
+  </si>
+  <si>
+    <t>91,21%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de tomar medicación en 2016 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>81,06%</t>
+  </si>
+  <si>
+    <t>69,19%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
+  </si>
+  <si>
+    <t>81,86%</t>
+  </si>
+  <si>
+    <t>65,04%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>81,51%</t>
+  </si>
+  <si>
+    <t>70,96%</t>
+  </si>
+  <si>
+    <t>88,81%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>84,11%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
     <t>1,97%</t>
   </si>
   <si>
-    <t>6,99%</t>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>85,01%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>87,38%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>83,07%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>86,19%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>81,38%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>87,99%</t>
+  </si>
+  <si>
+    <t>77,73%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>89,61%</t>
+  </si>
+  <si>
+    <t>77,32%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
+  </si>
+  <si>
+    <t>81,35%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
   </si>
   <si>
     <t>3,17%</t>
   </si>
   <si>
-    <t>2,64%</t>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>90,72%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>86,26%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>90,02%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
   </si>
   <si>
     <t>0,94%</t>
   </si>
   <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de tomar medicación en 2023 (Tasa respuesta: 31,22%)</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
+  </si>
+  <si>
+    <t>81,46%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>86,97%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>84,81%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>82,54%</t>
+  </si>
+  <si>
+    <t>77,01%</t>
+  </si>
+  <si>
+    <t>87,08%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>82,18%</t>
+  </si>
+  <si>
+    <t>89,85%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>86,01%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>91,06%</t>
+  </si>
+  <si>
+    <t>87,05%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>89,16%</t>
+  </si>
+  <si>
+    <t>85,17%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>90,65%</t>
+  </si>
+  <si>
+    <t>87,43%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>84,06%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>87,91%</t>
+  </si>
+  <si>
+    <t>81,93%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
     <t>5,54%</t>
   </si>
   <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>88,68%</t>
-  </si>
-  <si>
-    <t>82,14%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>89,84%</t>
-  </si>
-  <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>74,18%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
-  </si>
-  <si>
-    <t>78,07%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>89,72%</t>
-  </si>
-  <si>
-    <t>80,8%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>85,55%</t>
-  </si>
-  <si>
-    <t>73,01%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>81,58%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>82,36%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>86,8%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>85,08%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>87,42%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>87,87%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>86,68%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>89,49%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
-  </si>
-  <si>
-    <t>87,09%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>88,77%</t>
-  </si>
-  <si>
-    <t>86,2%</t>
-  </si>
-  <si>
-    <t>91,04%</t>
-  </si>
-  <si>
-    <t>89,45%</t>
-  </si>
-  <si>
-    <t>87,8%</t>
-  </si>
-  <si>
-    <t>91,21%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de tomar medicación en 2016 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>81,06%</t>
-  </si>
-  <si>
-    <t>69,19%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
-  </si>
-  <si>
-    <t>81,86%</t>
-  </si>
-  <si>
-    <t>65,04%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>81,51%</t>
-  </si>
-  <si>
-    <t>70,96%</t>
-  </si>
-  <si>
-    <t>88,81%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>84,11%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>85,01%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>87,38%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>83,07%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>86,19%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
-  </si>
-  <si>
-    <t>91,72%</t>
-  </si>
-  <si>
-    <t>81,38%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>77,73%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>89,61%</t>
-  </si>
-  <si>
-    <t>77,32%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>88,93%</t>
-  </si>
-  <si>
-    <t>81,35%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>90,72%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>86,26%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>90,02%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de tomar medicación en 2023 (Tasa respuesta: 31,22%)</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>89,09%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>88,19%</t>
-  </si>
-  <si>
-    <t>81,24%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>86,87%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>87,54%</t>
+  </si>
+  <si>
+    <t>84,91%</t>
+  </si>
+  <si>
+    <t>79,11%</t>
+  </si>
+  <si>
+    <t>88,59%</t>
   </si>
   <si>
     <t>84,7%</t>
   </si>
   <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>82,04%</t>
-  </si>
-  <si>
-    <t>76,23%</t>
-  </si>
-  <si>
-    <t>86,77%</t>
-  </si>
-  <si>
-    <t>85,91%</t>
-  </si>
-  <si>
-    <t>81,71%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>84,9%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>85,73%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>86,81%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
+    <t>91,61%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
   </si>
   <si>
     <t>2,88%</t>
   </si>
   <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>89,1%</t>
-  </si>
-  <si>
-    <t>85,06%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>87,22%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>83,97%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>87,6%</t>
-  </si>
-  <si>
-    <t>81,46%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>89,42%</t>
-  </si>
-  <si>
-    <t>84,43%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>99,89%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
   </si>
   <si>
     <t>92,54%</t>
   </si>
   <si>
-    <t>87,55%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>84,88%</t>
-  </si>
-  <si>
-    <t>79,01%</t>
-  </si>
-  <si>
-    <t>89,85%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>91,2%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
+    <t>90,17%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
   </si>
 </sst>
 </file>
@@ -2658,7 +2757,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F691F456-EEB7-4E9F-AB53-B3D14CBCB623}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{025BE131-848B-4D28-9099-7E6E86FDADB3}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -4648,7 +4747,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{858663FD-B918-47B3-8792-B4581EACA242}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0979C9EC-C47C-4D77-AAFB-883010E924EE}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4768,41 +4867,47 @@
       <c r="C4" s="7">
         <v>0</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>220</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>220</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>220</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="I4" s="7">
+        <v>3225</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="N4" s="7">
+        <v>3225</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4811,43 +4916,49 @@
         <v>15</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="D5" s="7">
+        <v>3996</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="I5" s="7">
+        <v>5376</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>220</v>
+        <v>172</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>9</v>
+      </c>
+      <c r="N5" s="7">
+        <v>9372</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4856,43 +4967,49 @@
         <v>23</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>36</v>
+      </c>
+      <c r="D6" s="7">
+        <v>40285</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>39</v>
+      </c>
+      <c r="I6" s="7">
+        <v>40292</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>220</v>
+        <v>238</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>220</v>
+        <v>239</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>75</v>
+      </c>
+      <c r="N6" s="7">
+        <v>80578</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>220</v>
+        <v>242</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>220</v>
+        <v>243</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4901,43 +5018,49 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7"/>
+        <v>40</v>
+      </c>
+      <c r="D7" s="7">
+        <v>44281</v>
+      </c>
       <c r="E7" s="7" t="s">
-        <v>220</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>220</v>
+        <v>32</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>220</v>
+        <v>32</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7"/>
+        <v>47</v>
+      </c>
+      <c r="I7" s="7">
+        <v>48894</v>
+      </c>
       <c r="J7" s="7" t="s">
-        <v>220</v>
+        <v>32</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>220</v>
+        <v>32</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>220</v>
+        <v>32</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7"/>
+        <v>87</v>
+      </c>
+      <c r="N7" s="7">
+        <v>93175</v>
+      </c>
       <c r="O7" s="7" t="s">
-        <v>220</v>
+        <v>32</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>220</v>
+        <v>32</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>220</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4954,13 +5077,13 @@
         <v>5380</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>221</v>
+        <v>244</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>222</v>
+        <v>245</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>223</v>
+        <v>246</v>
       </c>
       <c r="H8" s="7">
         <v>6</v>
@@ -4969,13 +5092,13 @@
         <v>7848</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>224</v>
+        <v>247</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>225</v>
+        <v>248</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>226</v>
+        <v>249</v>
       </c>
       <c r="M8" s="7">
         <v>10</v>
@@ -4984,13 +5107,13 @@
         <v>13228</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>227</v>
+        <v>250</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>228</v>
+        <v>251</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5005,13 +5128,13 @@
         <v>7613</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>106</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>231</v>
+        <v>254</v>
       </c>
       <c r="H9" s="7">
         <v>7</v>
@@ -5020,13 +5143,13 @@
         <v>7799</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>233</v>
+        <v>256</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="M9" s="7">
         <v>12</v>
@@ -5035,13 +5158,13 @@
         <v>15412</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>235</v>
+        <v>258</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>237</v>
+        <v>260</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5056,13 +5179,13 @@
         <v>66210</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>238</v>
+        <v>261</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>239</v>
+        <v>262</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>240</v>
+        <v>263</v>
       </c>
       <c r="H10" s="7">
         <v>80</v>
@@ -5071,13 +5194,13 @@
         <v>86446</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>241</v>
+        <v>264</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>242</v>
+        <v>265</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>243</v>
+        <v>266</v>
       </c>
       <c r="M10" s="7">
         <v>140</v>
@@ -5086,13 +5209,13 @@
         <v>152656</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>244</v>
+        <v>267</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>245</v>
+        <v>268</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>246</v>
+        <v>269</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5160,13 +5283,13 @@
         <v>4036</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>247</v>
+        <v>270</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>248</v>
+        <v>271</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>249</v>
+        <v>272</v>
       </c>
       <c r="H12" s="7">
         <v>7</v>
@@ -5175,13 +5298,13 @@
         <v>7624</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>250</v>
+        <v>273</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>204</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>251</v>
+        <v>274</v>
       </c>
       <c r="M12" s="7">
         <v>11</v>
@@ -5190,13 +5313,13 @@
         <v>11660</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>253</v>
+        <v>276</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>254</v>
+        <v>277</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5211,13 +5334,13 @@
         <v>3134</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>255</v>
+        <v>278</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>256</v>
+        <v>279</v>
       </c>
       <c r="H13" s="7">
         <v>6</v>
@@ -5226,13 +5349,13 @@
         <v>6390</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>257</v>
+        <v>280</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>258</v>
+        <v>281</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>259</v>
+        <v>282</v>
       </c>
       <c r="M13" s="7">
         <v>8</v>
@@ -5241,13 +5364,13 @@
         <v>9524</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>260</v>
+        <v>283</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>261</v>
+        <v>284</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>262</v>
+        <v>285</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5262,13 +5385,13 @@
         <v>48572</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>263</v>
+        <v>286</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>264</v>
+        <v>287</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>265</v>
+        <v>288</v>
       </c>
       <c r="H14" s="7">
         <v>62</v>
@@ -5277,13 +5400,13 @@
         <v>65954</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>266</v>
+        <v>289</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>267</v>
+        <v>290</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>268</v>
+        <v>291</v>
       </c>
       <c r="M14" s="7">
         <v>109</v>
@@ -5292,13 +5415,13 @@
         <v>114527</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>269</v>
+        <v>292</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>270</v>
+        <v>293</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>271</v>
+        <v>294</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5366,43 +5489,43 @@
         <v>2133</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>272</v>
+        <v>179</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>273</v>
+        <v>295</v>
       </c>
       <c r="H16" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I16" s="7">
-        <v>4265</v>
+        <v>1039</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>274</v>
+        <v>296</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>205</v>
+        <v>297</v>
       </c>
       <c r="M16" s="7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N16" s="7">
-        <v>6398</v>
+        <v>3172</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>275</v>
+        <v>298</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>276</v>
+        <v>299</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>277</v>
+        <v>300</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5411,49 +5534,49 @@
         <v>15</v>
       </c>
       <c r="C17" s="7">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D17" s="7">
-        <v>7310</v>
+        <v>3315</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>278</v>
+        <v>301</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>279</v>
+        <v>302</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>280</v>
+        <v>303</v>
       </c>
       <c r="H17" s="7">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I17" s="7">
-        <v>10964</v>
+        <v>5587</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>281</v>
+        <v>304</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>204</v>
+        <v>305</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>282</v>
+        <v>306</v>
       </c>
       <c r="M17" s="7">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="N17" s="7">
-        <v>18274</v>
+        <v>8902</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>283</v>
+        <v>307</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>284</v>
+        <v>308</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>285</v>
+        <v>309</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5462,49 +5585,49 @@
         <v>23</v>
       </c>
       <c r="C18" s="7">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="D18" s="7">
-        <v>98865</v>
+        <v>58580</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>286</v>
+        <v>310</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>287</v>
+        <v>311</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>288</v>
+        <v>312</v>
       </c>
       <c r="H18" s="7">
-        <v>115</v>
+        <v>76</v>
       </c>
       <c r="I18" s="7">
-        <v>119240</v>
+        <v>78947</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>289</v>
+        <v>313</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>290</v>
+        <v>314</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>291</v>
+        <v>315</v>
       </c>
       <c r="M18" s="7">
-        <v>204</v>
+        <v>129</v>
       </c>
       <c r="N18" s="7">
-        <v>218105</v>
+        <v>137528</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>292</v>
+        <v>316</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>293</v>
+        <v>317</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>294</v>
+        <v>318</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5513,10 +5636,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="D19" s="7">
-        <v>108308</v>
+        <v>64028</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>32</v>
@@ -5528,10 +5651,10 @@
         <v>32</v>
       </c>
       <c r="H19" s="7">
-        <v>129</v>
+        <v>82</v>
       </c>
       <c r="I19" s="7">
-        <v>134468</v>
+        <v>85574</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>32</v>
@@ -5543,10 +5666,10 @@
         <v>32</v>
       </c>
       <c r="M19" s="7">
-        <v>227</v>
+        <v>140</v>
       </c>
       <c r="N19" s="7">
-        <v>242777</v>
+        <v>149602</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>32</v>
@@ -5572,13 +5695,13 @@
         <v>1157</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>295</v>
+        <v>319</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>296</v>
+        <v>320</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
@@ -5590,10 +5713,10 @@
         <v>176</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>297</v>
+        <v>321</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>298</v>
+        <v>322</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
@@ -5602,13 +5725,13 @@
         <v>4136</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>299</v>
+        <v>323</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>300</v>
+        <v>324</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>301</v>
+        <v>325</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5623,13 +5746,13 @@
         <v>2135</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>278</v>
+        <v>326</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>302</v>
+        <v>327</v>
       </c>
       <c r="H21" s="7">
         <v>2</v>
@@ -5638,13 +5761,13 @@
         <v>2104</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>303</v>
+        <v>328</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>304</v>
+        <v>329</v>
       </c>
       <c r="M21" s="7">
         <v>4</v>
@@ -5653,13 +5776,13 @@
         <v>4239</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>306</v>
+        <v>331</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>307</v>
+        <v>332</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5674,13 +5797,13 @@
         <v>28320</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>308</v>
+        <v>333</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>310</v>
+        <v>335</v>
       </c>
       <c r="H22" s="7">
         <v>43</v>
@@ -5689,13 +5812,13 @@
         <v>44771</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>311</v>
+        <v>336</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>312</v>
+        <v>337</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>313</v>
+        <v>338</v>
       </c>
       <c r="M22" s="7">
         <v>68</v>
@@ -5704,13 +5827,13 @@
         <v>73092</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>314</v>
+        <v>339</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>315</v>
+        <v>340</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>316</v>
+        <v>341</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5778,13 +5901,13 @@
         <v>2144</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>317</v>
+        <v>342</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>318</v>
+        <v>343</v>
       </c>
       <c r="H24" s="7">
         <v>3</v>
@@ -5793,13 +5916,13 @@
         <v>3243</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>319</v>
+        <v>344</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>86</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>320</v>
+        <v>345</v>
       </c>
       <c r="M24" s="7">
         <v>5</v>
@@ -5808,13 +5931,13 @@
         <v>5387</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>321</v>
+        <v>346</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>322</v>
+        <v>347</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>323</v>
+        <v>348</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5829,13 +5952,13 @@
         <v>5333</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>324</v>
+        <v>349</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>325</v>
+        <v>350</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>326</v>
+        <v>351</v>
       </c>
       <c r="H25" s="7">
         <v>3</v>
@@ -5847,10 +5970,10 @@
         <v>147</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>327</v>
+        <v>352</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>328</v>
+        <v>353</v>
       </c>
       <c r="M25" s="7">
         <v>8</v>
@@ -5859,13 +5982,13 @@
         <v>8619</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>329</v>
+        <v>354</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>330</v>
+        <v>355</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>331</v>
+        <v>356</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5880,13 +6003,13 @@
         <v>44279</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>332</v>
+        <v>357</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>333</v>
+        <v>358</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>334</v>
+        <v>359</v>
       </c>
       <c r="H26" s="7">
         <v>63</v>
@@ -5895,13 +6018,13 @@
         <v>63682</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>335</v>
+        <v>360</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>336</v>
+        <v>361</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>337</v>
+        <v>362</v>
       </c>
       <c r="M26" s="7">
         <v>106</v>
@@ -5910,13 +6033,13 @@
         <v>107962</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>338</v>
+        <v>363</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>339</v>
+        <v>364</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>340</v>
+        <v>365</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5984,13 +6107,13 @@
         <v>1989</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>341</v>
+        <v>366</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>342</v>
+        <v>367</v>
       </c>
       <c r="H28" s="7">
         <v>3</v>
@@ -5999,13 +6122,13 @@
         <v>3123</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>343</v>
+        <v>368</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>344</v>
+        <v>369</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>345</v>
+        <v>370</v>
       </c>
       <c r="M28" s="7">
         <v>5</v>
@@ -6014,13 +6137,13 @@
         <v>5112</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>346</v>
+        <v>371</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>347</v>
+        <v>372</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>348</v>
+        <v>373</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6035,13 +6158,13 @@
         <v>6071</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>349</v>
+        <v>374</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>350</v>
+        <v>375</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>351</v>
+        <v>376</v>
       </c>
       <c r="H29" s="7">
         <v>10</v>
@@ -6050,13 +6173,13 @@
         <v>10451</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>352</v>
+        <v>377</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>353</v>
+        <v>378</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>354</v>
+        <v>379</v>
       </c>
       <c r="M29" s="7">
         <v>16</v>
@@ -6065,13 +6188,13 @@
         <v>16521</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>355</v>
+        <v>380</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>356</v>
+        <v>381</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>357</v>
+        <v>382</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6086,13 +6209,13 @@
         <v>104203</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>358</v>
+        <v>383</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>359</v>
+        <v>384</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>360</v>
+        <v>385</v>
       </c>
       <c r="H30" s="7">
         <v>116</v>
@@ -6101,10 +6224,10 @@
         <v>128388</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>361</v>
+        <v>386</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>362</v>
+        <v>387</v>
       </c>
       <c r="L30" s="7" t="s">
         <v>139</v>
@@ -6116,13 +6239,13 @@
         <v>232592</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>363</v>
+        <v>310</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>364</v>
+        <v>388</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>365</v>
+        <v>389</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6196,7 +6319,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>248</v>
+        <v>271</v>
       </c>
       <c r="H32" s="7">
         <v>3</v>
@@ -6205,13 +6328,13 @@
         <v>3295</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>366</v>
+        <v>390</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>367</v>
+        <v>391</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>368</v>
+        <v>392</v>
       </c>
       <c r="M32" s="7">
         <v>3</v>
@@ -6220,13 +6343,13 @@
         <v>3295</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>369</v>
+        <v>393</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>370</v>
+        <v>394</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>261</v>
+        <v>284</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6241,13 +6364,13 @@
         <v>5563</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>371</v>
+        <v>395</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>372</v>
+        <v>396</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>373</v>
+        <v>397</v>
       </c>
       <c r="H33" s="7">
         <v>9</v>
@@ -6256,13 +6379,13 @@
         <v>10093</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>374</v>
+        <v>398</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>279</v>
+        <v>308</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>375</v>
+        <v>399</v>
       </c>
       <c r="M33" s="7">
         <v>13</v>
@@ -6274,10 +6397,10 @@
         <v>149</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>376</v>
+        <v>400</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>377</v>
+        <v>401</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6292,13 +6415,13 @@
         <v>115189</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>378</v>
+        <v>402</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>379</v>
+        <v>403</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>380</v>
+        <v>404</v>
       </c>
       <c r="H34" s="7">
         <v>139</v>
@@ -6307,13 +6430,13 @@
         <v>151029</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>381</v>
+        <v>405</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>382</v>
+        <v>406</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>383</v>
+        <v>407</v>
       </c>
       <c r="M34" s="7">
         <v>241</v>
@@ -6325,10 +6448,10 @@
         <v>73</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>384</v>
+        <v>408</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>385</v>
+        <v>409</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6396,13 +6519,13 @@
         <v>16839</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>386</v>
+        <v>410</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>387</v>
+        <v>411</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>388</v>
+        <v>412</v>
       </c>
       <c r="H36" s="7">
         <v>29</v>
@@ -6411,13 +6534,13 @@
         <v>32377</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>389</v>
+        <v>413</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>390</v>
+        <v>414</v>
       </c>
       <c r="M36" s="7">
         <v>44</v>
@@ -6426,13 +6549,13 @@
         <v>49216</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>391</v>
+        <v>415</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>392</v>
+        <v>416</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>299</v>
+        <v>323</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6450,10 +6573,10 @@
         <v>37</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>393</v>
+        <v>417</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>394</v>
+        <v>418</v>
       </c>
       <c r="H37" s="7">
         <v>47</v>
@@ -6462,13 +6585,13 @@
         <v>51087</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>395</v>
+        <v>419</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>396</v>
+        <v>420</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>397</v>
+        <v>421</v>
       </c>
       <c r="M37" s="7">
         <v>78</v>
@@ -6477,13 +6600,13 @@
         <v>88246</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>398</v>
+        <v>422</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>349</v>
+        <v>374</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>399</v>
+        <v>423</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6498,13 +6621,13 @@
         <v>505640</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>400</v>
+        <v>424</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>401</v>
+        <v>425</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>402</v>
+        <v>426</v>
       </c>
       <c r="H38" s="7">
         <v>618</v>
@@ -6513,13 +6636,13 @@
         <v>659511</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>403</v>
+        <v>427</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>404</v>
+        <v>428</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>405</v>
+        <v>429</v>
       </c>
       <c r="M38" s="7">
         <v>1076</v>
@@ -6528,13 +6651,13 @@
         <v>1165150</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>406</v>
+        <v>430</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>407</v>
+        <v>431</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>408</v>
+        <v>432</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6614,7 +6737,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98638566-9579-473B-8995-1D523900A9A8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90521FEE-F528-48D1-872F-6A060D935BFC}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6631,7 +6754,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>409</v>
+        <v>433</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6738,13 +6861,13 @@
         <v>2432</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>410</v>
+        <v>434</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>411</v>
+        <v>435</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>412</v>
+        <v>436</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -6753,13 +6876,13 @@
         <v>1038</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>413</v>
+        <v>437</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>414</v>
+        <v>438</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -6768,10 +6891,10 @@
         <v>3469</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>415</v>
+        <v>439</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>416</v>
+        <v>440</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>107</v>
@@ -6789,13 +6912,13 @@
         <v>4937</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>417</v>
+        <v>441</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>418</v>
+        <v>442</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>419</v>
+        <v>443</v>
       </c>
       <c r="H5" s="7">
         <v>6</v>
@@ -6804,13 +6927,13 @@
         <v>7922</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>420</v>
+        <v>444</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>421</v>
+        <v>445</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>422</v>
+        <v>446</v>
       </c>
       <c r="M5" s="7">
         <v>12</v>
@@ -6819,13 +6942,13 @@
         <v>12858</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>423</v>
+        <v>447</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>424</v>
+        <v>448</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>425</v>
+        <v>449</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6840,13 +6963,13 @@
         <v>31528</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>426</v>
+        <v>450</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>427</v>
+        <v>451</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>428</v>
+        <v>452</v>
       </c>
       <c r="H6" s="7">
         <v>36</v>
@@ -6855,13 +6978,13 @@
         <v>40432</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>429</v>
+        <v>453</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>430</v>
+        <v>454</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>431</v>
+        <v>455</v>
       </c>
       <c r="M6" s="7">
         <v>69</v>
@@ -6870,13 +6993,13 @@
         <v>71960</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>432</v>
+        <v>456</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>433</v>
+        <v>457</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>434</v>
+        <v>458</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6950,7 +7073,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>435</v>
+        <v>459</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -6965,7 +7088,7 @@
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>436</v>
+        <v>300</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -6974,7 +7097,7 @@
         <v>1347</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>344</v>
+        <v>369</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>11</v>
@@ -7001,7 +7124,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>435</v>
+        <v>459</v>
       </c>
       <c r="H9" s="7">
         <v>6</v>
@@ -7010,13 +7133,13 @@
         <v>7991</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>437</v>
+        <v>460</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>438</v>
+        <v>461</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>439</v>
+        <v>462</v>
       </c>
       <c r="M9" s="7">
         <v>6</v>
@@ -7025,13 +7148,13 @@
         <v>7991</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>440</v>
+        <v>463</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>441</v>
+        <v>464</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>442</v>
+        <v>465</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7049,7 +7172,7 @@
         <v>26</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>443</v>
+        <v>466</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>32</v>
@@ -7061,13 +7184,13 @@
         <v>105890</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>444</v>
+        <v>467</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>445</v>
+        <v>468</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>446</v>
+        <v>469</v>
       </c>
       <c r="M10" s="7">
         <v>178</v>
@@ -7076,13 +7199,13 @@
         <v>193185</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>378</v>
+        <v>402</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>447</v>
+        <v>470</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>448</v>
+        <v>471</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7156,7 +7279,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>449</v>
+        <v>472</v>
       </c>
       <c r="H12" s="7">
         <v>3</v>
@@ -7165,13 +7288,13 @@
         <v>4477</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>450</v>
+        <v>473</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>327</v>
+        <v>352</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>451</v>
+        <v>474</v>
       </c>
       <c r="M12" s="7">
         <v>3</v>
@@ -7180,13 +7303,13 @@
         <v>4477</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>376</v>
+        <v>400</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>452</v>
+        <v>475</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>453</v>
+        <v>476</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7201,7 +7324,7 @@
         <v>1252</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>272</v>
+        <v>477</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
@@ -7222,7 +7345,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>454</v>
+        <v>478</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -7231,13 +7354,13 @@
         <v>1252</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>455</v>
+        <v>479</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>356</v>
+        <v>381</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7252,10 +7375,10 @@
         <v>62294</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>456</v>
+        <v>480</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>457</v>
+        <v>481</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>26</v>
@@ -7267,10 +7390,10 @@
         <v>75420</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>458</v>
+        <v>482</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>459</v>
+        <v>483</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>101</v>
@@ -7282,13 +7405,13 @@
         <v>137714</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>313</v>
+        <v>338</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>460</v>
+        <v>484</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>461</v>
+        <v>485</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7356,13 +7479,13 @@
         <v>813</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>462</v>
+        <v>486</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>463</v>
+        <v>487</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -7386,13 +7509,13 @@
         <v>813</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>464</v>
+        <v>488</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>275</v>
+        <v>489</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7407,13 +7530,13 @@
         <v>2642</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>465</v>
+        <v>490</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>150</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>466</v>
+        <v>491</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
@@ -7422,13 +7545,13 @@
         <v>6764</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>467</v>
+        <v>492</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>468</v>
+        <v>493</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>469</v>
+        <v>494</v>
       </c>
       <c r="M17" s="7">
         <v>7</v>
@@ -7437,13 +7560,13 @@
         <v>9405</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>470</v>
+        <v>495</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>471</v>
+        <v>496</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>472</v>
+        <v>497</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7458,13 +7581,13 @@
         <v>61257</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>473</v>
+        <v>498</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>474</v>
+        <v>499</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>475</v>
+        <v>500</v>
       </c>
       <c r="H18" s="7">
         <v>72</v>
@@ -7473,13 +7596,13 @@
         <v>84810</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>476</v>
+        <v>501</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>477</v>
+        <v>502</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>478</v>
+        <v>503</v>
       </c>
       <c r="M18" s="7">
         <v>139</v>
@@ -7488,10 +7611,10 @@
         <v>146067</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>479</v>
+        <v>504</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>480</v>
+        <v>505</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>162</v>
@@ -7562,13 +7685,13 @@
         <v>799</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>297</v>
+        <v>321</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>481</v>
+        <v>506</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -7592,13 +7715,13 @@
         <v>799</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>482</v>
+        <v>507</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>483</v>
+        <v>508</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7619,7 +7742,7 @@
         <v>12</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>484</v>
+        <v>509</v>
       </c>
       <c r="H21" s="7">
         <v>4</v>
@@ -7628,13 +7751,13 @@
         <v>4182</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>485</v>
+        <v>510</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>486</v>
+        <v>511</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>487</v>
+        <v>512</v>
       </c>
       <c r="M21" s="7">
         <v>4</v>
@@ -7643,13 +7766,13 @@
         <v>4182</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>488</v>
+        <v>513</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>300</v>
+        <v>324</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>489</v>
+        <v>514</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7664,10 +7787,10 @@
         <v>41281</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>490</v>
+        <v>515</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>491</v>
+        <v>516</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>26</v>
@@ -7679,13 +7802,13 @@
         <v>46350</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>492</v>
+        <v>517</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>493</v>
+        <v>518</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>494</v>
+        <v>519</v>
       </c>
       <c r="M22" s="7">
         <v>88</v>
@@ -7694,10 +7817,10 @@
         <v>87631</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>495</v>
+        <v>520</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>496</v>
+        <v>521</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>71</v>
@@ -7771,10 +7894,10 @@
         <v>67</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>497</v>
+        <v>302</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>498</v>
+        <v>522</v>
       </c>
       <c r="H24" s="7">
         <v>3</v>
@@ -7783,13 +7906,13 @@
         <v>4546</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>278</v>
+        <v>326</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>341</v>
+        <v>366</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>499</v>
+        <v>523</v>
       </c>
       <c r="M24" s="7">
         <v>6</v>
@@ -7798,13 +7921,13 @@
         <v>7116</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>374</v>
+        <v>398</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>500</v>
+        <v>305</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>501</v>
+        <v>524</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7819,13 +7942,13 @@
         <v>3251</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>502</v>
+        <v>525</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>503</v>
+        <v>526</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>504</v>
+        <v>527</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -7834,13 +7957,13 @@
         <v>2453</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>505</v>
+        <v>528</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>506</v>
+        <v>529</v>
       </c>
       <c r="M25" s="7">
         <v>6</v>
@@ -7849,13 +7972,13 @@
         <v>5704</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>507</v>
+        <v>530</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>508</v>
+        <v>531</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>509</v>
+        <v>309</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7870,13 +7993,13 @@
         <v>42626</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>510</v>
+        <v>532</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>511</v>
+        <v>533</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>512</v>
+        <v>534</v>
       </c>
       <c r="H26" s="7">
         <v>54</v>
@@ -7885,13 +8008,13 @@
         <v>60388</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>513</v>
+        <v>535</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>514</v>
+        <v>536</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>515</v>
+        <v>537</v>
       </c>
       <c r="M26" s="7">
         <v>102</v>
@@ -7900,13 +8023,13 @@
         <v>103014</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>516</v>
+        <v>538</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>517</v>
+        <v>539</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>518</v>
+        <v>540</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7980,7 +8103,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>519</v>
+        <v>541</v>
       </c>
       <c r="H28" s="7">
         <v>2</v>
@@ -7989,13 +8112,13 @@
         <v>2476</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>372</v>
+        <v>396</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>520</v>
+        <v>542</v>
       </c>
       <c r="M28" s="7">
         <v>2</v>
@@ -8004,13 +8127,13 @@
         <v>2476</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>521</v>
+        <v>543</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>274</v>
+        <v>544</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8025,13 +8148,13 @@
         <v>4743</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>522</v>
+        <v>545</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>497</v>
+        <v>302</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>523</v>
+        <v>546</v>
       </c>
       <c r="H29" s="7">
         <v>7</v>
@@ -8040,13 +8163,13 @@
         <v>8645</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>524</v>
+        <v>547</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>525</v>
+        <v>548</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>526</v>
+        <v>549</v>
       </c>
       <c r="M29" s="7">
         <v>12</v>
@@ -8055,13 +8178,13 @@
         <v>13389</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>527</v>
+        <v>550</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>528</v>
+        <v>551</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>529</v>
+        <v>552</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8076,13 +8199,13 @@
         <v>107442</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>530</v>
+        <v>553</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>531</v>
+        <v>554</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>532</v>
+        <v>555</v>
       </c>
       <c r="H30" s="7">
         <v>116</v>
@@ -8091,13 +8214,13 @@
         <v>136504</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>533</v>
+        <v>556</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>534</v>
+        <v>557</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>535</v>
+        <v>558</v>
       </c>
       <c r="M30" s="7">
         <v>220</v>
@@ -8106,13 +8229,13 @@
         <v>243945</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>536</v>
+        <v>559</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>537</v>
+        <v>560</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>538</v>
+        <v>561</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8201,7 +8324,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>539</v>
+        <v>562</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -8216,7 +8339,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>540</v>
+        <v>563</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8246,13 +8369,13 @@
         <v>2590</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>541</v>
+        <v>564</v>
       </c>
       <c r="K33" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>542</v>
+        <v>565</v>
       </c>
       <c r="M33" s="7">
         <v>3</v>
@@ -8264,10 +8387,10 @@
         <v>150</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>543</v>
+        <v>566</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>295</v>
+        <v>319</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -8282,10 +8405,10 @@
         <v>132791</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>544</v>
+        <v>567</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>545</v>
+        <v>568</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>26</v>
@@ -8297,10 +8420,10 @@
         <v>173707</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>546</v>
+        <v>569</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>547</v>
+        <v>570</v>
       </c>
       <c r="L34" s="7" t="s">
         <v>26</v>
@@ -8312,13 +8435,13 @@
         <v>306498</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>548</v>
+        <v>571</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>549</v>
+        <v>572</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>550</v>
+        <v>573</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8386,13 +8509,13 @@
         <v>6613</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>551</v>
+        <v>574</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>552</v>
+        <v>575</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>553</v>
+        <v>576</v>
       </c>
       <c r="H36" s="7">
         <v>10</v>
@@ -8401,13 +8524,13 @@
         <v>13884</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>387</v>
+        <v>411</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>276</v>
+        <v>577</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>554</v>
+        <v>578</v>
       </c>
       <c r="M36" s="7">
         <v>18</v>
@@ -8419,10 +8542,10 @@
         <v>86</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>555</v>
+        <v>579</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>556</v>
+        <v>580</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8437,13 +8560,13 @@
         <v>18201</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>557</v>
+        <v>581</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>558</v>
+        <v>582</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>559</v>
+        <v>583</v>
       </c>
       <c r="H37" s="7">
         <v>31</v>
@@ -8452,13 +8575,13 @@
         <v>40547</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>560</v>
+        <v>584</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>561</v>
+        <v>585</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>562</v>
+        <v>586</v>
       </c>
       <c r="M37" s="7">
         <v>51</v>
@@ -8467,7 +8590,7 @@
         <v>58748</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>563</v>
+        <v>587</v>
       </c>
       <c r="P37" s="7" t="s">
         <v>173</v>
@@ -8488,13 +8611,13 @@
         <v>566514</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>564</v>
+        <v>588</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>565</v>
+        <v>589</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>566</v>
+        <v>590</v>
       </c>
       <c r="H38" s="7">
         <v>614</v>
@@ -8503,13 +8626,13 @@
         <v>723500</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>567</v>
+        <v>591</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>568</v>
+        <v>592</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>569</v>
+        <v>593</v>
       </c>
       <c r="M38" s="7">
         <v>1213</v>
@@ -8518,13 +8641,13 @@
         <v>1290014</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>570</v>
+        <v>594</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>571</v>
+        <v>595</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>572</v>
+        <v>596</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8604,7 +8727,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2B03718-12DA-4723-AA37-975A0C782A10}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7500AD1B-F83B-4812-A818-EF7848C3A0A1}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8621,7 +8744,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>573</v>
+        <v>597</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -8725,46 +8848,46 @@
         <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>815</v>
+        <v>892</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>574</v>
+        <v>598</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>575</v>
+        <v>599</v>
       </c>
       <c r="H4" s="7">
         <v>5</v>
       </c>
       <c r="I4" s="7">
-        <v>2742</v>
+        <v>2752</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>348</v>
+        <v>600</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>86</v>
+        <v>42</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>576</v>
+        <v>601</v>
       </c>
       <c r="M4" s="7">
         <v>6</v>
       </c>
       <c r="N4" s="7">
-        <v>3557</v>
+        <v>3644</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>376</v>
+        <v>602</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>577</v>
+        <v>603</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>578</v>
+        <v>604</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -8776,46 +8899,46 @@
         <v>2</v>
       </c>
       <c r="D5" s="7">
-        <v>1442</v>
+        <v>1544</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>579</v>
+        <v>605</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>580</v>
+        <v>606</v>
       </c>
       <c r="H5" s="7">
         <v>8</v>
       </c>
       <c r="I5" s="7">
-        <v>4608</v>
+        <v>4624</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>581</v>
+        <v>607</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>582</v>
+        <v>608</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>583</v>
+        <v>609</v>
       </c>
       <c r="M5" s="7">
         <v>10</v>
       </c>
       <c r="N5" s="7">
-        <v>6050</v>
+        <v>6168</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>67</v>
+        <v>610</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>584</v>
+        <v>611</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>585</v>
+        <v>612</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8827,46 +8950,46 @@
         <v>80</v>
       </c>
       <c r="D6" s="7">
-        <v>49663</v>
+        <v>53465</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>586</v>
+        <v>613</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>587</v>
+        <v>614</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>588</v>
+        <v>615</v>
       </c>
       <c r="H6" s="7">
         <v>119</v>
       </c>
       <c r="I6" s="7">
-        <v>54869</v>
+        <v>56033</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>589</v>
+        <v>616</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>590</v>
+        <v>617</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>591</v>
+        <v>504</v>
       </c>
       <c r="M6" s="7">
         <v>199</v>
       </c>
       <c r="N6" s="7">
-        <v>104532</v>
+        <v>109498</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>592</v>
+        <v>618</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>593</v>
+        <v>619</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>316</v>
+        <v>620</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -8878,7 +9001,7 @@
         <v>83</v>
       </c>
       <c r="D7" s="7">
-        <v>51920</v>
+        <v>55901</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -8893,7 +9016,7 @@
         <v>132</v>
       </c>
       <c r="I7" s="7">
-        <v>62219</v>
+        <v>63409</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>32</v>
@@ -8908,7 +9031,7 @@
         <v>215</v>
       </c>
       <c r="N7" s="7">
-        <v>114139</v>
+        <v>119310</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>32</v>
@@ -8931,46 +9054,46 @@
         <v>1</v>
       </c>
       <c r="D8" s="7">
-        <v>882</v>
+        <v>832</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>594</v>
+        <v>201</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>44</v>
+        <v>621</v>
       </c>
       <c r="H8" s="7">
         <v>9</v>
       </c>
       <c r="I8" s="7">
-        <v>7487</v>
+        <v>6399</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>67</v>
+        <v>420</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>595</v>
+        <v>622</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>596</v>
+        <v>623</v>
       </c>
       <c r="M8" s="7">
         <v>10</v>
       </c>
       <c r="N8" s="7">
-        <v>8369</v>
+        <v>7231</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>597</v>
+        <v>624</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>129</v>
+        <v>200</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>598</v>
+        <v>625</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -8982,46 +9105,46 @@
         <v>6</v>
       </c>
       <c r="D9" s="7">
-        <v>5794</v>
+        <v>5328</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>502</v>
+        <v>221</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>261</v>
+        <v>80</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>599</v>
+        <v>626</v>
       </c>
       <c r="H9" s="7">
         <v>28</v>
       </c>
       <c r="I9" s="7">
-        <v>17906</v>
+        <v>16127</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>600</v>
+        <v>627</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>601</v>
+        <v>628</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>602</v>
+        <v>629</v>
       </c>
       <c r="M9" s="7">
         <v>34</v>
       </c>
       <c r="N9" s="7">
-        <v>23700</v>
+        <v>21455</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>603</v>
+        <v>630</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>604</v>
+        <v>631</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -9033,46 +9156,46 @@
         <v>88</v>
       </c>
       <c r="D10" s="7">
-        <v>79638</v>
+        <v>74549</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>606</v>
+        <v>632</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>607</v>
+        <v>633</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>608</v>
+        <v>634</v>
       </c>
       <c r="H10" s="7">
         <v>186</v>
       </c>
       <c r="I10" s="7">
-        <v>115964</v>
+        <v>106466</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>609</v>
+        <v>635</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>610</v>
+        <v>636</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>611</v>
+        <v>637</v>
       </c>
       <c r="M10" s="7">
         <v>274</v>
       </c>
       <c r="N10" s="7">
-        <v>195602</v>
+        <v>181015</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>612</v>
+        <v>638</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>613</v>
+        <v>639</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>614</v>
+        <v>640</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -9084,7 +9207,7 @@
         <v>95</v>
       </c>
       <c r="D11" s="7">
-        <v>86314</v>
+        <v>80709</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>32</v>
@@ -9099,7 +9222,7 @@
         <v>223</v>
       </c>
       <c r="I11" s="7">
-        <v>141357</v>
+        <v>128992</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>32</v>
@@ -9114,7 +9237,7 @@
         <v>318</v>
       </c>
       <c r="N11" s="7">
-        <v>227671</v>
+        <v>209700</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>32</v>
@@ -9137,46 +9260,46 @@
         <v>5</v>
       </c>
       <c r="D12" s="7">
-        <v>3211</v>
+        <v>3000</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>317</v>
+        <v>490</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>615</v>
+        <v>641</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>616</v>
+        <v>642</v>
       </c>
       <c r="H12" s="7">
         <v>4</v>
       </c>
       <c r="I12" s="7">
-        <v>2039</v>
+        <v>1874</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>617</v>
+        <v>643</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>464</v>
+        <v>644</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>618</v>
+        <v>645</v>
       </c>
       <c r="M12" s="7">
         <v>9</v>
       </c>
       <c r="N12" s="7">
-        <v>5250</v>
+        <v>4874</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>619</v>
+        <v>646</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>620</v>
+        <v>647</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>621</v>
+        <v>648</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -9188,46 +9311,46 @@
         <v>7</v>
       </c>
       <c r="D13" s="7">
-        <v>3815</v>
+        <v>3591</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>507</v>
+        <v>649</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>622</v>
+        <v>643</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>66</v>
+        <v>650</v>
       </c>
       <c r="H13" s="7">
         <v>11</v>
       </c>
       <c r="I13" s="7">
-        <v>6595</v>
+        <v>5918</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>623</v>
+        <v>422</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>624</v>
+        <v>651</v>
       </c>
       <c r="M13" s="7">
         <v>18</v>
       </c>
       <c r="N13" s="7">
-        <v>10411</v>
+        <v>9509</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>625</v>
+        <v>542</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>90</v>
+        <v>652</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>626</v>
+        <v>653</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -9239,46 +9362,46 @@
         <v>110</v>
       </c>
       <c r="D14" s="7">
-        <v>70574</v>
+        <v>66898</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>627</v>
+        <v>654</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>628</v>
+        <v>655</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>629</v>
+        <v>656</v>
       </c>
       <c r="H14" s="7">
         <v>154</v>
       </c>
       <c r="I14" s="7">
-        <v>86317</v>
+        <v>79633</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>143</v>
+        <v>657</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>630</v>
+        <v>658</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>545</v>
+        <v>659</v>
       </c>
       <c r="M14" s="7">
         <v>264</v>
       </c>
       <c r="N14" s="7">
-        <v>156891</v>
+        <v>146531</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>631</v>
+        <v>660</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>632</v>
+        <v>661</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>633</v>
+        <v>662</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -9290,7 +9413,7 @@
         <v>122</v>
       </c>
       <c r="D15" s="7">
-        <v>77601</v>
+        <v>73490</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>32</v>
@@ -9305,7 +9428,7 @@
         <v>169</v>
       </c>
       <c r="I15" s="7">
-        <v>94951</v>
+        <v>87425</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>32</v>
@@ -9320,7 +9443,7 @@
         <v>291</v>
       </c>
       <c r="N15" s="7">
-        <v>172552</v>
+        <v>160915</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>32</v>
@@ -9343,46 +9466,46 @@
         <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>581</v>
+        <v>552</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>634</v>
+        <v>663</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>557</v>
+        <v>581</v>
       </c>
       <c r="H16" s="7">
         <v>8</v>
       </c>
       <c r="I16" s="7">
-        <v>3460</v>
+        <v>3229</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>635</v>
+        <v>400</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>636</v>
+        <v>664</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>207</v>
+        <v>665</v>
       </c>
       <c r="M16" s="7">
         <v>9</v>
       </c>
       <c r="N16" s="7">
-        <v>4041</v>
+        <v>3781</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>637</v>
+        <v>298</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>638</v>
+        <v>666</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>356</v>
+        <v>667</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -9394,46 +9517,46 @@
         <v>7</v>
       </c>
       <c r="D17" s="7">
-        <v>5237</v>
+        <v>4891</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>639</v>
+        <v>668</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>640</v>
+        <v>416</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>641</v>
+        <v>669</v>
       </c>
       <c r="H17" s="7">
         <v>20</v>
       </c>
       <c r="I17" s="7">
-        <v>8577</v>
+        <v>8006</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>642</v>
+        <v>670</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>147</v>
+        <v>671</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>643</v>
+        <v>672</v>
       </c>
       <c r="M17" s="7">
         <v>27</v>
       </c>
       <c r="N17" s="7">
-        <v>13815</v>
+        <v>12898</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>227</v>
+        <v>673</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>644</v>
+        <v>674</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>645</v>
+        <v>630</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -9445,46 +9568,46 @@
         <v>110</v>
       </c>
       <c r="D18" s="7">
-        <v>72986</v>
+        <v>69225</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>646</v>
+        <v>675</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>54</v>
+        <v>676</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>647</v>
+        <v>677</v>
       </c>
       <c r="H18" s="7">
         <v>228</v>
       </c>
       <c r="I18" s="7">
-        <v>98418</v>
+        <v>92401</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>648</v>
+        <v>678</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>649</v>
+        <v>679</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>650</v>
+        <v>680</v>
       </c>
       <c r="M18" s="7">
         <v>338</v>
       </c>
       <c r="N18" s="7">
-        <v>171404</v>
+        <v>161625</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>651</v>
+        <v>681</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>652</v>
+        <v>682</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>653</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -9496,7 +9619,7 @@
         <v>118</v>
       </c>
       <c r="D19" s="7">
-        <v>78805</v>
+        <v>74668</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>32</v>
@@ -9511,7 +9634,7 @@
         <v>256</v>
       </c>
       <c r="I19" s="7">
-        <v>110455</v>
+        <v>103636</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>32</v>
@@ -9526,7 +9649,7 @@
         <v>374</v>
       </c>
       <c r="N19" s="7">
-        <v>189260</v>
+        <v>178303</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>32</v>
@@ -9564,31 +9687,31 @@
         <v>3</v>
       </c>
       <c r="I20" s="7">
-        <v>1370</v>
+        <v>1207</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>435</v>
+        <v>683</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>654</v>
+        <v>684</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>255</v>
+        <v>685</v>
       </c>
       <c r="M20" s="7">
         <v>3</v>
       </c>
       <c r="N20" s="7">
-        <v>1370</v>
+        <v>1207</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>198</v>
+        <v>91</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>655</v>
+        <v>686</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>356</v>
+        <v>251</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9600,46 +9723,46 @@
         <v>5</v>
       </c>
       <c r="D21" s="7">
-        <v>2874</v>
+        <v>2557</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>656</v>
+        <v>687</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>471</v>
+        <v>688</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>657</v>
+        <v>689</v>
       </c>
       <c r="H21" s="7">
         <v>15</v>
       </c>
       <c r="I21" s="7">
-        <v>6698</v>
+        <v>5916</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>658</v>
+        <v>49</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>659</v>
+        <v>690</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>660</v>
+        <v>691</v>
       </c>
       <c r="M21" s="7">
         <v>20</v>
       </c>
       <c r="N21" s="7">
-        <v>9572</v>
+        <v>8473</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>661</v>
+        <v>692</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>41</v>
+        <v>693</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>662</v>
+        <v>694</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -9651,46 +9774,46 @@
         <v>66</v>
       </c>
       <c r="D22" s="7">
-        <v>35457</v>
+        <v>32259</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>663</v>
+        <v>695</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>664</v>
+        <v>696</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>665</v>
+        <v>697</v>
       </c>
       <c r="H22" s="7">
         <v>146</v>
       </c>
       <c r="I22" s="7">
-        <v>57026</v>
+        <v>51772</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>666</v>
+        <v>698</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>667</v>
+        <v>699</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>668</v>
+        <v>700</v>
       </c>
       <c r="M22" s="7">
         <v>212</v>
       </c>
       <c r="N22" s="7">
-        <v>92483</v>
+        <v>84031</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>669</v>
+        <v>701</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>124</v>
+        <v>702</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9702,7 +9825,7 @@
         <v>71</v>
       </c>
       <c r="D23" s="7">
-        <v>38331</v>
+        <v>34816</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>32</v>
@@ -9717,7 +9840,7 @@
         <v>164</v>
       </c>
       <c r="I23" s="7">
-        <v>65095</v>
+        <v>58895</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>32</v>
@@ -9732,7 +9855,7 @@
         <v>235</v>
       </c>
       <c r="N23" s="7">
-        <v>103426</v>
+        <v>93711</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>32</v>
@@ -9755,46 +9878,46 @@
         <v>3</v>
       </c>
       <c r="D24" s="7">
-        <v>1217</v>
+        <v>1154</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>671</v>
+        <v>703</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>560</v>
+        <v>301</v>
       </c>
       <c r="H24" s="7">
         <v>13</v>
       </c>
       <c r="I24" s="7">
-        <v>5059</v>
+        <v>4687</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>673</v>
+        <v>350</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>674</v>
+        <v>704</v>
       </c>
       <c r="M24" s="7">
         <v>16</v>
       </c>
       <c r="N24" s="7">
-        <v>6276</v>
+        <v>5842</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>675</v>
+        <v>705</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>676</v>
+        <v>206</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>677</v>
+        <v>706</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -9806,46 +9929,46 @@
         <v>8</v>
       </c>
       <c r="D25" s="7">
-        <v>3495</v>
+        <v>3337</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>678</v>
+        <v>707</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>525</v>
+        <v>472</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>645</v>
+        <v>708</v>
       </c>
       <c r="H25" s="7">
         <v>16</v>
       </c>
       <c r="I25" s="7">
-        <v>5428</v>
+        <v>5092</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>679</v>
+        <v>709</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>182</v>
+        <v>710</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>680</v>
+        <v>711</v>
       </c>
       <c r="M25" s="7">
         <v>24</v>
       </c>
       <c r="N25" s="7">
-        <v>8923</v>
+        <v>8429</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>681</v>
+        <v>599</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>682</v>
+        <v>583</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>250</v>
+        <v>712</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9857,46 +9980,46 @@
         <v>124</v>
       </c>
       <c r="D26" s="7">
-        <v>58470</v>
+        <v>55769</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>683</v>
+        <v>713</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>684</v>
+        <v>714</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>685</v>
+        <v>409</v>
       </c>
       <c r="H26" s="7">
         <v>147</v>
       </c>
       <c r="I26" s="7">
-        <v>58868</v>
+        <v>55025</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>686</v>
+        <v>715</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>687</v>
+        <v>716</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>688</v>
+        <v>72</v>
       </c>
       <c r="M26" s="7">
         <v>271</v>
       </c>
       <c r="N26" s="7">
-        <v>117339</v>
+        <v>110795</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>689</v>
+        <v>717</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>690</v>
+        <v>718</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>691</v>
+        <v>719</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9908,7 +10031,7 @@
         <v>135</v>
       </c>
       <c r="D27" s="7">
-        <v>63183</v>
+        <v>60261</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>32</v>
@@ -9923,7 +10046,7 @@
         <v>176</v>
       </c>
       <c r="I27" s="7">
-        <v>69354</v>
+        <v>64804</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>32</v>
@@ -9938,7 +10061,7 @@
         <v>311</v>
       </c>
       <c r="N27" s="7">
-        <v>132538</v>
+        <v>125065</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>32</v>
@@ -9970,37 +10093,37 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>416</v>
+        <v>440</v>
       </c>
       <c r="H28" s="7">
         <v>7</v>
       </c>
       <c r="I28" s="7">
-        <v>5164</v>
+        <v>4573</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>366</v>
+        <v>61</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>370</v>
+        <v>720</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>16</v>
+        <v>721</v>
       </c>
       <c r="M28" s="7">
         <v>7</v>
       </c>
       <c r="N28" s="7">
-        <v>5164</v>
+        <v>4573</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>692</v>
+        <v>666</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>151</v>
+        <v>720</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>693</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -10012,46 +10135,46 @@
         <v>1</v>
       </c>
       <c r="D29" s="7">
-        <v>881</v>
+        <v>837</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>344</v>
+        <v>563</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>694</v>
+        <v>722</v>
       </c>
       <c r="H29" s="7">
         <v>8</v>
       </c>
       <c r="I29" s="7">
-        <v>5660</v>
+        <v>5031</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>695</v>
+        <v>723</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>696</v>
+        <v>724</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>16</v>
+        <v>233</v>
       </c>
       <c r="M29" s="7">
         <v>9</v>
       </c>
       <c r="N29" s="7">
-        <v>6541</v>
+        <v>5868</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>372</v>
+        <v>725</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>697</v>
+        <v>726</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>561</v>
+        <v>727</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -10063,13 +10186,13 @@
         <v>167</v>
       </c>
       <c r="D30" s="7">
-        <v>129959</v>
+        <v>122417</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>698</v>
+        <v>728</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>699</v>
+        <v>729</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>26</v>
@@ -10078,31 +10201,31 @@
         <v>226</v>
       </c>
       <c r="I30" s="7">
-        <v>247364</v>
+        <v>328984</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>52</v>
+        <v>730</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>700</v>
+        <v>731</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>701</v>
+        <v>732</v>
       </c>
       <c r="M30" s="7">
         <v>393</v>
       </c>
       <c r="N30" s="7">
-        <v>377323</v>
+        <v>451402</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>702</v>
+        <v>733</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>495</v>
+        <v>734</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>144</v>
+        <v>735</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -10114,7 +10237,7 @@
         <v>168</v>
       </c>
       <c r="D31" s="7">
-        <v>130840</v>
+        <v>123254</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>32</v>
@@ -10129,7 +10252,7 @@
         <v>241</v>
       </c>
       <c r="I31" s="7">
-        <v>258188</v>
+        <v>338589</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>32</v>
@@ -10144,7 +10267,7 @@
         <v>409</v>
       </c>
       <c r="N31" s="7">
-        <v>389028</v>
+        <v>461844</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>32</v>
@@ -10191,7 +10314,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>703</v>
+        <v>736</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -10206,7 +10329,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>704</v>
+        <v>737</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -10218,46 +10341,46 @@
         <v>1</v>
       </c>
       <c r="D33" s="7">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>705</v>
+        <v>738</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>706</v>
+        <v>739</v>
       </c>
       <c r="H33" s="7">
         <v>3</v>
       </c>
       <c r="I33" s="7">
-        <v>1837</v>
+        <v>1558</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>83</v>
+        <v>740</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>707</v>
+        <v>741</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>695</v>
+        <v>576</v>
       </c>
       <c r="M33" s="7">
         <v>4</v>
       </c>
       <c r="N33" s="7">
-        <v>1997</v>
+        <v>1716</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>708</v>
+        <v>488</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>709</v>
+        <v>742</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>710</v>
+        <v>647</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -10269,13 +10392,13 @@
         <v>233</v>
       </c>
       <c r="D34" s="7">
-        <v>169063</v>
+        <v>146302</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>711</v>
+        <v>743</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>712</v>
+        <v>744</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>26</v>
@@ -10284,31 +10407,31 @@
         <v>340</v>
       </c>
       <c r="I34" s="7">
-        <v>221206</v>
+        <v>185084</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>713</v>
+        <v>745</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>714</v>
+        <v>746</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>715</v>
+        <v>747</v>
       </c>
       <c r="M34" s="7">
         <v>573</v>
       </c>
       <c r="N34" s="7">
-        <v>390268</v>
+        <v>331386</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>716</v>
+        <v>748</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>717</v>
+        <v>485</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>718</v>
+        <v>749</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -10320,7 +10443,7 @@
         <v>234</v>
       </c>
       <c r="D35" s="7">
-        <v>169222</v>
+        <v>146460</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>32</v>
@@ -10335,7 +10458,7 @@
         <v>343</v>
       </c>
       <c r="I35" s="7">
-        <v>223043</v>
+        <v>186642</v>
       </c>
       <c r="J35" s="7" t="s">
         <v>32</v>
@@ -10350,7 +10473,7 @@
         <v>577</v>
       </c>
       <c r="N35" s="7">
-        <v>392265</v>
+        <v>333102</v>
       </c>
       <c r="O35" s="7" t="s">
         <v>32</v>
@@ -10373,46 +10496,46 @@
         <v>11</v>
       </c>
       <c r="D36" s="7">
-        <v>6707</v>
+        <v>6431</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>719</v>
+        <v>666</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>720</v>
+        <v>750</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>129</v>
+        <v>751</v>
       </c>
       <c r="H36" s="7">
         <v>49</v>
       </c>
       <c r="I36" s="7">
-        <v>27321</v>
+        <v>24721</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>471</v>
+        <v>171</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>248</v>
+        <v>725</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>721</v>
+        <v>752</v>
       </c>
       <c r="M36" s="7">
         <v>60</v>
       </c>
       <c r="N36" s="7">
-        <v>34028</v>
+        <v>31152</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>722</v>
+        <v>582</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>81</v>
+        <v>753</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>723</v>
+        <v>754</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10424,46 +10547,46 @@
         <v>37</v>
       </c>
       <c r="D37" s="7">
-        <v>23698</v>
+        <v>22245</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>724</v>
+        <v>755</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>171</v>
+        <v>38</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>371</v>
+        <v>756</v>
       </c>
       <c r="H37" s="7">
         <v>109</v>
       </c>
       <c r="I37" s="7">
-        <v>57310</v>
+        <v>52272</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>156</v>
+        <v>757</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>725</v>
+        <v>202</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>726</v>
+        <v>419</v>
       </c>
       <c r="M37" s="7">
         <v>146</v>
       </c>
       <c r="N37" s="7">
-        <v>81008</v>
+        <v>74516</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>727</v>
+        <v>758</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>157</v>
+        <v>759</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>255</v>
+        <v>760</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10475,46 +10598,46 @@
         <v>978</v>
       </c>
       <c r="D38" s="7">
-        <v>665811</v>
+        <v>620883</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>728</v>
+        <v>761</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>729</v>
+        <v>762</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>730</v>
+        <v>763</v>
       </c>
       <c r="H38" s="7">
         <v>1546</v>
       </c>
       <c r="I38" s="7">
-        <v>940032</v>
+        <v>955400</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>731</v>
+        <v>764</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>537</v>
+        <v>765</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="M38" s="7">
         <v>2524</v>
       </c>
       <c r="N38" s="7">
-        <v>1605843</v>
+        <v>1576283</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>733</v>
+        <v>766</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>734</v>
+        <v>767</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>735</v>
+        <v>768</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -10526,7 +10649,7 @@
         <v>1026</v>
       </c>
       <c r="D39" s="7">
-        <v>696216</v>
+        <v>649558</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>32</v>
@@ -10541,7 +10664,7 @@
         <v>1704</v>
       </c>
       <c r="I39" s="7">
-        <v>1024663</v>
+        <v>1032393</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>32</v>
@@ -10556,7 +10679,7 @@
         <v>2730</v>
       </c>
       <c r="N39" s="7">
-        <v>1720879</v>
+        <v>1681951</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>32</v>
